--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="198">
   <si>
     <t>Version name</t>
   </si>
@@ -743,6 +743,78 @@
   <si>
     <t>We should first check if a SUNA sensor is mounted on the float before adding 'on the fly' missing associated parameters.
 Bug corrected in float/cycle/profile numbers of the output log contents.</t>
+  </si>
+  <si>
+    <t>007a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20160916_007a</t>
+  </si>
+  <si>
+    <t>Based on' 006b' version: 
+ - 6 new Apex Argos decoders (92 floats)
+ - few corrections on previous version</t>
+  </si>
+  <si>
+    <t>007b</t>
+  </si>
+  <si>
+    <t>compute_nva_dates_1_2.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (19/09/2016 17:52)</t>
+  </si>
+  <si>
+    <t>From NOVA float 6903179 we only received hydraulic message for its cycle #161 =&gt; we should manage cycle timings accordingly.</t>
+  </si>
+  <si>
+    <t>007c</t>
+  </si>
+  <si>
+    <t>compute_BBP700_301.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (20/09/2016 16:33)</t>
+  </si>
+  <si>
+    <t>To process BBP700 for FLBB INCOIS floats the angular is 142 degree and the khi coef 1.097.</t>
+  </si>
+  <si>
+    <t>007d</t>
+  </si>
+  <si>
+    <t>compute_apx_times.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (21/09/2016 09:38)</t>
+  </si>
+  <si>
+    <t>For Apex TST processing, use the 'improved method' before the TWR one (we had a bad trans repetition period in de data base which cause erroneous TST)</t>
+  </si>
+  <si>
+    <t>007e</t>
+  </si>
+  <si>
+    <t>Mail (22/09/2016 11:54)</t>
+  </si>
+  <si>
+    <t>Complement to '007d' patch.</t>
+  </si>
+  <si>
+    <t>008a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20161021_008a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on' 007e' version: 
+ - 2 new Apex Argos decoders (5 floats)
+ - improvement of Iridium decoders: rsync log parsing, Bio data decoding, using virtual buffers </t>
   </si>
 </sst>
 </file>
@@ -1143,13 +1215,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1944,6 +2016,108 @@
         <v>176</v>
       </c>
     </row>
+    <row r="47" spans="1:5" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="10">
+        <v>42629</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="5">
+        <v>42632</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="5">
+        <v>42633</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="5">
+        <v>42634</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="5">
+        <v>42635</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="10">
+        <v>42664</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="229">
   <si>
     <t>Version name</t>
   </si>
@@ -815,6 +815,141 @@
     <t xml:space="preserve">Based on' 007e' version: 
  - 2 new Apex Argos decoders (5 floats)
  - improvement of Iridium decoders: rsync log parsing, Bio data decoding, using virtual buffers </t>
+  </si>
+  <si>
+    <t>008b</t>
+  </si>
+  <si>
+    <t>For Provor Iridium and Nova floats, the decoder crashed when reprocessing data according to buffer list.
+For Provor Rudics floats, the data files are now stored in a 'loginName_wmo' directory (previously in a 'loginName' directory).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode_provor_iridium_sbd.m
+get_float_cycle_list_iridium_rudics.m
+copy_remocean_sbd_files.m
+decode_nova_iridium_sbd.m             
+decode_nva_data_ir_sbd_2001.m         
+decode_nva_data_ir_sbd_2002.m         
+decode_provor_iridium_sbd.m           
+decode_prv_data_ir_sbd_201_203.m      
+decode_prv_data_ir_sbd_202.m          
+decode_prv_data_ir_sbd_204.m          
+decode_prv_data_ir_sbd_205.m          
+decode_prv_data_ir_sbd_206_207_208.m  
+decode_prv_data_ir_sbd_209.m          
+decode_prv_data_ir_sbd_210_211.m
+init_default_values.m
+</t>
+  </si>
+  <si>
+    <t>Mail (09/11/2016 15:55)</t>
+  </si>
+  <si>
+    <t>008c</t>
+  </si>
+  <si>
+    <t>decode_prv_data_ir_sbd_210_211.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Improve location sign determination for decId #210 floats. We now use the 'best' Iridium location, i.e. with minimum CEP radius (instead of the first one).</t>
+  </si>
+  <si>
+    <t>Mail (14/12/2016 14:51)</t>
+  </si>
+  <si>
+    <t>008d</t>
+  </si>
+  <si>
+    <t>ignore_duplicated_mail_files.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (20/12/2016 08:19)</t>
+  </si>
+  <si>
+    <t>Correct selection of Iridium mail files to delete when duplicates exist (for float 6901468 which encountered Iridium transmission issues).</t>
+  </si>
+  <si>
+    <t>008e</t>
+  </si>
+  <si>
+    <t>Mail (20/12/2016 12:11)</t>
+  </si>
+  <si>
+    <t>When the info.json file is missing and many configuration files are provided, the decoder is not able to find which one should be used. It stops but the path of the XML report is not set. In this case we set this path to '.' under windows and to '/tmp' under Linux.</t>
+  </si>
+  <si>
+    <t>decode_provor_2_nc_dm.m
+decode_argo_2_nc_rt.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>008f</t>
+  </si>
+  <si>
+    <t>compute_drift_NITRATE_BIS_105_to_109.m
+compute_profile_NITRATE_BIS_105_to_109.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Replace complex values of NITRATE with associated FillValue (6901865 #34: nitrate spectrum is inconsistent =&gt;some  processed NITRATE values are complex).</t>
+  </si>
+  <si>
+    <t>Mail (21/12/2016 17:09)</t>
+  </si>
+  <si>
+    <t>008g</t>
+  </si>
+  <si>
+    <t>Mail (17/01/2017 17:32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode_provor_iridium_sbd.m            
+decode_prv_data_ir_sbd_201_203.m       
+decode_prv_data_ir_sbd_202.m           
+decode_prv_data_ir_sbd_204.m           
+decode_prv_data_ir_sbd_205.m           
+decode_prv_data_ir_sbd_206_207_208.m   
+decode_prv_data_ir_sbd_209.m           
+decode_prv_data_ir_sbd_210_211.m       
+finalize_trajectory_data_ir_sbd.m      
+finalize_trajectory_data_ir_sbd_nva.m
+ print_calib_coef_in_csv.m              
+store_gps_data_ir_sbd.m 
+init_default_values.m </t>
+  </si>
+  <si>
+    <t>For decoder Ids 201 to 209:
+ - Improve detection of Deep VS Surface phases: detection is now only based on number of transmitted messages and measurements (provided in the float tech information).
+ - Improve cycle number management: the first deep cycle should be #1.</t>
+  </si>
+  <si>
+    <t>008h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_prv_data_two_tech_msg.m
+split_argos_file_ghost.m
+rename_argos_input_file.m
+init_default_values.m </t>
+  </si>
+  <si>
+    <t>Mail (08/02/2017 11:13)</t>
+  </si>
+  <si>
+    <t>For decoder Ids 30 and 32: separate expected message Ids (4, 5, 6 for CTD floats and 7, 8, 9 for CTDO floats).
+For Apex Argos decoders: the ghost detection failed for float 6901855. We then split the Argos file only if the ghost message has at most 2 float messages in its satellite pass.</t>
+  </si>
+  <si>
+    <t>009a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_201702211_009a</t>
+  </si>
+  <si>
+    <t>Based on' 008h' version: 
+ - new decoder for CTS5 floats (decId 121)</t>
   </si>
 </sst>
 </file>
@@ -1215,13 +1350,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2118,6 +2253,142 @@
         <v>197</v>
       </c>
     </row>
+    <row r="53" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="5">
+        <v>42718</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" s="5">
+        <v>42724</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="5">
+        <v>42724</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="5">
+        <v>42725</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" s="5">
+        <v>42752</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="5">
+        <v>42774</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="10">
+        <v>42787</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="252">
   <si>
     <t>Version name</t>
   </si>
@@ -950,6 +950,118 @@
   <si>
     <t>Based on' 008h' version: 
  - new decoder for CTS5 floats (decId 121)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compute_prv_dates_210_211.m            
+decode_provor_iridium_sbd.m            
+decode_prv_data_ir_sbd_210_211.m       
+finalize_trajectory_data_ir_sbd.m      
+print_tech_data_in_csv_file_210_211.m  
+process_trajectory_data_210_211.m      
+store_gps_data_ir_sbd.m                
+update_float_config_ir_sbd_210_211.m
+init_default_values.m                  
+</t>
+  </si>
+  <si>
+    <t>009b</t>
+  </si>
+  <si>
+    <t>Mail (24/02/2017 08:52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update of decId 210 and 211 to manage:
+- duplicates in float transmission (3901863 and 3901868)
+- reset of a float at sea (3901863)
+- no data sample during subsurface cycle (but only for cycles #21, #22 and #23 of 3901863)
+</t>
+  </si>
+  <si>
+    <t>009c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode_provor_iridium_sbd.m            
+init_default_values.m                  
+</t>
+  </si>
+  <si>
+    <t>Mail (27/02/2017 09:41)</t>
+  </si>
+  <si>
+    <t>Assign a configuration to cycle #0 data. Useful when a float stays all its life in EOL mode.</t>
+  </si>
+  <si>
+    <t>decode_provor_iridium_rudics_cts4
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>009d</t>
+  </si>
+  <si>
+    <t>add_launch_data_ir_rudics has no argument now.</t>
+  </si>
+  <si>
+    <t>Mail (27/02/2017 14:54)</t>
+  </si>
+  <si>
+    <t>009e</t>
+  </si>
+  <si>
+    <t>Mail (02/03/2017 17:13)</t>
+  </si>
+  <si>
+    <t>add_vertical_sampling_scheme_ir_rudics_cts5_from_payload.m  
+cut_ctd_profile_ir_rudics.m                                 
+decode_payload_data.m                                       
+get_payload_config.m                                        
+print_dates_in_csv_file_121.m                               
+print_payload_data_in_csv_file_121.m                        
+process_profiles_ir_rudics_cts5_from_payload.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Update needed to cope with CTS5 float anomaly: 6902742 transmitted the payload configuration with the payload data.</t>
+  </si>
+  <si>
+    <t>009f</t>
+  </si>
+  <si>
+    <t>decode_provor_iridium_sbd.m           
+decode_prv_data_ir_sbd_201_203.m      
+decode_prv_data_ir_sbd_202.m          
+decode_prv_data_ir_sbd_204.m          
+decode_prv_data_ir_sbd_205.m          
+decode_prv_data_ir_sbd_206_207_208.m  
+decode_prv_data_ir_sbd_209.m          
+decode_prv_data_ir_sbd_210_211.m      
+is_buffer_completed_ir_sbd.m          
+process_trajectory_data_204_205.m     
+set_float_config_ir_sbd.m             
+set_float_config_ir_sbd_nva.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (03/03/2017 17:01)</t>
+  </si>
+  <si>
+    <t>Following the '008g' patch, one global variable was not correctly initialized when decoding data from buffer list.</t>
+  </si>
+  <si>
+    <t>010a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20170328_010a</t>
+  </si>
+  <si>
+    <t>Based on '009f' version: 
+ - new decoder for CTS4 BISULFIDE (decId 110)
+ - update of SENSOR and SENSOR_MODEL names + few static configuration parameters
+ - finalization of CTS5 floats with SUNA sensor
+ - specific QC test implemnted for BBP
+ - evolutions for the Trajectory files to be accepted by the (coming soon) GDAC TRAJ checker
+ - buoyancy actions reported in the TECH_AUX files
+ - management of data transmitted twice when float is switched into EOL mode (decId 201 &amp; 211)</t>
   </si>
 </sst>
 </file>
@@ -1350,20 +1462,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
+      <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="54" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="207" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="3"/>
@@ -2389,6 +2501,108 @@
         <v>228</v>
       </c>
     </row>
+    <row r="61" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B61" s="5">
+        <v>42790</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62" s="5">
+        <v>42793</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63" s="5">
+        <v>42793</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" s="5">
+        <v>42796</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" s="5">
+        <v>42797</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="14" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B66" s="10">
+        <v>42822</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="255">
   <si>
     <t>Version name</t>
   </si>
@@ -1062,6 +1062,18 @@
  - evolutions for the Trajectory files to be accepted by the (coming soon) GDAC TRAJ checker
  - buoyancy actions reported in the TECH_AUX files
  - management of data transmitted twice when float is switched into EOL mode (decId 201 &amp; 211)</t>
+  </si>
+  <si>
+    <t>011a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20170424_011a</t>
+  </si>
+  <si>
+    <t>Based on '010a' version: 
+ - new decoder for ARVOR-ARN-IR Ice floats (Coriolis version 5.45 decId 212)
+ - new decoder for PROVOR-ARN-DO-IR floats (Coriolis version 5.74 decId 213)</t>
   </si>
 </sst>
 </file>
@@ -1105,12 +1117,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1144,22 +1171,22 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,13 +1489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
+      <selection pane="bottomRight" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,7 +1508,7 @@
     <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,20 +1525,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>42313</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1600,7 +1627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -1617,20 +1644,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:5" s="9" customFormat="1" ht="142.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>42193</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1702,7 +1729,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -1719,20 +1746,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="14" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:5" s="9" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="11">
         <v>42349</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="14" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1889,7 +1916,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>94</v>
       </c>
@@ -1906,20 +1933,20 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="14" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="11">
         <v>42429</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="14" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2144,7 +2171,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>157</v>
       </c>
@@ -2161,20 +2188,20 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="11">
         <v>42549</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="14" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2212,7 +2239,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>166</v>
       </c>
@@ -2229,24 +2256,24 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:5" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="11">
         <v>42559</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>173</v>
       </c>
@@ -2263,20 +2290,20 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="11">
         <v>42629</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="14" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2331,7 +2358,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>192</v>
       </c>
@@ -2348,20 +2375,20 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="11">
         <v>42664</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="14" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2467,7 +2494,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>222</v>
       </c>
@@ -2484,20 +2511,20 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+    <row r="60" spans="1:5" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="11">
         <v>42787</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="14" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2569,7 +2596,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>245</v>
       </c>
@@ -2586,21 +2613,38 @@
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="14" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
+    <row r="66" spans="1:5" s="9" customFormat="1" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="11">
         <v>42822</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="14" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B67" s="11">
+        <v>42849</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="287">
   <si>
     <t>Version name</t>
   </si>
@@ -1074,6 +1074,166 @@
     <t>Based on '010a' version: 
  - new decoder for ARVOR-ARN-IR Ice floats (Coriolis version 5.45 decId 212)
  - new decoder for PROVOR-ARN-DO-IR floats (Coriolis version 5.74 decId 213)</t>
+  </si>
+  <si>
+    <t>011b</t>
+  </si>
+  <si>
+    <t>add_configuration_number_ir_rudics_cts5.m  
+collect_technical_data_cts5.m              
+collect_trajectory_data_cts5.m             
+compute_nva_dates_1_2.m                    
+decode_event_data_cts5.m                   
+decode_nva_data_ir_sbd_2001.m              
+decode_nva_data_ir_sbd_2002.m              
+get_expected_file_list.m                   
+get_nva_cycle_time_init_struct.m           
+parse_input_param_iridium_rudics_dm.m      
+process_trajectory_data_2001.m             
+process_trajectory_data_2002.m             
+process_trajectory_data_cts5.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (25/04/2017 17:46)</t>
+  </si>
+  <si>
+    <t>Manage:
+ - Dova 6903190: switched in EOL mode
+ - CTS5 6902742: switched in EOL mode after an emergency ascent
+ - update dm decoder
+ - update configuration labels for Arvor Ice (decId 212)</t>
+  </si>
+  <si>
+    <t>compute_nva_dates_1_2.m                
+decode_nova_iridium_sbd.m              
+decode_nva_data_ir_sbd_2001.m          
+decode_nva_data_ir_sbd_2002.m          
+finalize_trajectory_data_ir_sbd_nva.m  
+get_nva_clock_offset.m                 
+get_nva_cycle_time_init_struct.m
+process_trajectory_data_2001.m         
+process_trajectory_data_2002.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>11c</t>
+  </si>
+  <si>
+    <t>Correctly manage EOL cycles of Nova 6903194 and Dova 6903180 and 6903190.
+The prelude cycle is numbered 255 (float number) (cf. 6903194) then the floats switched in EOL (with incremented cycle numbers) and finally when cycle number 255 (float number) is reached, all following EOL cycles are numbered 255 (float number).
+In decoder output, the prelude is stored in cycle #0, the EOL cycles are stored according to cycle numbers that have been received. Thus, cycle 256 gathers all GPS locations received in the last part of the float EOL (with float cycle number 255).</t>
+  </si>
+  <si>
+    <t>11d</t>
+  </si>
+  <si>
+    <t>get_prv_data_two_tech_msg.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (09/05/2017 14:39)</t>
+  </si>
+  <si>
+    <t>Manage EOL of float 6902685.</t>
+  </si>
+  <si>
+    <t>Mail (01/05/2017 19:57)</t>
+  </si>
+  <si>
+    <t>11e</t>
+  </si>
+  <si>
+    <t>decode_nva_data_ir_sbd_2001.m          
+decode_nva_data_ir_sbd_2002.m          
+finalize_trajectory_data_ir_sbd_nva.m  
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (12/05/2017 09:28)</t>
+  </si>
+  <si>
+    <t>Manage EOL of Nova/Dova floats.</t>
+  </si>
+  <si>
+    <t>11f</t>
+  </si>
+  <si>
+    <t>create_nc_mono_prof_c_files_3_1.m  
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Manage anomaly of float 6902764 #58 (one packet of the ascending profile transmitted twice) in the decision to generate or not the PROF.nc file ( when GENERATE_NC_MONO_PROF = 2).</t>
+  </si>
+  <si>
+    <t>Mail (15/05/2017 11:05)</t>
+  </si>
+  <si>
+    <t>11g</t>
+  </si>
+  <si>
+    <t>Anomaly in decoderId #30 and #32. Grounding cycle information is reported in the TECH file but not in the TRAJ file (cf. 39001927 #7).</t>
+  </si>
+  <si>
+    <t>compute_prv_dates_30_32.m     
+decode_provor_argos_data.m    
+process_trajectory_data_30.m  
+process_trajectory_data_32.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>Mail (15/05/2017 16:08)</t>
+  </si>
+  <si>
+    <t>11h</t>
+  </si>
+  <si>
+    <t>add_profile_date_and_location_201_to_213_2001_2002.m  
+add_profile_date_and_location_ir_rudics_cts4.m        
+add_profile_date_and_location_ir_rudics_cts5.m        
+add_profile_date_and_location_ir_sbd2.m               
+compute_interpolated_profile_location.m               
+decode_prv_data_ir_sbd_201_203.m                      
+decode_prv_data_ir_sbd_202.m                          
+decode_prv_data_ir_sbd_210_211.m                      
+decode_prv_data_ir_sbd_212.m                          
+decode_prv_data_ir_sbd_213.m                          
+fill_empty_profile_locations_argos.m                  
+fill_empty_profile_locations_ir_rudics.m              
+fill_empty_profile_locations_ir_sbd.m                 
+fill_empty_profile_locations_ir_sbd2.m                
+get_platform_type.m                                   
+get_wmo_instrument_type.m                             
+interpolate_between_2_locations.m                     
+read_argos_file_fmt1.m                                
+read_argos_file_fmt2.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>1 - Correction of "Float #%d Cycle #%d: Shift in float day (previous offset = %d (%s), new offset = %d (%s))" message contents.
+2 - Correction of the interpolation between 2 fixes located on each part of the date line.
+3 - PLATFORM_TYPE = 'DOVA' and WMO_INST_TYPE = '869' is not accepted any more for DOVA float =&gt; replaced by PLATFORM_TYPE = 'NOVA' and WMO_INST_TYPE = '865' (i.e. NOVA and DOVA share the same PLATFORM_TYPE and WMO_INST_TYPE).</t>
+  </si>
+  <si>
+    <t>Mail (18/05/2017 17:50)</t>
+  </si>
+  <si>
+    <t>012a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20170530_012a</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on '011h' version: 
+ - new technical parameters (stored in TECH_AUX files) used for Coriolis internal monitoring of float tech data
+ - management of roll-over to decode grounding day for DecId 201, 202, 203 (Arvor Deep)
+ - correction of grounding dates (when relative to "descent to profile depth" phase) for DecId 210, 211, 212, 213
+ - duplication of PRES axis in b PROF files (even when no b parameter is sampled in the concerned N_PROF profile)
+</t>
   </si>
 </sst>
 </file>
@@ -1489,13 +1649,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E74" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E70" sqref="E70"/>
+      <selection pane="bottomRight" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2647,6 +2807,142 @@
         <v>254</v>
       </c>
     </row>
+    <row r="68" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" s="5">
+        <v>42850</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" s="5">
+        <v>42856</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" s="5">
+        <v>42864</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B71" s="5">
+        <v>42867</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B72" s="5">
+        <v>42870</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B73" s="5">
+        <v>42870</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B74" s="5">
+        <v>42873</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B75" s="11">
+        <v>42885</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="302">
   <si>
     <t>Version name</t>
   </si>
@@ -1117,17 +1117,11 @@
 init_default_values.m</t>
   </si>
   <si>
-    <t>11c</t>
-  </si>
-  <si>
     <t>Correctly manage EOL cycles of Nova 6903194 and Dova 6903180 and 6903190.
 The prelude cycle is numbered 255 (float number) (cf. 6903194) then the floats switched in EOL (with incremented cycle numbers) and finally when cycle number 255 (float number) is reached, all following EOL cycles are numbered 255 (float number).
 In decoder output, the prelude is stored in cycle #0, the EOL cycles are stored according to cycle numbers that have been received. Thus, cycle 256 gathers all GPS locations received in the last part of the float EOL (with float cycle number 255).</t>
   </si>
   <si>
-    <t>11d</t>
-  </si>
-  <si>
     <t>get_prv_data_two_tech_msg.m
 init_default_values.m</t>
   </si>
@@ -1139,9 +1133,6 @@
   </si>
   <si>
     <t>Mail (01/05/2017 19:57)</t>
-  </si>
-  <si>
-    <t>11e</t>
   </si>
   <si>
     <t>decode_nva_data_ir_sbd_2001.m          
@@ -1156,9 +1147,6 @@
     <t>Manage EOL of Nova/Dova floats.</t>
   </si>
   <si>
-    <t>11f</t>
-  </si>
-  <si>
     <t>create_nc_mono_prof_c_files_3_1.m  
 init_default_values.m</t>
   </si>
@@ -1167,9 +1155,6 @@
   </si>
   <si>
     <t>Mail (15/05/2017 11:05)</t>
-  </si>
-  <si>
-    <t>11g</t>
   </si>
   <si>
     <t>Anomaly in decoderId #30 and #32. Grounding cycle information is reported in the TECH file but not in the TRAJ file (cf. 39001927 #7).</t>
@@ -1183,9 +1168,6 @@
   </si>
   <si>
     <t>Mail (15/05/2017 16:08)</t>
-  </si>
-  <si>
-    <t>11h</t>
   </si>
   <si>
     <t>add_profile_date_and_location_201_to_213_2001_2002.m  
@@ -1233,6 +1215,86 @@
  - management of roll-over to decode grounding day for DecId 201, 202, 203 (Arvor Deep)
  - correction of grounding dates (when relative to "descent to profile depth" phase) for DecId 210, 211, 212, 213
  - duplication of PRES axis in b PROF files (even when no b parameter is sampled in the concerned N_PROF profile)
+</t>
+  </si>
+  <si>
+    <t>011c</t>
+  </si>
+  <si>
+    <t>011d</t>
+  </si>
+  <si>
+    <t>011e</t>
+  </si>
+  <si>
+    <t>011f</t>
+  </si>
+  <si>
+    <t>011g</t>
+  </si>
+  <si>
+    <t>011h</t>
+  </si>
+  <si>
+    <t>create_nc_meta_aux_file.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>DATA_CENTRE added to META_AUX file format.</t>
+  </si>
+  <si>
+    <t>Mail (08/06/2017 15:17)</t>
+  </si>
+  <si>
+    <t>012b</t>
+  </si>
+  <si>
+    <t>012c</t>
+  </si>
+  <si>
+    <t>add_profile_date_and_location_30_32.m
+parse_input_param_argos.m
+rename_argos_input_file.m
+init_default_values.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - correction of anomalies raised when very few Argos data is processed (in 'profile')
+ - process Argos input file in 'profile' mode when it contains at least g_decArgo_minNumMsgForProcessing (=5) float messages</t>
+  </si>
+  <si>
+    <t>Mail (12/06/2017 10:52)</t>
+  </si>
+  <si>
+    <t>012d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode_cycle_number_nva_data_ir_sbd.m  
+decode_nova_iridium_sbd.m 
+read_nova_iridium_sbd.m
+init_default_values.m    </t>
+  </si>
+  <si>
+    <t>Manage specific EOL of Nova 6903192.</t>
+  </si>
+  <si>
+    <t>Mail (23/06/2017 15:04)</t>
+  </si>
+  <si>
+    <t>013a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20170905_013a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on '012d' version:
+ - 13 new decoders for Apex Iridium Rudics floats
+ - new decoder for Navis floats
+ - new decoder for PROVOR-DO-IR Ice floats (Coriolis version 5.75 decId 214)
+ - new decoder for ARVOR-DEEP floats with "Near Surface" and "In Air" measurements (Coriolis version 5.64 decId 215)
+ - correction on ARVOR-ARN-IR Ice floats decoder (Coriolis version 5.45 decId 212): Ice mode is optional
+ - correction of grounding date for Argos floats
+ - update of generate_json_float_meta_* tools (creation of RT version)
 </t>
   </si>
 </sst>
@@ -1649,13 +1711,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E74" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E77" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E75" sqref="E75"/>
+      <selection pane="bottomRight" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2826,7 +2888,7 @@
     </row>
     <row r="69" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="B69" s="5">
         <v>42856</v>
@@ -2835,112 +2897,180 @@
         <v>259</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B70" s="5">
         <v>42864</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B71" s="5">
         <v>42867</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="B72" s="5">
         <v>42870</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B73" s="5">
         <v>42870</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B74" s="5">
         <v>42873</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B75" s="11">
         <v>42885</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B76" s="5">
+        <v>42894</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B77" s="5">
+        <v>42898</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B78" s="5">
+        <v>42909</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="9" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B79" s="11">
+        <v>42983</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="320">
   <si>
     <t>Version name</t>
   </si>
@@ -1295,6 +1295,105 @@
  - correction on ARVOR-ARN-IR Ice floats decoder (Coriolis version 5.45 decId 212): Ice mode is optional
  - correction of grounding date for Argos floats
  - update of generate_json_float_meta_* tools (creation of RT version)
+</t>
+  </si>
+  <si>
+    <t>013b</t>
+  </si>
+  <si>
+    <t>Anomaly in '013a' concerning the default value used for a configuration value retrieved with the "get_config_value" function.</t>
+  </si>
+  <si>
+    <t>compute_prv_dates_204_to_209.m         
+compute_prv_dates_30_32.m              
+create_prv_drift_30.m                  
+init_default_values.m                  
+create_prv_drift_32.m                  
+estimate_cycle_number.m                
+estimate_cycle_number_209.m            
+process_profiles_201_203_215.m         
+process_profiles_202.m                 
+process_profiles_204_205.m             
+process_profiles_206_to_208_213_214.m  
+process_profiles_209.m                 
+process_profiles_210_to_212.m          
+set_float_config_argos.m               
+store_tech2_data_for_nc_212_214.m</t>
+  </si>
+  <si>
+    <t>013c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init_default_values.m
+decode_provor_iridium_sbd.m               
+get_nc_tech_parameters_json.m                                  
+store_tech1_data_for_nc_201_to_203_215.m  
+store_tech1_data_for_nc_210_to_214.m      
+store_tech1_data_for_nc_30.m              
+store_tech1_data_for_nc_32.m              
+store_tech2_data_for_nc_201_203_215.m     
+store_tech2_data_for_nc_202.m             
+store_tech2_data_for_nc_210_211_213.m     
+store_tech2_data_for_nc_212_214.m         
+store_tech2_data_for_nc_30_32.m           
+store_tech_data_for_nc_2001.m             
+store_tech_data_for_nc_2002.m             
+store_tech_data_for_nc_204_to_208.m       
+store_tech_data_for_nc_209.m              
+</t>
+  </si>
+  <si>
+    <t>Update to report technical information of 'surface' cycles in the TECH_AUX files (for decoders 30, 32, 201 to 215, 2001 and 2002).</t>
+  </si>
+  <si>
+    <t>013d</t>
+  </si>
+  <si>
+    <t>init_default_values.m 
+finalize_profile_aux_ir_rudics_cts5.m 
+process_apx_ir_rudics_profile.m</t>
+  </si>
+  <si>
+    <t>Double precision lost for 'MTIME' data (stored in a single precision variable).</t>
+  </si>
+  <si>
+    <t>013e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init_default_values.m  
+add_vertical_sampling_scheme_ir_rudics.m  
+decode_prv_data_ir_rudics.m               </t>
+  </si>
+  <si>
+    <t>For CTS4 float decoders: check if received packets are consistent with sensor mounted on the float + create a default VSS when configuration information are missing.</t>
+  </si>
+  <si>
+    <t>013f</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+adjust_clock_offset_apx_ir_rudics.m         
+decode_apex_iridium_rudics_data.m               
+decode_apx_ir_rudics.m                      
+decode_msg_apx_ir_rudics.m                  
+get_apx_ir_rudics_float_time_init_struct.m                    
+print_dates_in_csv_file_apx_ir_rudics.m     
+process_apx_ir_rudics_time_data_evts.m      
+process_trajectory_data_apx_ir_rudics.m</t>
+  </si>
+  <si>
+    <t>For Apex Ir and Navis (decoder Id 1101 to 1113 and 1201): use the profile terminated date from .msg file to set AET if no other information is available from .log file.</t>
+  </si>
+  <si>
+    <t>014a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20170926_014a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on '013f' version:
+ - one new decoder (decId 122) for Provor CTS5 floats (7.02) (with AMPT version 1.06.010)
 </t>
   </si>
 </sst>
@@ -1711,13 +1810,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E77" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E82" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E79" sqref="E79"/>
+      <selection pane="bottomRight" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3073,6 +3172,108 @@
         <v>301</v>
       </c>
     </row>
+    <row r="80" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B80" s="5">
+        <v>42989</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B81" s="5">
+        <v>42989</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B82" s="5">
+        <v>42989</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B83" s="5">
+        <v>42991</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" s="5">
+        <v>42997</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B85" s="11">
+        <v>43004</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="341">
   <si>
     <t>Version name</t>
   </si>
@@ -1394,6 +1394,133 @@
   <si>
     <t xml:space="preserve">Based on '013f' version:
  - one new decoder (decId 122) for Provor CTS5 floats (7.02) (with AMPT version 1.06.010)
+</t>
+  </si>
+  <si>
+    <t>014b</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+decode_prv_data_ir_sbd_215.m</t>
+  </si>
+  <si>
+    <t>Global variables g_decArgo_13Or11TypePacketExpected and g_decArgo_14Or12TypePacketExpected not initialized in some cases (decId 215).</t>
+  </si>
+  <si>
+    <t>014c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init_default_values.m
+decode_provor_iridium_sbd.m               
+decode_prv_data_ir_sbd_210_211.m          
+decode_prv_data_ir_sbd_212.m              
+decode_prv_data_ir_sbd_213.m              
+decode_prv_data_ir_sbd_214.m                          
+process_trajectory_data_202.m             
+process_trajectory_data_210_to_212.m      
+process_trajectory_data_213_214.m         
+update_float_config_ir_sbd_210_211_213.m  
+update_float_config_ir_sbd_212_214.m      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a float has been reset at sea 'float internal cycle number' and 'decoder cycle number' differ.
+We should use 'float internal cycle number' to manage configuration parameters at each cycle (bug detected from erroneous management of alternate profile depth for float 6901250).
+Correction for DecId: 210 to 214 (all decId that manage reset of the float).
+</t>
+  </si>
+  <si>
+    <t>014d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init_default_values.m
+process_apx_ir_rudics_profile.m  </t>
+  </si>
+  <si>
+    <t>For Apex Iridium and Navis floats, create the 'Primary sampling' profile by merging HR and LR data.</t>
+  </si>
+  <si>
+    <t>014e</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+compute_nva_dates_1_2.m             
+decode_nva_data_ir_sbd_2001.m       
+decode_nva_data_ir_sbd_2002.m             
+print_tech_data_in_csv_file_2001.m  
+print_tech_data_in_csv_file_2002.m  
+store_gps_data_ir_sbd_nva.m</t>
+  </si>
+  <si>
+    <t>Manage specificities of EOL transmitted data for a Nova float (to process 6903195 received data).</t>
+  </si>
+  <si>
+    <t>014f</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+format_position.m                                  
+print_float_tech_data_in_csv_file_ir_rudics_one.m  
+print_float_tech_data_in_csv_file_ir_sbd2_one.m    
+print_tech_data_in_csv_file_201_203_215.m          
+print_tech_data_in_csv_file_202.m                  
+print_tech_data_in_csv_file_204.m                  
+print_tech_data_in_csv_file_205_to_209.m           
+print_tech_data_in_csv_file_210_211.m              
+print_tech_data_in_csv_file_212.m                  
+print_tech_data_in_csv_file_213.m                  
+print_tech_data_in_csv_file_214.m</t>
+  </si>
+  <si>
+    <t>Format position in CSV decoded files of NKE floats (from decimal values to degrees and decimal minutes).</t>
+  </si>
+  <si>
+    <t>014g</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+collect_trajectory_data_ir_rudics_sbd2.m                         
+process_profile_ir_rudics_CTD_mean_stdMed.m        
+process_profile_ir_rudics_CTD_raw.m                
+process_profile_ir_rudics_OXY_mean_stdMed.m        
+process_profile_ir_rudics_OXY_raw.m                
+process_profile_ir_sbd2_CTD_mean_stdMed.m          
+process_profile_ir_sbd2_OXY_mean_stdMed_301.m      
+process_profile_ir_sbd2_OXY_mean_stdMed_302_303.m  
+process_profiles_201_203_215.m                     
+process_profiles_202.m                             
+process_profiles_204_205.m                         
+process_profiles_206_to_208_213_214.m              
+process_profiles_209.m                             
+process_profiles_210_to_212.m                      
+process_sensor_tech_data_ir_rudics_sbd2_CTD.m      
+process_trajectory_data_201_203.m                  
+process_trajectory_data_202.m                      
+process_trajectory_data_204_205.m                  
+process_trajectory_data_206_207_208.m              
+process_trajectory_data_209.m                      
+process_trajectory_data_210_to_212.m               
+process_trajectory_data_213_214.m                  
+process_trajectory_data_215.m                      
+store_tech2_data_for_nc_201_203_215.m              
+store_tech2_data_for_nc_202.m                      
+store_tech2_data_for_nc_210_211_213.m              
+store_tech2_data_for_nc_212_214.m                  
+store_tech_data_for_nc_204_to_208.m                
+store_tech_data_for_nc_209.m</t>
+  </si>
+  <si>
+    <t>Do not consider "subsurface point" value when PTS = 0 0 0. It has not been set because the float didn't dive deep enough.</t>
+  </si>
+  <si>
+    <t>015a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20171016_015a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on '014g' version:
+ - update of decoders 212 and 214 to manage delayed data that can occur with float versions (5.45 and 5.75)
 </t>
   </si>
 </sst>
@@ -1810,13 +1937,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E82" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E92" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E92" sqref="E92"/>
+      <selection pane="bottomRight" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3274,6 +3401,125 @@
         <v>319</v>
       </c>
     </row>
+    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B86" s="5">
+        <v>43006</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B87" s="5">
+        <v>43007</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B88" s="5">
+        <v>43011</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B89" s="5">
+        <v>43011</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B90" s="5">
+        <v>43011</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B91" s="5">
+        <v>43012</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="B92" s="11">
+        <v>43024</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="344">
   <si>
     <t>Version name</t>
   </si>
@@ -1521,6 +1521,22 @@
   <si>
     <t xml:space="preserve">Based on '014g' version:
  - update of decoders 212 and 214 to manage delayed data that can occur with float versions (5.45 and 5.75)
+</t>
+  </si>
+  <si>
+    <t>016a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20171109_016a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on '015a' version:
+ - new decoder for Apex Iridium SBD floats (decId 1314) : 2 floats
+ - improvment of Apex Iridium RUDICS décoders: retrieve clok offset information from .msg files (if no (or very few) .log files are provided)
+ - corrections on Apex Iridium RUDICS decoders: NB_SAMPLE parameter should not be in B-TRAJ files
+ - MTIME moved from PROF_AUX files to B-PROF files
+ - MC27 configuration parameter managed in decId 213 and 214 + PTS data packets managed in decId 214
 </t>
   </si>
 </sst>
@@ -1937,13 +1953,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E92" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E106" sqref="E106"/>
+      <selection pane="bottomRight" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3520,6 +3536,23 @@
         <v>340</v>
       </c>
     </row>
+    <row r="93" spans="1:5" s="9" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B93" s="11">
+        <v>43048</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="364">
   <si>
     <t>Version name</t>
   </si>
@@ -1538,6 +1538,77 @@
  - MTIME moved from PROF_AUX files to B-PROF files
  - MC27 configuration parameter managed in decId 213 and 214 + PTS data packets managed in decId 214
 </t>
+  </si>
+  <si>
+    <t>016b</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+decode_provor_iridium_rudics_cts5.m</t>
+  </si>
+  <si>
+    <t>Provor CTS5 decoders: initialize "g_decArgo_patternNumFloat" before creating VSS of corrected cycles.</t>
+  </si>
+  <si>
+    <t>016c</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+create_config_param_names_ir_sbd.m</t>
+  </si>
+  <si>
+    <t>MC27 is not supposed to be managed by decId 212 floats.</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+get_config_file_number.m</t>
+  </si>
+  <si>
+    <t>Update of the algorithm used to choose between multiple input configuration files (erroneous for decId 1314).</t>
+  </si>
+  <si>
+    <t>016d</t>
+  </si>
+  <si>
+    <t>016e</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+set_n_cycle_vs_n_meas_consistency.m</t>
+  </si>
+  <si>
+    <t>Check empty structures before adressing them.</t>
+  </si>
+  <si>
+    <t>016f</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+decode_provor_iridium_sbd_delayed.m</t>
+  </si>
+  <si>
+    <t>Bug corrected: infinite loop when replaying data buffers of a float that experienced delayed data transmission.</t>
+  </si>
+  <si>
+    <t>016g</t>
+  </si>
+  <si>
+    <t>Bug corrected: TRAJ N_CYCLE vs N_MEASUREMENT check failed for data sent by Remocean #6901439</t>
+  </si>
+  <si>
+    <t>017a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180202_017a</t>
+  </si>
+  <si>
+    <t>Based on '016g' version:
+ - 1 new decoder (decId 123) for PROVOR CTS5 float equipped with PH sensor (coriolis version 7.03): 1 float
+ - 2 new decoders (decId 1014 and 1015) for Apex Argos BGC floats (coriolis versions 082807 &amp; 020110): 4 and 2 floats
+ - RAW_DOWNWELLING_* parameter data stored in FLOAT type (instead of DOUBLE)
+ - FillValue of MTIME parameter set to double(999999)
+ - miscellaneous corrections on Ice float decoders</t>
   </si>
 </sst>
 </file>
@@ -1953,13 +2024,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E92" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E94" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E97" sqref="E97"/>
+      <selection pane="bottomRight" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3553,6 +3624,125 @@
         <v>343</v>
       </c>
     </row>
+    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B94" s="5">
+        <v>43052</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B95" s="5">
+        <v>43054</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B96" s="5">
+        <v>43055</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B97" s="5">
+        <v>43059</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B98" s="5">
+        <v>43062</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B99" s="5">
+        <v>43074</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B100" s="11">
+        <v>43133</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="379">
   <si>
     <t>Version name</t>
   </si>
@@ -1609,6 +1609,82 @@
  - RAW_DOWNWELLING_* parameter data stored in FLOAT type (instead of DOUBLE)
  - FillValue of MTIME parameter set to double(999999)
  - miscellaneous corrections on Ice float decoders</t>
+  </si>
+  <si>
+    <t>016h</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+get_netcdf_param_attributes_3_1.m</t>
+  </si>
+  <si>
+    <t>RAW_DOWNWELLING_* parameters stored in FLOAT instead of DOUBLE</t>
+  </si>
+  <si>
+    <t>017b</t>
+  </si>
+  <si>
+    <t>FillValue of MTIME (temporarily) set to 99999 (instead of 999999)</t>
+  </si>
+  <si>
+    <t>017c</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+decode_provor_iridium_sbd_delayed.m                 
+process_profiles_201_203_215.m         
+process_profiles_202.m                 
+process_profiles_206_to_208_213.m      
+process_profiles_210_211.m             
+process_profiles_212.m                 
+process_profiles_214.m                 
+process_profiles_216.m                 
+process_trajectory_data_201_203.m      
+process_trajectory_data_202.m          
+process_trajectory_data_210_211.m      
+process_trajectory_data_212.m          
+process_trajectory_data_213.m          
+process_trajectory_data_214.m          
+process_trajectory_data_215.m          
+process_trajectory_data_216.m          
+store_tech2_data_for_nc_201_203_215.m  
+store_tech2_data_for_nc_202.m          
+store_tech2_data_for_nc_210_211_213.m  
+store_tech2_data_for_nc_212_214.m      
+store_tech2_data_for_nc_216.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - cope with erroneous transmission of float 3902136 during cycle #2
+ - similar to '014g' patch for floats which transmit PSAL with an offset of 10</t>
+  </si>
+  <si>
+    <t>017d</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+sensor_2_value_for_pressure_ir_rudics_sbd2.m
+print_sensor_tech_data_in_csv_file_ir_rudics_sbd2_CTD.m</t>
+  </si>
+  <si>
+    <t>Update of INCOIS FLBB floats decoder (decId 301)</t>
+  </si>
+  <si>
+    <t>018a</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180220_018a</t>
+  </si>
+  <si>
+    <t>Based on '017d' version:
+ - 1 new decoder (decId 217) for Arvor-Ir-DO floats (coriolis version 5.46): 1 float
+ - 1 new decoder (decId 2003) for NOVA floats (coriolis version 0.9): 2 floats
+ - improvment of existing NOVA/DOVA decoders to process EOL data
+ - improvment of Deep-DO-Ice (5.65) float decoder to manage second Iridium session
+ - add a 'slope' coefficient to RT adjustments provided from the Coriolis data base</t>
   </si>
 </sst>
 </file>
@@ -2024,13 +2100,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E94" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E104" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E109" sqref="E109"/>
+      <selection pane="bottomRight" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3709,7 +3785,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>359</v>
       </c>
@@ -3726,21 +3802,106 @@
         <v>360</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="10" t="s">
+    <row r="100" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B100" s="5">
+        <v>43137</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B100" s="11">
+      <c r="B101" s="11">
         <v>43133</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C101" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="D101" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="E100" s="14" t="s">
+      <c r="E101" s="14" t="s">
         <v>363</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B102" s="5">
+        <v>43137</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B103" s="5">
+        <v>43137</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B104" s="5">
+        <v>43138</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="399">
   <si>
     <t>Version name</t>
   </si>
@@ -1672,9 +1672,6 @@
     <t>018a</t>
   </si>
   <si>
-    <t>02/20/2018</t>
-  </si>
-  <si>
     <t>C
 decArgo_20180220_018a</t>
   </si>
@@ -1685,6 +1682,87 @@
  - improvment of existing NOVA/DOVA decoders to process EOL data
  - improvment of Deep-DO-Ice (5.65) float decoder to manage second Iridium session
  - add a 'slope' coefficient to RT adjustments provided from the Coriolis data base</t>
+  </si>
+  <si>
+    <t>018b</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+is_buffer_completed_ir_sbd_delayed.m</t>
+  </si>
+  <si>
+    <t>Bug in PT33 configuration value retrieval for decId 216 (5.65)</t>
+  </si>
+  <si>
+    <t>018c</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+init_float_config_apx_argos.m
+init_float_config_apx_ir.m</t>
+  </si>
+  <si>
+    <t>Incorrect name for JSON meta-data storage structure (used to retrieve RT adjustment information).</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+parse_input_param_iridium_rudics_rt.m</t>
+  </si>
+  <si>
+    <t>DecId 123 was ignored from the rsync log file parsing procedure.</t>
+  </si>
+  <si>
+    <t>018d</t>
+  </si>
+  <si>
+    <t>018e</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+read_argos_file_fmt1.m</t>
+  </si>
+  <si>
+    <t>Error in read_argos_file_fmt1 =&gt; no output data ! (error since '018a' version)</t>
+  </si>
+  <si>
+    <t>018f</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+duplicate_files_ir_cts5.m</t>
+  </si>
+  <si>
+    <t>Correction of CTS5 float duplication file when the file already exists</t>
+  </si>
+  <si>
+    <t>018g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - bug in PROF_AUX creation for Apex Argos BGC float (in RT with fla = 2)
+ - bug in NOVA #6903278 float processing (code more robust when erroneous data is transmitted by the float)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init_default_values.m
+create_nc_mono_prof_aux_files.m                               
+store_gps_data_ir_sbd_nva_2001_2002.m  
+store_gps_data_ir_sbd_nva_2003.m       
+</t>
+  </si>
+  <si>
+    <t>019a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180326_019a</t>
+  </si>
+  <si>
+    <t>Based on '018g' version:
+ - 1 new decoder (decId 111) for Provor CTS4 V3.xx floats (coriolis version 6.11): 6 floats for Coriolis, 8 floats for INCOIS
+ - update of existing CTS4 decoders (erroneous decoding of STDEV+Median data for ECO3, CROVER and SUNA sensors)
+ - update of Argo parameter list (for 'nc_create_synthetic_profile' tool)
+ - when the bad decoder is used (RT vs DM) a DECODING_ERROR is raised + the nc file generation is skipped
+ - the DM CTS4 decoder is now able to shift decoded cycle numbers</t>
   </si>
 </sst>
 </file>
@@ -2100,13 +2178,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E104" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B108" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E118" sqref="E118"/>
+      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3891,17 +3969,136 @@
       <c r="A105" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="11">
+        <v>43151</v>
+      </c>
+      <c r="C105" s="12" t="s">
         <v>376</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>377</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>279</v>
       </c>
       <c r="E105" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
         <v>378</v>
+      </c>
+      <c r="B106" s="5">
+        <v>43159</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B107" s="5">
+        <v>43159</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B108" s="5">
+        <v>43161</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B109" s="5">
+        <v>43161</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B110" s="5">
+        <v>43172</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B111" s="5">
+        <v>43173</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B112" s="11">
+        <v>43185</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="411">
   <si>
     <t>Version name</t>
   </si>
@@ -1763,6 +1763,56 @@
  - update of Argo parameter list (for 'nc_create_synthetic_profile' tool)
  - when the bad decoder is used (RT vs DM) a DECODING_ERROR is raised + the nc file generation is skipped
  - the DM CTS4 decoder is now able to shift decoded cycle numbers</t>
+  </si>
+  <si>
+    <t>019b</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+decode_provor_iridium_rudics_cts4.m</t>
+  </si>
+  <si>
+    <t>Bug in CST4 Remocean decoders (decId 105 to 110): the buffer timeout is not raised anymore.</t>
+  </si>
+  <si>
+    <t>019c</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+process_profiles_ir_rudics_cts5_from_payload</t>
+  </si>
+  <si>
+    <t>For Provor CTS5 decoders: change message level (ERROR to WARNING) when data sampled during the' descent to prof' phase has been received.</t>
+  </si>
+  <si>
+    <t>019d</t>
+  </si>
+  <si>
+    <t>For decId 111 (Provor CTS4 V3.xx floats; coriolis version 6.11):
+ - take into account that rsync log files are stored in the "DIR_INPUT_RSYNC_LOG/float_login_name" directory.
+ - in "predefined buffer" mode we must check the buffer contents to update the global variable g_decArgo_receivedDataPhase (used in the following decoding steps).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init_default_values.m
+decode_provor_iridium_rudics_cts4.m          
+decode_prv_data_ir_rudics_cts4_111.m         
+duplicate_files_ir.m                         
+duplicate_files_ir_cts4.m                    
+parse_input_param_iridium_rudics_dm.m        
+parse_input_param_iridium_rudics_rt.m        
+parse_rsync_log_ir_rudics_cts4_105_to_110.m  
+parse_rsync_log_ir_rudics_cts4_111.m         </t>
+  </si>
+  <si>
+    <t>020a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180427_020a</t>
+  </si>
+  <si>
+    <t>Based on '019d' version:
+ - 1 new decoder (decId 1021) for Apex APF11 Argos (2.8.0 version): 6 floats</t>
   </si>
 </sst>
 </file>
@@ -2178,13 +2228,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B108" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E111" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomRight" activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4101,6 +4151,74 @@
         <v>398</v>
       </c>
     </row>
+    <row r="113" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B113" s="5">
+        <v>43186</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B114" s="5">
+        <v>43189</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B115" s="5">
+        <v>43206</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B116" s="11">
+        <v>43217</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="414">
   <si>
     <t>Version name</t>
   </si>
@@ -1813,6 +1813,18 @@
   <si>
     <t>Based on '019d' version:
  - 1 new decoder (decId 1021) for Apex APF11 Argos (2.8.0 version): 6 floats</t>
+  </si>
+  <si>
+    <t>021a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180516_021a</t>
+  </si>
+  <si>
+    <t>Based on '020a' version:
+ - 1 new decoder (decId 1022) for Apex APF11 Argos (2.10.4 version): 5 floats.
+ - all 'copyfile' or 'movefile' functions used in the decoder now report an ERROR message in the log file when the wanted action failed.</t>
   </si>
 </sst>
 </file>
@@ -2228,13 +2240,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E111" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E116" sqref="E116"/>
+      <selection pane="bottomRight" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4219,6 +4231,23 @@
         <v>410</v>
       </c>
     </row>
+    <row r="117" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B117" s="11">
+        <v>43236</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>413</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="423">
   <si>
     <t>Version name</t>
   </si>
@@ -1825,6 +1825,49 @@
     <t>Based on '020a' version:
  - 1 new decoder (decId 1022) for Apex APF11 Argos (2.10.4 version): 5 floats.
  - all 'copyfile' or 'movefile' functions used in the decoder now report an ERROR message in the log file when the wanted action failed.</t>
+  </si>
+  <si>
+    <t>021b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init_default_values.m
+create_output_float_config_argos.m     
+read_nova_iridium_sbd.m                
+rename_argos_input_file.m              
+store_gps_data_ir_sbd_nva_2001_2002.m  
+      </t>
+  </si>
+  <si>
+    <t>For decId 1021 and 1022 (Apex APF11 Argos):
+ - in RT mode: don't apply ghost detection algorithm
+For decId 2001 and 2002 (NOVA/DOVA):
+ - manage erroneous data received from float #6903178 during the EOL mode
+ - correct erroneous storage of GPS latitudes and longitudes</t>
+  </si>
+  <si>
+    <t>021c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init_default_values.m
+create_vertical_sampling_scheme_description_apx_argos.m
+      </t>
+  </si>
+  <si>
+    <t>For decId 1021 and 1022 (Apex APF11 Argos):
+ - bug: a typo in configuration labels prevents to set the detailed description of the VSS</t>
+  </si>
+  <si>
+    <t>022a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180606_022a</t>
+  </si>
+  <si>
+    <t>Based on '021ac' version:
+ - 1 new decoder (decId 1321) for Apex APF11 Iridium (2.10.1 version): 1 float
+ - correction of Apex APF11 Argos decoders: crashed when PnPCycleLen &gt; 1
+ - for all Apex Argos decoders: STARTUP_DATE can be stored in the data base with the format 'dd/mm/yyyy HH:MM:SS' or 'YYYYMMDDHHMMSS'</t>
   </si>
 </sst>
 </file>
@@ -2240,13 +2283,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B111" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E115" sqref="E115"/>
+      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4248,6 +4291,57 @@
         <v>413</v>
       </c>
     </row>
+    <row r="118" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B118" s="5">
+        <v>43237</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B119" s="5">
+        <v>43238</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B120" s="11">
+        <v>43258</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>422</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="473">
   <si>
     <t>Version name</t>
   </si>
@@ -1864,10 +1864,253 @@
 decArgo_20180606_022a</t>
   </si>
   <si>
-    <t>Based on '021ac' version:
+    <t>022b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARGO_simplify_getpressureaxis_v6.m  
+get_m_prof_file_size.m              
+lov_netcdf_pickprod.m               
+nc_compare_m_prof_file_size.m       
+nc_create_merged_profile.m          
+nc_create_merged_profile_.m         
+nc_create_merged_profile_rt.m       
+nc_create_synthetic_profile.m       
+nc_create_synthetic_profile_.m      
+nc_create_synthetic_profile_rt.m    
+nc_merged_prof_adj_2_csv.m          
+nc_synthetic_prof_adj_2_csv.m 
+      </t>
+  </si>
+  <si>
+    <t>First version of merged profile (version 2) (M-PROF) generating tool.
+First version of synthetic profile (S-PROF) generating tool.</t>
+  </si>
+  <si>
+    <t>022c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARGO_simplify_getpressureaxis_v6.m   
+nc_create_merged_profile_rt.m       
+nc_create_synthetic_profile_rt.m    
+      </t>
+  </si>
+  <si>
+    <t>Updated version of M&amp;S-PROF generating tools (same version number because no files have been generated yet).
+New version of ARGO_simplify_getpressureaxis_v6.m file (provided by bittig@obs-vlfr.fr on 19/06/2018 16:58).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nc_create_merged_profile_rt.m       
+nc_create_synthetic_profile_rt.m    
+      </t>
+  </si>
+  <si>
+    <t>Updated version of M&amp;S-PROF generating tools (same version number because no files have been generated yet): the name of the XML report file can be set through an input parameter.</t>
+  </si>
+  <si>
+    <t>022d</t>
+  </si>
+  <si>
+    <t>022e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nc_create_synthetic_profile_.m    
+      </t>
+  </si>
+  <si>
+    <t>Print Matlab error in log file when ARGO_simplify_getpressureaxis_v6 function crashes.</t>
+  </si>
+  <si>
+    <t>022f</t>
+  </si>
+  <si>
+    <t>For PROVOR CTS4 with Iridium transmission (decId 105 to 111) consider input files uploaded by the float (.bin or .b64 depending on transmission configuration).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nc_create_synthetic_profile.m
+nc_create_merged_profile.m
+      </t>
+  </si>
+  <si>
+    <t>Input argument of tools 'nc_create_synthetic_profile' and 'nc_create_merged_profile' could be a unique WMO number provided as a string (Ex: nc_create_merged_profile('6901580')).</t>
+  </si>
+  <si>
+    <t>022g</t>
+  </si>
+  <si>
+    <t>init_default_values.m                        
+add_to_list.m                                
+base64decode.m                               
+decode_provor_iridium_rudics_cts4.m          
+duplicate_files_ir_cts4.m                    
+get_cycle_num_from_sbd_name_ir_rudics.m      
+get_dir_files_info_ir_rudics.m               
+get_float_cycle_list_iridium_rudics_cts4.m   
+get_list_files_info_ir_rudics.m              
+parse_rsync_log_ir_rudics_cts4_105_to_110.m  
+remove_from_list_ir_rudics.m                 
+split_rudics_sbd_files.m 
+copy_remocean_sbd_files.m
+correct_remocean_sbd_file_name.m</t>
+  </si>
+  <si>
+    <t>Update for nc_create_synthetic_profile tool.</t>
+  </si>
+  <si>
+    <t>022h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nc_create_synthetic_profile_.m
+      </t>
+  </si>
+  <si>
+    <t>022i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nc_create_synthetic_profile_.m
+nc_create_merged_profile_.m
+      </t>
+  </si>
+  <si>
+    <t>Update for nc_create_synthetic_profile and nc_create_merged_profile tools.</t>
+  </si>
+  <si>
+    <t>022j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nc_create_synthetic_profile_.m
+nc_create_merged_profile_.m
+ARGO_simplify_getpressureaxis_v6.m
+      </t>
+  </si>
+  <si>
+    <t>Update for nc_create_synthetic_profile and nc_create_merged_profile tools.
+New version of ARGO_simplify_getpressureaxis_v6 (dated 27/06/2018 22:01).</t>
+  </si>
+  <si>
+    <t>022k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nc_create_synthetic_profile.m
+nc_create_merged_profile_rt.m
+      </t>
+  </si>
+  <si>
+    <t>022l</t>
+  </si>
+  <si>
+    <t>Updates for BGC data reprocessing:
+ - no more comment when 'specific calibration' coefficients '_O' are missing (for BBP, CHLA and CDOM)
+ - CHLA: QC = 5 instead of 8 in the quenching zone
+ - first version of CHLA RT adjustment (CHLA_ADJUSTED = CHLA/2)
+ - NITRATE: 0.026 instead of 0.02 in NITRATE processing (pressure correction effect)
+ - first version of NITRATE RT adjustment
+ - BBP: PREDEPLOYMENT_CALIB_COMMENT modified to cope with new factory slope coefficients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init_default_values.m
+add_chla_rtqc_to_profile_file.m                                 
+add_rtqc_to_profile_file.m                                      
+compute_drift_NITRATE_BISULFIDE_from_spectrum_110.m             
+compute_drift_NITRATE_from_spectrum_105_to_109_111_121_122.m    
+compute_profile_NITRATE_BISULFIDE_from_spectrum_110.m           
+compute_profile_NITRATE_from_spectrum_105_to_109_111_121_122.m  
+compute_rt_adjusted_param.m                                     
+create_nc_mono_prof_b_files_3_1.m                               
+create_nc_multi_prof_b_file_3_1.m                               
+decode_apex_argos_data.m                                        
+decode_apex_iridium_rudics_data.m                               
+decode_provor_iridium_rudics_cts4.m                             
+decode_provor_iridium_rudics_cts5.m                             
+decode_provor_iridium_sbd2.m                                    
+get_WOA_data.m
+parse_input_param_iridium_rudics_rt.m                                   
+update_meta_data.m                                              
+woa13_all_n00_01.nc    </t>
+  </si>
+  <si>
+    <t>022m</t>
+  </si>
+  <si>
+    <t>Update of "add_rtqc_to_profile_file" (=&gt; version 3.4): for each profile, update PROFILE_&lt;PARAM&gt;_QC with &lt;PARAM&gt;_QC or &lt;PARAM&gt;_ADJUSTED_QC depending on each profile DATA_MODE</t>
+  </si>
+  <si>
+    <t>init_default_values.m
+add_rtqc_to_profile_file.m</t>
+  </si>
+  <si>
+    <t>022n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init_default_values.m
+create_nc_mono_prof_b_files_3_1.m  
+create_nc_multi_prof_b_file_3_1.m  </t>
+  </si>
+  <si>
+    <t>In the '022l' update, the PARAMETER_DATA_MODE was not correctly set in all circumstances in case of RT adjustment (some PARAMETER_DATA_MODE='A' can be missed and set to 'R').</t>
+  </si>
+  <si>
+    <t>022o</t>
+  </si>
+  <si>
+    <t>Anomaly introduced by version '022l' which concerns management of virtual lists for Iridium SBD decoders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init_default_values.m
+add_to_list_ir_rudics.m              
+add_to_list_ir_sbd.m                 
+compute_min_delta_trans.m            
+decode_nova_iridium_sbd.m            
+decode_provor_iridium_rudics_cts4.m  
+decode_provor_iridium_sbd.m          
+decode_provor_iridium_sbd2.m         
+decode_provor_iridium_sbd_delayed.m  
+get_list_files_info_ir_rudics.m      
+</t>
+  </si>
+  <si>
+    <t>022p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nc_create_merged_profile.m          
+nc_create_merged_profile_.m         
+nc_create_merged_profile_rt.m       
+nc_create_synthetic_profile.m       
+nc_create_synthetic_profile_.m      
+nc_create_synthetic_profile_rt.m    </t>
+  </si>
+  <si>
+    <t>New version (1.1) of the nc_create_merged_profile and nc_create_synthetic_profile tools: the temporary directory could be set through an input parameter.</t>
+  </si>
+  <si>
+    <t>022q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init_default_values.m
+get_netcdf_param_attributes_3_1.m  
+</t>
+  </si>
+  <si>
+    <t>Set FillValue of MTIME parameter to 999999 instead of 99999.</t>
+  </si>
+  <si>
+    <t>023a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180719_023a</t>
+  </si>
+  <si>
+    <t>Based on '021c' version:
  - 1 new decoder (decId 1321) for Apex APF11 Iridium (2.10.1 version): 1 float
  - correction of Apex APF11 Argos decoders: crashed when PnPCycleLen &gt; 1
  - for all Apex Argos decoders: STARTUP_DATE can be stored in the data base with the format 'dd/mm/yyyy HH:MM:SS' or 'YYYYMMDDHHMMSS'</t>
+  </si>
+  <si>
+    <t>Based on '022q' version:
+ - 1 new decoder (decId 1322) for Apex APF11 Iridium (2.11.1 version) with CTD + DO + PH: 3 floats
+ - update of Apex APF11 Argos decoders: to use mean of surface pressures as Poffset and to store all these sampled values in TECH_AUX file
+ - update of Provor CTS4 AltanOS decoder (decId 111): TECH parameters are now in the checker (moved from TECH_AUX file to TECH file) + new algorithm to set time of measurements sampled during the drift phase
+ - 1 new decoder (decId 112) for Provor CTS4 Remocean: for float 6902737 only (because of DO processing with case 202_205_303)</t>
   </si>
 </sst>
 </file>
@@ -1992,6 +2235,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2039,7 +2285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2074,7 +2320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2283,26 +2529,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B135" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
+      <selection pane="bottomRight" activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="207" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="6" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +2565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -2336,7 +2582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2353,7 +2599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2370,7 +2616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2387,7 +2633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -2404,7 +2650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -2421,7 +2667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -2438,7 +2684,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" ht="142.19999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="9" customFormat="1" ht="142.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
@@ -2455,7 +2701,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -2472,7 +2718,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -2489,7 +2735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -2506,7 +2752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -2523,7 +2769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -2540,7 +2786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="9" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="9" customFormat="1" ht="129.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>50</v>
       </c>
@@ -2557,7 +2803,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -2574,7 +2820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>62</v>
       </c>
@@ -2591,7 +2837,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>66</v>
       </c>
@@ -2608,7 +2854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>70</v>
       </c>
@@ -2625,7 +2871,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="139.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>75</v>
       </c>
@@ -2642,7 +2888,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>79</v>
       </c>
@@ -2659,7 +2905,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>82</v>
       </c>
@@ -2676,7 +2922,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>86</v>
       </c>
@@ -2693,7 +2939,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>90</v>
       </c>
@@ -2710,7 +2956,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>94</v>
       </c>
@@ -2727,7 +2973,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>98</v>
       </c>
@@ -2744,7 +2990,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>101</v>
       </c>
@@ -2761,7 +3007,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>106</v>
       </c>
@@ -2778,7 +3024,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>110</v>
       </c>
@@ -2795,7 +3041,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>114</v>
       </c>
@@ -2812,7 +3058,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>118</v>
       </c>
@@ -2829,7 +3075,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>122</v>
       </c>
@@ -2846,7 +3092,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>126</v>
       </c>
@@ -2863,7 +3109,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>130</v>
       </c>
@@ -2880,7 +3126,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>134</v>
       </c>
@@ -2897,7 +3143,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>138</v>
       </c>
@@ -2914,7 +3160,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>142</v>
       </c>
@@ -2931,7 +3177,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>147</v>
       </c>
@@ -2948,7 +3194,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>150</v>
       </c>
@@ -2965,7 +3211,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>157</v>
       </c>
@@ -2982,7 +3228,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>154</v>
       </c>
@@ -2999,7 +3245,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>161</v>
       </c>
@@ -3016,7 +3262,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>162</v>
       </c>
@@ -3033,7 +3279,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>166</v>
       </c>
@@ -3050,7 +3296,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" s="9" customFormat="1" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>170</v>
       </c>
@@ -3067,7 +3313,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>173</v>
       </c>
@@ -3084,7 +3330,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>177</v>
       </c>
@@ -3101,7 +3347,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>180</v>
       </c>
@@ -3118,7 +3364,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>184</v>
       </c>
@@ -3135,7 +3381,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>188</v>
       </c>
@@ -3152,7 +3398,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>192</v>
       </c>
@@ -3169,7 +3415,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>195</v>
       </c>
@@ -3186,7 +3432,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="256.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>198</v>
       </c>
@@ -3203,7 +3449,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>202</v>
       </c>
@@ -3220,7 +3466,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>206</v>
       </c>
@@ -3237,7 +3483,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>210</v>
       </c>
@@ -3254,7 +3500,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>214</v>
       </c>
@@ -3271,7 +3517,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="185.45" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>218</v>
       </c>
@@ -3288,7 +3534,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>222</v>
       </c>
@@ -3305,7 +3551,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" s="9" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>226</v>
       </c>
@@ -3322,7 +3568,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>230</v>
       </c>
@@ -3339,7 +3585,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>233</v>
       </c>
@@ -3356,7 +3602,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>238</v>
       </c>
@@ -3373,7 +3619,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>241</v>
       </c>
@@ -3390,7 +3636,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="186.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>245</v>
       </c>
@@ -3407,7 +3653,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="9" customFormat="1" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" s="9" customFormat="1" ht="114.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>249</v>
       </c>
@@ -3424,7 +3670,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>252</v>
       </c>
@@ -3441,7 +3687,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="199.7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>255</v>
       </c>
@@ -3458,7 +3704,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>281</v>
       </c>
@@ -3475,7 +3721,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>282</v>
       </c>
@@ -3492,7 +3738,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>283</v>
       </c>
@@ -3509,7 +3755,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>284</v>
       </c>
@@ -3526,7 +3772,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>285</v>
       </c>
@@ -3543,7 +3789,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="288.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="286" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>286</v>
       </c>
@@ -3560,7 +3806,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>277</v>
       </c>
@@ -3577,7 +3823,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>290</v>
       </c>
@@ -3594,7 +3840,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>291</v>
       </c>
@@ -3611,7 +3857,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>295</v>
       </c>
@@ -3628,7 +3874,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="9" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" s="9" customFormat="1" ht="129.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>299</v>
       </c>
@@ -3645,7 +3891,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="214" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>302</v>
       </c>
@@ -3662,7 +3908,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="242.5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>305</v>
       </c>
@@ -3679,7 +3925,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>308</v>
       </c>
@@ -3696,7 +3942,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>311</v>
       </c>
@@ -3713,7 +3959,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="129.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>314</v>
       </c>
@@ -3730,7 +3976,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>317</v>
       </c>
@@ -3747,7 +3993,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>320</v>
       </c>
@@ -3764,7 +4010,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>323</v>
       </c>
@@ -3781,7 +4027,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>326</v>
       </c>
@@ -3798,7 +4044,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>329</v>
       </c>
@@ -3815,7 +4061,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="171.2" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>332</v>
       </c>
@@ -3832,7 +4078,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>335</v>
       </c>
@@ -3849,7 +4095,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>338</v>
       </c>
@@ -3866,7 +4112,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="9" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" s="9" customFormat="1" ht="100.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>341</v>
       </c>
@@ -3883,7 +4129,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>344</v>
       </c>
@@ -3900,7 +4146,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>347</v>
       </c>
@@ -3917,7 +4163,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>352</v>
       </c>
@@ -3934,7 +4180,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>353</v>
       </c>
@@ -3951,7 +4197,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>356</v>
       </c>
@@ -3968,7 +4214,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>359</v>
       </c>
@@ -3985,7 +4231,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>364</v>
       </c>
@@ -4002,7 +4248,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>361</v>
       </c>
@@ -4019,7 +4265,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>367</v>
       </c>
@@ -4036,7 +4282,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="313.85000000000002" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>369</v>
       </c>
@@ -4053,7 +4299,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>372</v>
       </c>
@@ -4070,7 +4316,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>375</v>
       </c>
@@ -4087,7 +4333,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>378</v>
       </c>
@@ -4104,7 +4350,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>381</v>
       </c>
@@ -4121,7 +4367,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>386</v>
       </c>
@@ -4138,7 +4384,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>387</v>
       </c>
@@ -4155,7 +4401,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>390</v>
       </c>
@@ -4172,7 +4418,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>393</v>
       </c>
@@ -4189,7 +4435,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>396</v>
       </c>
@@ -4206,7 +4452,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>399</v>
       </c>
@@ -4223,7 +4469,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>402</v>
       </c>
@@ -4240,7 +4486,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="129.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>405</v>
       </c>
@@ -4257,7 +4503,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" s="9" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>408</v>
       </c>
@@ -4274,7 +4520,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>411</v>
       </c>
@@ -4291,7 +4537,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>414</v>
       </c>
@@ -4308,7 +4554,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>417</v>
       </c>
@@ -4325,7 +4571,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" s="9" customFormat="1" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>420</v>
       </c>
@@ -4339,7 +4585,296 @@
         <v>279</v>
       </c>
       <c r="E120" s="14" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
         <v>422</v>
+      </c>
+      <c r="B121" s="5">
+        <v>43269</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B122" s="5">
+        <v>43271</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B123" s="5">
+        <v>43272</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B124" s="5">
+        <v>43276</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B125" s="5">
+        <v>43277</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B126" s="5">
+        <v>43277</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B127" s="5">
+        <v>43277</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B128" s="5">
+        <v>43278</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B129" s="5">
+        <v>43279</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B130" s="5">
+        <v>43280</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B131" s="5">
+        <v>43280</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B132" s="5">
+        <v>43287</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B133" s="5">
+        <v>43293</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B134" s="5">
+        <v>43293</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B135" s="5">
+        <v>43294</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B136" s="5">
+        <v>43294</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" s="9" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B137" s="11">
+        <v>43300</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="479">
   <si>
     <t>Version name</t>
   </si>
@@ -2111,6 +2111,35 @@
  - update of Apex APF11 Argos decoders: to use mean of surface pressures as Poffset and to store all these sampled values in TECH_AUX file
  - update of Provor CTS4 AltanOS decoder (decId 111): TECH parameters are now in the checker (moved from TECH_AUX file to TECH file) + new algorithm to set time of measurements sampled during the drift phase
  - 1 new decoder (decId 112) for Provor CTS4 Remocean: for float 6902737 only (because of DO processing with case 202_205_303)</t>
+  </si>
+  <si>
+    <t>023b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init_default_values.m                            
+parse_rsync_log_ir_rudics_cts4_105_to_110_112.m  
+parse_rsync_log_ir_rudics_cts4_111.m             
+parse_rsync_log_ir_rudics_cts5.m 
+</t>
+  </si>
+  <si>
+    <t>Update parser of rsync log files for CTS4 and CTS5 floats.</t>
+  </si>
+  <si>
+    <t>024a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180827_024a</t>
+  </si>
+  <si>
+    <t>Based on '023b' version:
+ - for decoder Provor CTS4 6.11 (decId 111) and Apex APF11 Iridium SBD (decId 1321 and 1322): new configuration parameters are now accepted by the checker (version"file_checker_2018-07-16_v2.5.4_spec_2018-08-06") they have been moved from META_AUX to META files.
+ - variable MTIME is added by the decoder in the list of float parameters (concerned floats: NAVIS (1201), PROVOR CTS5 (121, 122, 123) and Apex APF11 Ir (1321, 1322)).
+ - consistency between DATA_MODE and PARAMETER_DATA_MODE has been corrected for 'fake' primary profiles.
+ - NOVA/DOVA decoders: cycle number management updated to cope with float  6901885 behavior.
+ - derived parameter adjustments: they have been updated to be compliant with the decision of workshop BGC of ADMT18 (“For a parameter to pass to mode 'A' (i.e., adjusted in real-time), the calculation for the adjustment must involve the parameter itself (e.g., with an offset or slope). If a different parameter used for the calculations is in mode 'A' (e.g., PSAL_ADJUSTED), this does not transitions onto the parameter itself and does not put it into mode 'A'. The field is always calculated with other parameters in 'R' mode (e.g., PSAL). _ADJUSTED is only populated with a "real" parameter adjustment as defined above. A calculation without a "real" parameter adjustment but involving other adjusted parameters (e.g., PSAL_ADJUSTED) is not performed/not recorded in the BGC-Argofiles.").
+ - M-PROF and S-PROF generating tools: updated to process B-PROF files where PARAMETER_DATA_MODE variable is missing.</t>
   </si>
 </sst>
 </file>
@@ -2529,13 +2558,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B135" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E124" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D148" sqref="D148"/>
+      <selection pane="bottomRight" activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4877,6 +4906,40 @@
         <v>472</v>
       </c>
     </row>
+    <row r="138" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B138" s="5">
+        <v>43301</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" s="9" customFormat="1" ht="157.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B139" s="11">
+        <v>43339</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="489">
   <si>
     <t>Version name</t>
   </si>
@@ -2140,6 +2140,58 @@
  - NOVA/DOVA decoders: cycle number management updated to cope with float  6901885 behavior.
  - derived parameter adjustments: they have been updated to be compliant with the decision of workshop BGC of ADMT18 (“For a parameter to pass to mode 'A' (i.e., adjusted in real-time), the calculation for the adjustment must involve the parameter itself (e.g., with an offset or slope). If a different parameter used for the calculations is in mode 'A' (e.g., PSAL_ADJUSTED), this does not transitions onto the parameter itself and does not put it into mode 'A'. The field is always calculated with other parameters in 'R' mode (e.g., PSAL). _ADJUSTED is only populated with a "real" parameter adjustment as defined above. A calculation without a "real" parameter adjustment but involving other adjusted parameters (e.g., PSAL_ADJUSTED) is not performed/not recorded in the BGC-Argofiles.").
  - M-PROF and S-PROF generating tools: updated to process B-PROF files where PARAMETER_DATA_MODE variable is missing.</t>
+  </si>
+  <si>
+    <t>024b</t>
+  </si>
+  <si>
+    <t>Update parser of rsync log files for CTS4 floats processed in DM with the decode_provor_2_nc_dm decoder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init_default_values.m                            
+decode_provor_iridium_rudics_cts4.m
+parse_input_param_iridium_rudics_dm.m
+</t>
+  </si>
+  <si>
+    <t>024c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init_default_values.m                            
+compute_derived_parameters_apx_apf11_ir.m   
+convert_sbd_files_apex_apf11_iridium_sbd.m  
+decode_science_log_apx_apf11_ir_1321.m      
+decode_science_log_apx_apf11_ir_1322.m      
+parse_input_param_iridium_rudics_dm.m       
+parse_rsync_log_ir_rudics_cts5.m            
+print_dates_apx_apf11_in_csv_file.m         
+nc_create_merged_profile_.m     
+nc_create_synthetic_profile_.m
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Apex APF11 Ir decoders (decId 1321 &amp; 1322): manage FillValue=-999 reported by the CTD sensor through CTD_P measurements in case of sensor failure
+ - Provor CTS5 decoders: correction in the rsync log parser (to not consider files stored in sub-directories)
+ - 'software_version' global attribute added in M-PROF and S-PROF files</t>
+  </si>
+  <si>
+    <t>025a</t>
+  </si>
+  <si>
+    <t>26/092018</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180926_025a</t>
+  </si>
+  <si>
+    <t>Based on '024c' version:
+ - update of all DO float decoders to be compliant with file "near_surface_&amp;_in_air_data_processing_at_coriolis_V2.0_20180920.docx" specifications
+ - 'decoder_version' global attribute added to all Argo NetCDF files
+ - 'PPOX_DOXY' can now be adjusted ('PPOX_DOXY_ADJUSTED*' parameters added in the NetCDF files)
+ - update of negative temperature decoding for Apex APF11 Argos floats (decId 1021 et 1022)
+ - RTQC of CHLA parameter updated so that grey list test output is considered in the final QC and ADJUSTED_QC
+ - M&amp;S-PROF generators: specific input parameters added in RT and PI versions of the tools</t>
   </si>
 </sst>
 </file>
@@ -2558,13 +2610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E124" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E140" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E150" sqref="E150"/>
+      <selection pane="bottomRight" activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4940,6 +4992,57 @@
         <v>478</v>
       </c>
     </row>
+    <row r="140" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B140" s="5">
+        <v>43354</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="157.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B141" s="5">
+        <v>43355</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" s="9" customFormat="1" ht="100.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>488</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="500">
   <si>
     <t>Version name</t>
   </si>
@@ -236,7 +236,1167 @@
 2- manage Remocean float dysfunction</t>
   </si>
   <si>
-    <t>init_float_config_ir_rudics.m
+    <t>Mail (16/07/2015 14:59)</t>
+  </si>
+  <si>
+    <t>Mail (17/07/2015 16:18)</t>
+  </si>
+  <si>
+    <t>Mail (02/09/2015 15:42)</t>
+  </si>
+  <si>
+    <t>Mail (04/09/2015 09:37)</t>
+  </si>
+  <si>
+    <t>Mail (11/09/2015 09:51)</t>
+  </si>
+  <si>
+    <t>Mail (14/01/2016 11:14)</t>
+  </si>
+  <si>
+    <t>003c</t>
+  </si>
+  <si>
+    <t>Mail (18/01/2016 17:47)</t>
+  </si>
+  <si>
+    <t>In RT mode (i.e. with decode_Argo_2_nc_rt), delete the processed Iridium Rudics files (of Remocean floats), i.e. the files are moved to the 'archive' directory only with the DM decoder (decode_provor_2_csv and decode_provor_2_nc).</t>
+  </si>
+  <si>
+    <t>003d</t>
+  </si>
+  <si>
+    <t>Mail (19/01/2016 11:46)</t>
+  </si>
+  <si>
+    <t>Manage attachment of Iridium SBD mail files (in co_20151217T000434Z_300234060350130_001113_000000_6279.txt, 001114, 001115, 001116 and 001117 attachment file name is provided without '"' (Ex: filename=300234060350130_001113.sbd;)).</t>
+  </si>
+  <si>
+    <t>003e</t>
+  </si>
+  <si>
+    <t>Mail (26/01/2016 17:32)</t>
+  </si>
+  <si>
+    <t>A variable, used in a warning message was not initialized.</t>
+  </si>
+  <si>
+    <t>003f</t>
+  </si>
+  <si>
+    <t>Mail (28/01/2016 08:40)</t>
+  </si>
+  <si>
+    <t>Anomaly when assigning mean data with stdev+median associated data when multiple levels have the same pressure.</t>
+  </si>
+  <si>
+    <t>003g</t>
+  </si>
+  <si>
+    <t>Mail (04/02/2016 16:20)</t>
+  </si>
+  <si>
+    <t>Bug while using 'decode_argo_2_nc_rt' for an Arvor CM which shared its IMEI with another float managed by the decoder.</t>
+  </si>
+  <si>
+    <t>003h</t>
+  </si>
+  <si>
+    <t>Mail (05/02/2016 10:52)</t>
+  </si>
+  <si>
+    <t>Reduce the size of the ".mat" files stored by the Remocean decoder to save already processed data.</t>
+  </si>
+  <si>
+    <t>003i</t>
+  </si>
+  <si>
+    <t>Mail (17/02/2016 09:55)</t>
+  </si>
+  <si>
+    <t>Correct the typo in the CONFIG_OptodePowerAcquisitionMode_NUMBER configuration parameter name ("NUMBER." instead of "NUMBER") of the Arvor Deep floats.</t>
+  </si>
+  <si>
+    <t>003j</t>
+  </si>
+  <si>
+    <t>Mail (22/02/2016 15:06)</t>
+  </si>
+  <si>
+    <t>Manage second Iridium session of Arvor Ir floats (PM16 parameter is immediatly considered by the float, all others  parameters are considered the next cycle).</t>
+  </si>
+  <si>
+    <t>003k</t>
+  </si>
+  <si>
+    <t>Mail (25/02/2016 09:11)</t>
+  </si>
+  <si>
+    <t>First stabilization pressure are not correctly reported in the TRAJ files of Arvor ARN floats.</t>
+  </si>
+  <si>
+    <t>004a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_201602291_004a</t>
+  </si>
+  <si>
+    <t>Based on' 003k' version: 
+ - 6 new Apex decoders implemented
+ - in air DOXY measurement stored in the trajectory (PPOX_DOXY parameter)
+ - RTQC: profile RTQC updated, trajectory RTQC added
+ - the CLS satellite pass headers are checked and corrected if needed
+ - new tools created to update Argo format in existing V3.1 files</t>
+  </si>
+  <si>
+    <t>004b</t>
+  </si>
+  <si>
+    <t>Mail (07/03/2016 17:17)
+Mail (08/03/2016 14:23)
+Mail (08/03/2016 15:34)</t>
+  </si>
+  <si>
+    <t>Typo ("w") in process_sensor_tech_data_ir_rudics_OCR.m and process_sensor_tech_data_ir_sbd2_FLBB.m.
+"Adjusted values are provided in the core profile file" added in SCIENTIFIC_CALIB_COMMENT of PRES in B files =&gt; bug for FLBB (no profile in #1 and #2).</t>
+  </si>
+  <si>
+    <t>07/03/2016
+08/03/2016</t>
+  </si>
+  <si>
+    <t>004c</t>
+  </si>
+  <si>
+    <t>Mail (15/03/2016 15:14)</t>
+  </si>
+  <si>
+    <t>Manage nc mono-profile file update for Iridium (SBD or Rudics) floats.
+Particularly when the data of a given cycle is in two different log files.</t>
+  </si>
+  <si>
+    <t>004d</t>
+  </si>
+  <si>
+    <t>Mail (18/03/2016 10:22)</t>
+  </si>
+  <si>
+    <t>&lt;PARAM&gt;_STD 'valid_min' and 'valid_max' attributes temporarily set (until a new version of the checker can accept files where these attributes are missing).</t>
+  </si>
+  <si>
+    <t>004e</t>
+  </si>
+  <si>
+    <t>Mail (22/03/2016 17:27)</t>
+  </si>
+  <si>
+    <t>For the Iridium SBD decoders, process the buffer contents even when the last processed mail has no attachment .</t>
+  </si>
+  <si>
+    <t>004f</t>
+  </si>
+  <si>
+    <t>Mail (01/04/2016 14:23)</t>
+  </si>
+  <si>
+    <t>PPOX_DOXY:valid_max set to 5000.</t>
+  </si>
+  <si>
+    <t>004g</t>
+  </si>
+  <si>
+    <t>1 - Decoder Iridium Rudics: only lines with the 'f+++++++++' pattern are considered in the rsynclog files.
+2 - Apex decoder: if no data have been received, create a configuration from the JSON file contents =&gt; we generate a TRAJ and a META file (to illustrate that the float is managed, even if it has not worked correctly).</t>
+  </si>
+  <si>
+    <t>Mail (01/04/2016 15:19)</t>
+  </si>
+  <si>
+    <t>004h</t>
+  </si>
+  <si>
+    <t>Mail (05/04/2016 17:57)</t>
+  </si>
+  <si>
+    <t>1 - Correctly  manage alternate profile depth.
+2 - Check PET and DPST consistency when PARK == PROF (due to different resolutions the dates can be inconsistent).</t>
+  </si>
+  <si>
+    <t>004i</t>
+  </si>
+  <si>
+    <t>Mail (15/04/2016 10:58)</t>
+  </si>
+  <si>
+    <t>1 - Manage Remoceans 6901472 and 6901473 incoherent data.
+2 - Correct the Apex decoder (when used in 'profile' mode, the TECH and CONF NetCDF label names were not initialized).</t>
+  </si>
+  <si>
+    <t>004j</t>
+  </si>
+  <si>
+    <t>Mail (25/04/2016 11:44)</t>
+  </si>
+  <si>
+    <t>Correctly set the Iridium mails to associated cycle numbers so that the needed Irdium date and location is computed from correct Iridum mail data.</t>
+  </si>
+  <si>
+    <t>004k</t>
+  </si>
+  <si>
+    <t>Mail (26/04/2016 15:10)</t>
+  </si>
+  <si>
+    <t>Correctly manage missing tech1 while tech2 received for decId #30.</t>
+  </si>
+  <si>
+    <t>004l</t>
+  </si>
+  <si>
+    <t>Mail (10/05/2016 15:13)</t>
+  </si>
+  <si>
+    <t>Update pressure sensor offset tech label for all NKE float versions.</t>
+  </si>
+  <si>
+    <t>004m</t>
+  </si>
+  <si>
+    <t>Mail (13/05/2016 16:55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DOWN_IRRADIANCE_xxx values should be /100.</t>
+  </si>
+  <si>
+    <t>004n</t>
+  </si>
+  <si>
+    <t>Mail (19/05/2016 09:13)</t>
+  </si>
+  <si>
+    <t>Change 'umole/L' to 'umol/L' in the SUNA configuration labels.</t>
+  </si>
+  <si>
+    <t>005a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20160628_005a</t>
+  </si>
+  <si>
+    <t>Based on' 004n' version: 
+ - 1 new NOVA/DOVA decoder (20 floats)
+ - DO processing reviewed (new processing for DOXY and PPOX_DOXY parameters) + PREDEPLOYMENT_CALIB_* information filled
+ - few corrections on Traj data (to be compliant with first version of the traj checker)
+ - NITRATE processed from transmitted spectrum + PREDEPLOYMENT_CALIB_* information filled</t>
+  </si>
+  <si>
+    <t>004o</t>
+  </si>
+  <si>
+    <t>Est locations of Arvor Deep floats are considered as not valid (and then not reported in the traj file).</t>
+  </si>
+  <si>
+    <t>Mail (01/07/2016 16:22)</t>
+  </si>
+  <si>
+    <t>005b</t>
+  </si>
+  <si>
+    <t>005c</t>
+  </si>
+  <si>
+    <t>Mail (07/07/2016 17:37)</t>
+  </si>
+  <si>
+    <t>To choose between multiple configuration files for Nova float.</t>
+  </si>
+  <si>
+    <t>005d</t>
+  </si>
+  <si>
+    <t>Mail (08/07/2016 14:54)</t>
+  </si>
+  <si>
+    <t>Bug when checking if Nova profile file should be updated (Matlab 'dir' function used in a .m file where a variable named 'dir' is already present).
+Do not add DO parameters for V5.63 floats.
+Add POSITIONING_SYSTEM = 'IRIDIUM' to all floats with  POSITIONING_SYSTEM = 'GPS' and with an Iridium SBD transmission (i.e. all but French Remocean floats).</t>
+  </si>
+  <si>
+    <t>006a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20160708_006a</t>
+  </si>
+  <si>
+    <t>Based on' 005d' version: 
+ - 1 new Arvor ARN Iridium (5.43) decoder (7 floats)
+ - 1 new Arvor ARN DO Argos (4.54) decoder (2 floats)
+ - Traj RTQC: test #22 added to IN AIR measurements (MC=1099)</t>
+  </si>
+  <si>
+    <t>006b</t>
+  </si>
+  <si>
+    <t>Mail (12/07/2016 15:33)</t>
+  </si>
+  <si>
+    <t>We should first check if a SUNA sensor is mounted on the float before adding 'on the fly' missing associated parameters.
+Bug corrected in float/cycle/profile numbers of the output log contents.</t>
+  </si>
+  <si>
+    <t>007a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20160916_007a</t>
+  </si>
+  <si>
+    <t>Based on' 006b' version: 
+ - 6 new Apex Argos decoders (92 floats)
+ - few corrections on previous version</t>
+  </si>
+  <si>
+    <t>007b</t>
+  </si>
+  <si>
+    <t>Mail (19/09/2016 17:52)</t>
+  </si>
+  <si>
+    <t>From NOVA float 6903179 we only received hydraulic message for its cycle #161 =&gt; we should manage cycle timings accordingly.</t>
+  </si>
+  <si>
+    <t>007c</t>
+  </si>
+  <si>
+    <t>Mail (20/09/2016 16:33)</t>
+  </si>
+  <si>
+    <t>To process BBP700 for FLBB INCOIS floats the angular is 142 degree and the khi coef 1.097.</t>
+  </si>
+  <si>
+    <t>007d</t>
+  </si>
+  <si>
+    <t>Mail (21/09/2016 09:38)</t>
+  </si>
+  <si>
+    <t>For Apex TST processing, use the 'improved method' before the TWR one (we had a bad trans repetition period in de data base which cause erroneous TST)</t>
+  </si>
+  <si>
+    <t>007e</t>
+  </si>
+  <si>
+    <t>Mail (22/09/2016 11:54)</t>
+  </si>
+  <si>
+    <t>Complement to '007d' patch.</t>
+  </si>
+  <si>
+    <t>008a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20161021_008a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on' 007e' version: 
+ - 2 new Apex Argos decoders (5 floats)
+ - improvement of Iridium decoders: rsync log parsing, Bio data decoding, using virtual buffers </t>
+  </si>
+  <si>
+    <t>008b</t>
+  </si>
+  <si>
+    <t>For Provor Iridium and Nova floats, the decoder crashed when reprocessing data according to buffer list.
+For Provor Rudics floats, the data files are now stored in a 'loginName_wmo' directory (previously in a 'loginName' directory).</t>
+  </si>
+  <si>
+    <t>Mail (09/11/2016 15:55)</t>
+  </si>
+  <si>
+    <t>008c</t>
+  </si>
+  <si>
+    <t>Improve location sign determination for decId #210 floats. We now use the 'best' Iridium location, i.e. with minimum CEP radius (instead of the first one).</t>
+  </si>
+  <si>
+    <t>Mail (14/12/2016 14:51)</t>
+  </si>
+  <si>
+    <t>008d</t>
+  </si>
+  <si>
+    <t>Mail (20/12/2016 08:19)</t>
+  </si>
+  <si>
+    <t>Correct selection of Iridium mail files to delete when duplicates exist (for float 6901468 which encountered Iridium transmission issues).</t>
+  </si>
+  <si>
+    <t>008e</t>
+  </si>
+  <si>
+    <t>Mail (20/12/2016 12:11)</t>
+  </si>
+  <si>
+    <t>When the info.json file is missing and many configuration files are provided, the decoder is not able to find which one should be used. It stops but the path of the XML report is not set. In this case we set this path to '.' under windows and to '/tmp' under Linux.</t>
+  </si>
+  <si>
+    <t>008f</t>
+  </si>
+  <si>
+    <t>Replace complex values of NITRATE with associated FillValue (6901865 #34: nitrate spectrum is inconsistent =&gt;some  processed NITRATE values are complex).</t>
+  </si>
+  <si>
+    <t>Mail (21/12/2016 17:09)</t>
+  </si>
+  <si>
+    <t>008g</t>
+  </si>
+  <si>
+    <t>Mail (17/01/2017 17:32)</t>
+  </si>
+  <si>
+    <t>For decoder Ids 201 to 209:
+ - Improve detection of Deep VS Surface phases: detection is now only based on number of transmitted messages and measurements (provided in the float tech information).
+ - Improve cycle number management: the first deep cycle should be #1.</t>
+  </si>
+  <si>
+    <t>008h</t>
+  </si>
+  <si>
+    <t>Mail (08/02/2017 11:13)</t>
+  </si>
+  <si>
+    <t>For decoder Ids 30 and 32: separate expected message Ids (4, 5, 6 for CTD floats and 7, 8, 9 for CTDO floats).
+For Apex Argos decoders: the ghost detection failed for float 6901855. We then split the Argos file only if the ghost message has at most 2 float messages in its satellite pass.</t>
+  </si>
+  <si>
+    <t>009a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_201702211_009a</t>
+  </si>
+  <si>
+    <t>Based on' 008h' version: 
+ - new decoder for CTS5 floats (decId 121)</t>
+  </si>
+  <si>
+    <t>009b</t>
+  </si>
+  <si>
+    <t>Mail (24/02/2017 08:52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update of decId 210 and 211 to manage:
+- duplicates in float transmission (3901863 and 3901868)
+- reset of a float at sea (3901863)
+- no data sample during subsurface cycle (but only for cycles #21, #22 and #23 of 3901863)
+</t>
+  </si>
+  <si>
+    <t>009c</t>
+  </si>
+  <si>
+    <t>Mail (27/02/2017 09:41)</t>
+  </si>
+  <si>
+    <t>Assign a configuration to cycle #0 data. Useful when a float stays all its life in EOL mode.</t>
+  </si>
+  <si>
+    <t>009d</t>
+  </si>
+  <si>
+    <t>add_launch_data_ir_rudics has no argument now.</t>
+  </si>
+  <si>
+    <t>Mail (27/02/2017 14:54)</t>
+  </si>
+  <si>
+    <t>009e</t>
+  </si>
+  <si>
+    <t>Mail (02/03/2017 17:13)</t>
+  </si>
+  <si>
+    <t>Update needed to cope with CTS5 float anomaly: 6902742 transmitted the payload configuration with the payload data.</t>
+  </si>
+  <si>
+    <t>009f</t>
+  </si>
+  <si>
+    <t>Mail (03/03/2017 17:01)</t>
+  </si>
+  <si>
+    <t>Following the '008g' patch, one global variable was not correctly initialized when decoding data from buffer list.</t>
+  </si>
+  <si>
+    <t>010a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20170328_010a</t>
+  </si>
+  <si>
+    <t>Based on '009f' version: 
+ - new decoder for CTS4 BISULFIDE (decId 110)
+ - update of SENSOR and SENSOR_MODEL names + few static configuration parameters
+ - finalization of CTS5 floats with SUNA sensor
+ - specific QC test implemnted for BBP
+ - evolutions for the Trajectory files to be accepted by the (coming soon) GDAC TRAJ checker
+ - buoyancy actions reported in the TECH_AUX files
+ - management of data transmitted twice when float is switched into EOL mode (decId 201 &amp; 211)</t>
+  </si>
+  <si>
+    <t>011a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20170424_011a</t>
+  </si>
+  <si>
+    <t>Based on '010a' version: 
+ - new decoder for ARVOR-ARN-IR Ice floats (Coriolis version 5.45 decId 212)
+ - new decoder for PROVOR-ARN-DO-IR floats (Coriolis version 5.74 decId 213)</t>
+  </si>
+  <si>
+    <t>011b</t>
+  </si>
+  <si>
+    <t>Mail (25/04/2017 17:46)</t>
+  </si>
+  <si>
+    <t>Manage:
+ - Dova 6903190: switched in EOL mode
+ - CTS5 6902742: switched in EOL mode after an emergency ascent
+ - update dm decoder
+ - update configuration labels for Arvor Ice (decId 212)</t>
+  </si>
+  <si>
+    <t>Correctly manage EOL cycles of Nova 6903194 and Dova 6903180 and 6903190.
+The prelude cycle is numbered 255 (float number) (cf. 6903194) then the floats switched in EOL (with incremented cycle numbers) and finally when cycle number 255 (float number) is reached, all following EOL cycles are numbered 255 (float number).
+In decoder output, the prelude is stored in cycle #0, the EOL cycles are stored according to cycle numbers that have been received. Thus, cycle 256 gathers all GPS locations received in the last part of the float EOL (with float cycle number 255).</t>
+  </si>
+  <si>
+    <t>Mail (09/05/2017 14:39)</t>
+  </si>
+  <si>
+    <t>Manage EOL of float 6902685.</t>
+  </si>
+  <si>
+    <t>Mail (01/05/2017 19:57)</t>
+  </si>
+  <si>
+    <t>Mail (12/05/2017 09:28)</t>
+  </si>
+  <si>
+    <t>Manage EOL of Nova/Dova floats.</t>
+  </si>
+  <si>
+    <t>Manage anomaly of float 6902764 #58 (one packet of the ascending profile transmitted twice) in the decision to generate or not the PROF.nc file ( when GENERATE_NC_MONO_PROF = 2).</t>
+  </si>
+  <si>
+    <t>Mail (15/05/2017 11:05)</t>
+  </si>
+  <si>
+    <t>Anomaly in decoderId #30 and #32. Grounding cycle information is reported in the TECH file but not in the TRAJ file (cf. 39001927 #7).</t>
+  </si>
+  <si>
+    <t>Mail (15/05/2017 16:08)</t>
+  </si>
+  <si>
+    <t>1 - Correction of "Float #%d Cycle #%d: Shift in float day (previous offset = %d (%s), new offset = %d (%s))" message contents.
+2 - Correction of the interpolation between 2 fixes located on each part of the date line.
+3 - PLATFORM_TYPE = 'DOVA' and WMO_INST_TYPE = '869' is not accepted any more for DOVA float =&gt; replaced by PLATFORM_TYPE = 'NOVA' and WMO_INST_TYPE = '865' (i.e. NOVA and DOVA share the same PLATFORM_TYPE and WMO_INST_TYPE).</t>
+  </si>
+  <si>
+    <t>Mail (18/05/2017 17:50)</t>
+  </si>
+  <si>
+    <t>012a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20170530_012a</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on '011h' version: 
+ - new technical parameters (stored in TECH_AUX files) used for Coriolis internal monitoring of float tech data
+ - management of roll-over to decode grounding day for DecId 201, 202, 203 (Arvor Deep)
+ - correction of grounding dates (when relative to "descent to profile depth" phase) for DecId 210, 211, 212, 213
+ - duplication of PRES axis in b PROF files (even when no b parameter is sampled in the concerned N_PROF profile)
+</t>
+  </si>
+  <si>
+    <t>011c</t>
+  </si>
+  <si>
+    <t>011d</t>
+  </si>
+  <si>
+    <t>011e</t>
+  </si>
+  <si>
+    <t>011f</t>
+  </si>
+  <si>
+    <t>011g</t>
+  </si>
+  <si>
+    <t>011h</t>
+  </si>
+  <si>
+    <t>DATA_CENTRE added to META_AUX file format.</t>
+  </si>
+  <si>
+    <t>Mail (08/06/2017 15:17)</t>
+  </si>
+  <si>
+    <t>012b</t>
+  </si>
+  <si>
+    <t>012c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - correction of anomalies raised when very few Argos data is processed (in 'profile')
+ - process Argos input file in 'profile' mode when it contains at least g_decArgo_minNumMsgForProcessing (=5) float messages</t>
+  </si>
+  <si>
+    <t>Mail (12/06/2017 10:52)</t>
+  </si>
+  <si>
+    <t>012d</t>
+  </si>
+  <si>
+    <t>Manage specific EOL of Nova 6903192.</t>
+  </si>
+  <si>
+    <t>Mail (23/06/2017 15:04)</t>
+  </si>
+  <si>
+    <t>013a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20170905_013a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on '012d' version:
+ - 13 new decoders for Apex Iridium Rudics floats
+ - new decoder for Navis floats
+ - new decoder for PROVOR-DO-IR Ice floats (Coriolis version 5.75 decId 214)
+ - new decoder for ARVOR-DEEP floats with "Near Surface" and "In Air" measurements (Coriolis version 5.64 decId 215)
+ - correction on ARVOR-ARN-IR Ice floats decoder (Coriolis version 5.45 decId 212): Ice mode is optional
+ - correction of grounding date for Argos floats
+ - update of generate_json_float_meta_* tools (creation of RT version)
+</t>
+  </si>
+  <si>
+    <t>013b</t>
+  </si>
+  <si>
+    <t>Anomaly in '013a' concerning the default value used for a configuration value retrieved with the "get_config_value" function.</t>
+  </si>
+  <si>
+    <t>013c</t>
+  </si>
+  <si>
+    <t>Update to report technical information of 'surface' cycles in the TECH_AUX files (for decoders 30, 32, 201 to 215, 2001 and 2002).</t>
+  </si>
+  <si>
+    <t>013d</t>
+  </si>
+  <si>
+    <t>Double precision lost for 'MTIME' data (stored in a single precision variable).</t>
+  </si>
+  <si>
+    <t>013e</t>
+  </si>
+  <si>
+    <t>For CTS4 float decoders: check if received packets are consistent with sensor mounted on the float + create a default VSS when configuration information are missing.</t>
+  </si>
+  <si>
+    <t>013f</t>
+  </si>
+  <si>
+    <t>For Apex Ir and Navis (decoder Id 1101 to 1113 and 1201): use the profile terminated date from .msg file to set AET if no other information is available from .log file.</t>
+  </si>
+  <si>
+    <t>014a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20170926_014a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on '013f' version:
+ - one new decoder (decId 122) for Provor CTS5 floats (7.02) (with AMPT version 1.06.010)
+</t>
+  </si>
+  <si>
+    <t>014b</t>
+  </si>
+  <si>
+    <t>Global variables g_decArgo_13Or11TypePacketExpected and g_decArgo_14Or12TypePacketExpected not initialized in some cases (decId 215).</t>
+  </si>
+  <si>
+    <t>014c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a float has been reset at sea 'float internal cycle number' and 'decoder cycle number' differ.
+We should use 'float internal cycle number' to manage configuration parameters at each cycle (bug detected from erroneous management of alternate profile depth for float 6901250).
+Correction for DecId: 210 to 214 (all decId that manage reset of the float).
+</t>
+  </si>
+  <si>
+    <t>014d</t>
+  </si>
+  <si>
+    <t>For Apex Iridium and Navis floats, create the 'Primary sampling' profile by merging HR and LR data.</t>
+  </si>
+  <si>
+    <t>014e</t>
+  </si>
+  <si>
+    <t>Manage specificities of EOL transmitted data for a Nova float (to process 6903195 received data).</t>
+  </si>
+  <si>
+    <t>014f</t>
+  </si>
+  <si>
+    <t>Format position in CSV decoded files of NKE floats (from decimal values to degrees and decimal minutes).</t>
+  </si>
+  <si>
+    <t>014g</t>
+  </si>
+  <si>
+    <t>Do not consider "subsurface point" value when PTS = 0 0 0. It has not been set because the float didn't dive deep enough.</t>
+  </si>
+  <si>
+    <t>015a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20171016_015a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on '014g' version:
+ - update of decoders 212 and 214 to manage delayed data that can occur with float versions (5.45 and 5.75)
+</t>
+  </si>
+  <si>
+    <t>016a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20171109_016a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on '015a' version:
+ - new decoder for Apex Iridium SBD floats (decId 1314) : 2 floats
+ - improvment of Apex Iridium RUDICS décoders: retrieve clok offset information from .msg files (if no (or very few) .log files are provided)
+ - corrections on Apex Iridium RUDICS decoders: NB_SAMPLE parameter should not be in B-TRAJ files
+ - MTIME moved from PROF_AUX files to B-PROF files
+ - MC27 configuration parameter managed in decId 213 and 214 + PTS data packets managed in decId 214
+</t>
+  </si>
+  <si>
+    <t>016b</t>
+  </si>
+  <si>
+    <t>Provor CTS5 decoders: initialize "g_decArgo_patternNumFloat" before creating VSS of corrected cycles.</t>
+  </si>
+  <si>
+    <t>016c</t>
+  </si>
+  <si>
+    <t>MC27 is not supposed to be managed by decId 212 floats.</t>
+  </si>
+  <si>
+    <t>Update of the algorithm used to choose between multiple input configuration files (erroneous for decId 1314).</t>
+  </si>
+  <si>
+    <t>016d</t>
+  </si>
+  <si>
+    <t>016e</t>
+  </si>
+  <si>
+    <t>Check empty structures before adressing them.</t>
+  </si>
+  <si>
+    <t>016f</t>
+  </si>
+  <si>
+    <t>Bug corrected: infinite loop when replaying data buffers of a float that experienced delayed data transmission.</t>
+  </si>
+  <si>
+    <t>016g</t>
+  </si>
+  <si>
+    <t>Bug corrected: TRAJ N_CYCLE vs N_MEASUREMENT check failed for data sent by Remocean #6901439</t>
+  </si>
+  <si>
+    <t>017a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180202_017a</t>
+  </si>
+  <si>
+    <t>Based on '016g' version:
+ - 1 new decoder (decId 123) for PROVOR CTS5 float equipped with PH sensor (coriolis version 7.03): 1 float
+ - 2 new decoders (decId 1014 and 1015) for Apex Argos BGC floats (coriolis versions 082807 &amp; 020110): 4 and 2 floats
+ - RAW_DOWNWELLING_* parameter data stored in FLOAT type (instead of DOUBLE)
+ - FillValue of MTIME parameter set to double(999999)
+ - miscellaneous corrections on Ice float decoders</t>
+  </si>
+  <si>
+    <t>016h</t>
+  </si>
+  <si>
+    <t>RAW_DOWNWELLING_* parameters stored in FLOAT instead of DOUBLE</t>
+  </si>
+  <si>
+    <t>017b</t>
+  </si>
+  <si>
+    <t>FillValue of MTIME (temporarily) set to 99999 (instead of 999999)</t>
+  </si>
+  <si>
+    <t>017c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - cope with erroneous transmission of float 3902136 during cycle #2
+ - similar to '014g' patch for floats which transmit PSAL with an offset of 10</t>
+  </si>
+  <si>
+    <t>017d</t>
+  </si>
+  <si>
+    <t>Update of INCOIS FLBB floats decoder (decId 301)</t>
+  </si>
+  <si>
+    <t>018a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180220_018a</t>
+  </si>
+  <si>
+    <t>Based on '017d' version:
+ - 1 new decoder (decId 217) for Arvor-Ir-DO floats (coriolis version 5.46): 1 float
+ - 1 new decoder (decId 2003) for NOVA floats (coriolis version 0.9): 2 floats
+ - improvment of existing NOVA/DOVA decoders to process EOL data
+ - improvment of Deep-DO-Ice (5.65) float decoder to manage second Iridium session
+ - add a 'slope' coefficient to RT adjustments provided from the Coriolis data base</t>
+  </si>
+  <si>
+    <t>018b</t>
+  </si>
+  <si>
+    <t>Bug in PT33 configuration value retrieval for decId 216 (5.65)</t>
+  </si>
+  <si>
+    <t>018c</t>
+  </si>
+  <si>
+    <t>Incorrect name for JSON meta-data storage structure (used to retrieve RT adjustment information).</t>
+  </si>
+  <si>
+    <t>DecId 123 was ignored from the rsync log file parsing procedure.</t>
+  </si>
+  <si>
+    <t>018d</t>
+  </si>
+  <si>
+    <t>018e</t>
+  </si>
+  <si>
+    <t>Error in read_argos_file_fmt1 =&gt; no output data ! (error since '018a' version)</t>
+  </si>
+  <si>
+    <t>018f</t>
+  </si>
+  <si>
+    <t>Correction of CTS5 float duplication file when the file already exists</t>
+  </si>
+  <si>
+    <t>018g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - bug in PROF_AUX creation for Apex Argos BGC float (in RT with fla = 2)
+ - bug in NOVA #6903278 float processing (code more robust when erroneous data is transmitted by the float)
+</t>
+  </si>
+  <si>
+    <t>019a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180326_019a</t>
+  </si>
+  <si>
+    <t>Based on '018g' version:
+ - 1 new decoder (decId 111) for Provor CTS4 V3.xx floats (coriolis version 6.11): 6 floats for Coriolis, 8 floats for INCOIS
+ - update of existing CTS4 decoders (erroneous decoding of STDEV+Median data for ECO3, CROVER and SUNA sensors)
+ - update of Argo parameter list (for 'nc_create_synthetic_profile' tool)
+ - when the bad decoder is used (RT vs DM) a DECODING_ERROR is raised + the nc file generation is skipped
+ - the DM CTS4 decoder is now able to shift decoded cycle numbers</t>
+  </si>
+  <si>
+    <t>019b</t>
+  </si>
+  <si>
+    <t>Bug in CST4 Remocean decoders (decId 105 to 110): the buffer timeout is not raised anymore.</t>
+  </si>
+  <si>
+    <t>019c</t>
+  </si>
+  <si>
+    <t>For Provor CTS5 decoders: change message level (ERROR to WARNING) when data sampled during the' descent to prof' phase has been received.</t>
+  </si>
+  <si>
+    <t>019d</t>
+  </si>
+  <si>
+    <t>For decId 111 (Provor CTS4 V3.xx floats; coriolis version 6.11):
+ - take into account that rsync log files are stored in the "DIR_INPUT_RSYNC_LOG/float_login_name" directory.
+ - in "predefined buffer" mode we must check the buffer contents to update the global variable g_decArgo_receivedDataPhase (used in the following decoding steps).</t>
+  </si>
+  <si>
+    <t>020a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180427_020a</t>
+  </si>
+  <si>
+    <t>Based on '019d' version:
+ - 1 new decoder (decId 1021) for Apex APF11 Argos (2.8.0 version): 6 floats</t>
+  </si>
+  <si>
+    <t>021a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180516_021a</t>
+  </si>
+  <si>
+    <t>Based on '020a' version:
+ - 1 new decoder (decId 1022) for Apex APF11 Argos (2.10.4 version): 5 floats.
+ - all 'copyfile' or 'movefile' functions used in the decoder now report an ERROR message in the log file when the wanted action failed.</t>
+  </si>
+  <si>
+    <t>021b</t>
+  </si>
+  <si>
+    <t>For decId 1021 and 1022 (Apex APF11 Argos):
+ - in RT mode: don't apply ghost detection algorithm
+For decId 2001 and 2002 (NOVA/DOVA):
+ - manage erroneous data received from float #6903178 during the EOL mode
+ - correct erroneous storage of GPS latitudes and longitudes</t>
+  </si>
+  <si>
+    <t>021c</t>
+  </si>
+  <si>
+    <t>For decId 1021 and 1022 (Apex APF11 Argos):
+ - bug: a typo in configuration labels prevents to set the detailed description of the VSS</t>
+  </si>
+  <si>
+    <t>022a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180606_022a</t>
+  </si>
+  <si>
+    <t>022b</t>
+  </si>
+  <si>
+    <t>First version of merged profile (version 2) (M-PROF) generating tool.
+First version of synthetic profile (S-PROF) generating tool.</t>
+  </si>
+  <si>
+    <t>022c</t>
+  </si>
+  <si>
+    <t>Updated version of M&amp;S-PROF generating tools (same version number because no files have been generated yet).
+New version of ARGO_simplify_getpressureaxis_v6.m file (provided by bittig@obs-vlfr.fr on 19/06/2018 16:58).</t>
+  </si>
+  <si>
+    <t>Updated version of M&amp;S-PROF generating tools (same version number because no files have been generated yet): the name of the XML report file can be set through an input parameter.</t>
+  </si>
+  <si>
+    <t>022d</t>
+  </si>
+  <si>
+    <t>022e</t>
+  </si>
+  <si>
+    <t>Print Matlab error in log file when ARGO_simplify_getpressureaxis_v6 function crashes.</t>
+  </si>
+  <si>
+    <t>022f</t>
+  </si>
+  <si>
+    <t>For PROVOR CTS4 with Iridium transmission (decId 105 to 111) consider input files uploaded by the float (.bin or .b64 depending on transmission configuration).</t>
+  </si>
+  <si>
+    <t>Input argument of tools 'nc_create_synthetic_profile' and 'nc_create_merged_profile' could be a unique WMO number provided as a string (Ex: nc_create_merged_profile('6901580')).</t>
+  </si>
+  <si>
+    <t>022g</t>
+  </si>
+  <si>
+    <t>Update for nc_create_synthetic_profile tool.</t>
+  </si>
+  <si>
+    <t>022h</t>
+  </si>
+  <si>
+    <t>022i</t>
+  </si>
+  <si>
+    <t>Update for nc_create_synthetic_profile and nc_create_merged_profile tools.</t>
+  </si>
+  <si>
+    <t>022j</t>
+  </si>
+  <si>
+    <t>Update for nc_create_synthetic_profile and nc_create_merged_profile tools.
+New version of ARGO_simplify_getpressureaxis_v6 (dated 27/06/2018 22:01).</t>
+  </si>
+  <si>
+    <t>022k</t>
+  </si>
+  <si>
+    <t>022l</t>
+  </si>
+  <si>
+    <t>Updates for BGC data reprocessing:
+ - no more comment when 'specific calibration' coefficients '_O' are missing (for BBP, CHLA and CDOM)
+ - CHLA: QC = 5 instead of 8 in the quenching zone
+ - first version of CHLA RT adjustment (CHLA_ADJUSTED = CHLA/2)
+ - NITRATE: 0.026 instead of 0.02 in NITRATE processing (pressure correction effect)
+ - first version of NITRATE RT adjustment
+ - BBP: PREDEPLOYMENT_CALIB_COMMENT modified to cope with new factory slope coefficients</t>
+  </si>
+  <si>
+    <t>022m</t>
+  </si>
+  <si>
+    <t>Update of "add_rtqc_to_profile_file" (=&gt; version 3.4): for each profile, update PROFILE_&lt;PARAM&gt;_QC with &lt;PARAM&gt;_QC or &lt;PARAM&gt;_ADJUSTED_QC depending on each profile DATA_MODE</t>
+  </si>
+  <si>
+    <t>022n</t>
+  </si>
+  <si>
+    <t>In the '022l' update, the PARAMETER_DATA_MODE was not correctly set in all circumstances in case of RT adjustment (some PARAMETER_DATA_MODE='A' can be missed and set to 'R').</t>
+  </si>
+  <si>
+    <t>022o</t>
+  </si>
+  <si>
+    <t>Anomaly introduced by version '022l' which concerns management of virtual lists for Iridium SBD decoders.</t>
+  </si>
+  <si>
+    <t>022p</t>
+  </si>
+  <si>
+    <t>New version (1.1) of the nc_create_merged_profile and nc_create_synthetic_profile tools: the temporary directory could be set through an input parameter.</t>
+  </si>
+  <si>
+    <t>022q</t>
+  </si>
+  <si>
+    <t>Set FillValue of MTIME parameter to 999999 instead of 99999.</t>
+  </si>
+  <si>
+    <t>023a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180719_023a</t>
+  </si>
+  <si>
+    <t>Based on '021c' version:
+ - 1 new decoder (decId 1321) for Apex APF11 Iridium (2.10.1 version): 1 float
+ - correction of Apex APF11 Argos decoders: crashed when PnPCycleLen &gt; 1
+ - for all Apex Argos decoders: STARTUP_DATE can be stored in the data base with the format 'dd/mm/yyyy HH:MM:SS' or 'YYYYMMDDHHMMSS'</t>
+  </si>
+  <si>
+    <t>Based on '022q' version:
+ - 1 new decoder (decId 1322) for Apex APF11 Iridium (2.11.1 version) with CTD + DO + PH: 3 floats
+ - update of Apex APF11 Argos decoders: to use mean of surface pressures as Poffset and to store all these sampled values in TECH_AUX file
+ - update of Provor CTS4 AltanOS decoder (decId 111): TECH parameters are now in the checker (moved from TECH_AUX file to TECH file) + new algorithm to set time of measurements sampled during the drift phase
+ - 1 new decoder (decId 112) for Provor CTS4 Remocean: for float 6902737 only (because of DO processing with case 202_205_303)</t>
+  </si>
+  <si>
+    <t>023b</t>
+  </si>
+  <si>
+    <t>Update parser of rsync log files for CTS4 and CTS5 floats.</t>
+  </si>
+  <si>
+    <t>024a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180827_024a</t>
+  </si>
+  <si>
+    <t>Based on '023b' version:
+ - for decoder Provor CTS4 6.11 (decId 111) and Apex APF11 Iridium SBD (decId 1321 and 1322): new configuration parameters are now accepted by the checker (version"file_checker_2018-07-16_v2.5.4_spec_2018-08-06") they have been moved from META_AUX to META files.
+ - variable MTIME is added by the decoder in the list of float parameters (concerned floats: NAVIS (1201), PROVOR CTS5 (121, 122, 123) and Apex APF11 Ir (1321, 1322)).
+ - consistency between DATA_MODE and PARAMETER_DATA_MODE has been corrected for 'fake' primary profiles.
+ - NOVA/DOVA decoders: cycle number management updated to cope with float  6901885 behavior.
+ - derived parameter adjustments: they have been updated to be compliant with the decision of workshop BGC of ADMT18 (“For a parameter to pass to mode 'A' (i.e., adjusted in real-time), the calculation for the adjustment must involve the parameter itself (e.g., with an offset or slope). If a different parameter used for the calculations is in mode 'A' (e.g., PSAL_ADJUSTED), this does not transitions onto the parameter itself and does not put it into mode 'A'. The field is always calculated with other parameters in 'R' mode (e.g., PSAL). _ADJUSTED is only populated with a "real" parameter adjustment as defined above. A calculation without a "real" parameter adjustment but involving other adjusted parameters (e.g., PSAL_ADJUSTED) is not performed/not recorded in the BGC-Argofiles.").
+ - M-PROF and S-PROF generating tools: updated to process B-PROF files where PARAMETER_DATA_MODE variable is missing.</t>
+  </si>
+  <si>
+    <t>024b</t>
+  </si>
+  <si>
+    <t>Update parser of rsync log files for CTS4 floats processed in DM with the decode_provor_2_nc_dm decoder.</t>
+  </si>
+  <si>
+    <t>024c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Apex APF11 Ir decoders (decId 1321 &amp; 1322): manage FillValue=-999 reported by the CTD sensor through CTD_P measurements in case of sensor failure
+ - Provor CTS5 decoders: correction in the rsync log parser (to not consider files stored in sub-directories)
+ - 'software_version' global attribute added in M-PROF and S-PROF files</t>
+  </si>
+  <si>
+    <t>025a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20180926_025a</t>
+  </si>
+  <si>
+    <t>Based on '024c' version:
+ - update of all DO float decoders to be compliant with file "near_surface_&amp;_in_air_data_processing_at_coriolis_V2.0_20180920.docx" specifications
+ - 'decoder_version' global attribute added to all Argo NetCDF files
+ - 'PPOX_DOXY' can now be adjusted ('PPOX_DOXY_ADJUSTED*' parameters added in the NetCDF files)
+ - update of negative temperature decoding for Apex APF11 Argos floats (decId 1021 et 1022)
+ - RTQC of CHLA parameter updated so that grey list test output is considered in the final QC and ADJUSTED_QC
+ - M&amp;S-PROF generators: specific input parameters added in RT and PI versions of the tools</t>
+  </si>
+  <si>
+    <t>025b</t>
+  </si>
+  <si>
+    <t>P
+init_float_config_ir_rudics.m
 process_profile_ir_rudics_SUNA_APF.m
 compute_drift_derived_parameters_ir_rudics.m
 compute_drift_derived_parameters_ir_sbd2.m
@@ -245,65 +1405,24 @@
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (16/07/2015 14:59)</t>
-  </si>
-  <si>
-    <t>Mail (17/07/2015 16:18)</t>
-  </si>
-  <si>
-    <t>Mail (02/09/2015 15:42)</t>
-  </si>
-  <si>
-    <t>Mail (04/09/2015 09:37)</t>
-  </si>
-  <si>
-    <t>Mail (11/09/2015 09:51)</t>
-  </si>
-  <si>
-    <t>Mail (14/01/2016 11:14)</t>
-  </si>
-  <si>
-    <t>003c</t>
-  </si>
-  <si>
-    <t>move_files_ir_rudics.m
+    <t>P
+move_files_ir_rudics.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (18/01/2016 17:47)</t>
-  </si>
-  <si>
-    <t>In RT mode (i.e. with decode_Argo_2_nc_rt), delete the processed Iridium Rudics files (of Remocean floats), i.e. the files are moved to the 'archive' directory only with the DM decoder (decode_provor_2_csv and decode_provor_2_nc).</t>
-  </si>
-  <si>
-    <t>003d</t>
-  </si>
-  <si>
-    <t>read_mail_and_extract_attachment.m
+    <t>P
+read_mail_and_extract_attachment.m
 save_mail_content_and_extract_attachment.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (19/01/2016 11:46)</t>
-  </si>
-  <si>
-    <t>Manage attachment of Iridium SBD mail files (in co_20151217T000434Z_300234060350130_001113_000000_6279.txt, 001114, 001115, 001116 and 001117 attachment file name is provided without '"' (Ex: filename=300234060350130_001113.sbd;)).</t>
-  </si>
-  <si>
-    <t>003e</t>
-  </si>
-  <si>
-    <t>Mail (26/01/2016 17:32)</t>
-  </si>
-  <si>
-    <t>process_profile_ir_rudics_OCR_mean_stdMed.m
+    <t>P
+process_profile_ir_rudics_OCR_mean_stdMed.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>A variable, used in a warning message was not initialized.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print_data_in_csv_file_ECO3_mean_stdMed_105_to_107.m       
+    <t xml:space="preserve">P
+print_data_in_csv_file_ECO3_mean_stdMed_105_to_107.m       
 print_data_in_csv_file_ECO3_mean_stdMed_108_109.m          
 print_data_in_csv_file_OXY_mean_stdMed_301.m               
 print_data_in_csv_file_OXY_mean_stdMed_302_303.m           
@@ -335,46 +1454,19 @@
 init_default_values.m  </t>
   </si>
   <si>
-    <t>003f</t>
-  </si>
-  <si>
-    <t>Mail (28/01/2016 08:40)</t>
-  </si>
-  <si>
-    <t>Anomaly when assigning mean data with stdev+median associated data when multiple levels have the same pressure.</t>
-  </si>
-  <si>
-    <t>parse_input_param_iridium_sbd2_rt.m
+    <t>P
+parse_input_param_iridium_sbd2_rt.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>003g</t>
-  </si>
-  <si>
-    <t>Mail (04/02/2016 16:20)</t>
-  </si>
-  <si>
-    <t>Bug while using 'decode_argo_2_nc_rt' for an Arvor CM which shared its IMEI with another float managed by the decoder.</t>
-  </si>
-  <si>
-    <t>003h</t>
-  </si>
-  <si>
-    <t>load_processed_data_ir_rudics_sbd2.m
+    <t>P
+load_processed_data_ir_rudics_sbd2.m
 save_processed_data_ir_rudics_sbd2.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (05/02/2016 10:52)</t>
-  </si>
-  <si>
-    <t>Reduce the size of the ".mat" files stored by the Remocean decoder to save already processed data.</t>
-  </si>
-  <si>
-    <t>003i</t>
-  </si>
-  <si>
-    <t>_config_param_name_201.csv
+    <t>P
+_config_param_name_201.csv
 _config_param_name_202.csv
 _config_param_name_201.json
 _config_param_name_202.json
@@ -382,16 +1474,8 @@
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (17/02/2016 09:55)</t>
-  </si>
-  <si>
-    <t>Correct the typo in the CONFIG_OptodePowerAcquisitionMode_NUMBER configuration parameter name ("NUMBER." instead of "NUMBER") of the Arvor Deep floats.</t>
-  </si>
-  <si>
-    <t>003j</t>
-  </si>
-  <si>
-    <t>decode_prv_data_ir_sbd_205.m
+    <t>P
+decode_prv_data_ir_sbd_205.m
 is_buffer_completed_ir_sbd.m
 process_trajectory_data_204_205.m
 set_float_config_ir_sbd.m
@@ -399,68 +1483,22 @@
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (22/02/2016 15:06)</t>
-  </si>
-  <si>
-    <t>Manage second Iridium session of Arvor Ir floats (PM16 parameter is immediatly considered by the float, all others  parameters are considered the next cycle).</t>
-  </si>
-  <si>
-    <t>003k</t>
-  </si>
-  <si>
-    <t>decode_provor_argos_data.m
+    <t>P
+decode_provor_argos_data.m
 process_trajectory_data_30.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (25/02/2016 09:11)</t>
-  </si>
-  <si>
-    <t>First stabilization pressure are not correctly reported in the TRAJ files of Arvor ARN floats.</t>
-  </si>
-  <si>
-    <t>004a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_201602291_004a</t>
-  </si>
-  <si>
-    <t>Based on' 003k' version: 
- - 6 new Apex decoders implemented
- - in air DOXY measurement stored in the trajectory (PPOX_DOXY parameter)
- - RTQC: profile RTQC updated, trajectory RTQC added
- - the CLS satellite pass headers are checked and corrected if needed
- - new tools created to update Argo format in existing V3.1 files</t>
-  </si>
-  <si>
-    <t>004b</t>
-  </si>
-  <si>
-    <t>process_sensor_tech_data_ir_rudics_OCR.m
+    <t>P
+process_sensor_tech_data_ir_rudics_OCR.m
 process_sensor_tech_data_ir_sbd2_FLBB.m
 create_nc_multi_prof_b_file_3_1.m
 create_nc_mono_prof_b_files_3_1.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (07/03/2016 17:17)
-Mail (08/03/2016 14:23)
-Mail (08/03/2016 15:34)</t>
-  </si>
-  <si>
-    <t>Typo ("w") in process_sensor_tech_data_ir_rudics_OCR.m and process_sensor_tech_data_ir_sbd2_FLBB.m.
-"Adjusted values are provided in the core profile file" added in SCIENTIFIC_CALIB_COMMENT of PRES in B files =&gt; bug for FLBB (no profile in #1 and #2).</t>
-  </si>
-  <si>
-    <t>07/03/2016
-08/03/2016</t>
-  </si>
-  <si>
-    <t>004c</t>
-  </si>
-  <si>
-    <t>add_profile_date_and_location_201_to_209.m                 
+    <t>P
+add_profile_date_and_location_201_to_209.m                 
 add_profile_date_and_location_ir_sbd2.m                    
 compute_profile_location_from_iridium_locations_ir_sbd.m   
 compute_profile_location_from_iridium_locations_ir_sbd2.m  
@@ -473,30 +1511,13 @@
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (15/03/2016 15:14)</t>
-  </si>
-  <si>
-    <t>Manage nc mono-profile file update for Iridium (SBD or Rudics) floats.
-Particularly when the data of a given cycle is in two different log files.</t>
-  </si>
-  <si>
-    <t>004d</t>
-  </si>
-  <si>
-    <t>get_netcdf_param_attributes_3_1.m                               
+    <t>P
+get_netcdf_param_attributes_3_1.m                               
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (18/03/2016 10:22)</t>
-  </si>
-  <si>
-    <t>&lt;PARAM&gt;_STD 'valid_min' and 'valid_max' attributes temporarily set (until a new version of the checker can accept files where these attributes are missing).</t>
-  </si>
-  <si>
-    <t>004e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decode_provor_iridium_sbd.m    
+    <t xml:space="preserve">P
+decode_provor_iridium_sbd.m    
 decode_provor_iridium_sbd2.m   
 delete_duplicated_sbd_files.m  
 move_files_ir_sbd.m            
@@ -504,123 +1525,59 @@
 </t>
   </si>
   <si>
-    <t>Mail (22/03/2016 17:27)</t>
-  </si>
-  <si>
-    <t>For the Iridium SBD decoders, process the buffer contents even when the last processed mail has no attachment .</t>
-  </si>
-  <si>
-    <t>004f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get_netcdf_param_attributes_3_1.m            
+    <t xml:space="preserve">P
+get_netcdf_param_attributes_3_1.m            
 init_default_values.m          
 </t>
   </si>
   <si>
-    <t>Mail (01/04/2016 14:23)</t>
-  </si>
-  <si>
-    <t>PPOX_DOXY:valid_max set to 5000.</t>
-  </si>
-  <si>
-    <t>004g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parse_rsync_log_ir_rudics.m
+    <t xml:space="preserve">P
+parse_rsync_log_ir_rudics.m
 create_float_config_apx_argos.m
 create_nc_meta_file_3_1.m
 init_default_values.m          
 </t>
   </si>
   <si>
-    <t>1 - Decoder Iridium Rudics: only lines with the 'f+++++++++' pattern are considered in the rsynclog files.
-2 - Apex decoder: if no data have been received, create a configuration from the JSON file contents =&gt; we generate a TRAJ and a META file (to illustrate that the float is managed, even if it has not worked correctly).</t>
-  </si>
-  <si>
-    <t>Mail (01/04/2016 15:19)</t>
-  </si>
-  <si>
-    <t>004h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compute_prv_dates_30.m
+    <t xml:space="preserve">P
+compute_prv_dates_30.m
 set_float_config_argos.m
 store_tech2_data_for_nc_30.m
 init_default_values.m          
 </t>
   </si>
   <si>
-    <t>Mail (05/04/2016 17:57)</t>
-  </si>
-  <si>
-    <t>1 - Correctly  manage alternate profile depth.
-2 - Check PET and DPST consistency when PARK == PROF (due to different resolutions the dates can be inconsistent).</t>
-  </si>
-  <si>
-    <t>004i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create_default_primary_profile.m
+    <t xml:space="preserve">P
+create_default_primary_profile.m
 decode_apex.m
 process_profile_ir_rudics_OXY_raw.m
 init_default_values.m          
 </t>
   </si>
   <si>
-    <t>Mail (15/04/2016 10:58)</t>
-  </si>
-  <si>
-    <t>1 - Manage Remoceans 6901472 and 6901473 incoherent data.
-2 - Correct the Apex decoder (when used in 'profile' mode, the TECH and CONF NetCDF label names were not initialized).</t>
-  </si>
-  <si>
-    <t>004j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">update_mail_data_ir_sbd.m
+    <t xml:space="preserve">P
+update_mail_data_ir_sbd.m
 add_profile_date_and_location_ir_sbd2.m
 add_profile_date_and_location_201_to_209_2001_2002.m
 init_default_values.m          
 </t>
   </si>
   <si>
-    <t>Mail (25/04/2016 11:44)</t>
-  </si>
-  <si>
-    <t>Correctly set the Iridium mails to associated cycle numbers so that the needed Irdium date and location is computed from correct Iridum mail data.</t>
-  </si>
-  <si>
-    <t>004k</t>
-  </si>
-  <si>
-    <t>Mail (26/04/2016 15:10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decode_provor_argos_data.m
+    <t xml:space="preserve">P
+decode_provor_argos_data.m
 create_prv_drift_30.m
 init_default_values.m          
 </t>
   </si>
   <si>
-    <t>Correctly manage missing tech1 while tech2 received for decId #30.</t>
-  </si>
-  <si>
-    <t>004l</t>
-  </si>
-  <si>
-    <t>Mail (10/05/2016 15:13)</t>
-  </si>
-  <si>
-    <t>Update pressure sensor offset tech label for all NKE float versions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all _techParamNames of NKE float versions
+    <t xml:space="preserve">P
+all _techParamNames of NKE float versions
 init_default_values.m          
 </t>
   </si>
   <si>
-    <t xml:space="preserve">compute_DOWN_IRRADIANCE380_105_to_109.m                    
+    <t xml:space="preserve">P
+compute_DOWN_IRRADIANCE380_105_to_109.m                    
 compute_DOWN_IRRADIANCE412_105_to_109.m                    
 compute_DOWN_IRRADIANCE490_105_to_109.m                    
 num_2_str.m                                                
@@ -632,19 +1589,8 @@
 init_default_values.m </t>
   </si>
   <si>
-    <t>004m</t>
-  </si>
-  <si>
-    <t>Mail (13/05/2016 16:55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DOWN_IRRADIANCE_xxx values should be /100.</t>
-  </si>
-  <si>
-    <t>004n</t>
-  </si>
-  <si>
-    <t>_config_param_name_105.csv
+    <t>P
+_config_param_name_105.csv
 _config_param_name_105.json
 _config_param_name_106.json
 _config_param_name_107.json
@@ -652,179 +1598,45 @@
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (19/05/2016 09:13)</t>
-  </si>
-  <si>
-    <t>Change 'umole/L' to 'umol/L' in the SUNA configuration labels.</t>
-  </si>
-  <si>
-    <t>005a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20160628_005a</t>
-  </si>
-  <si>
-    <t>Based on' 004n' version: 
- - 1 new NOVA/DOVA decoder (20 floats)
- - DO processing reviewed (new processing for DOXY and PPOX_DOXY parameters) + PREDEPLOYMENT_CALIB_* information filled
- - few corrections on Traj data (to be compliant with first version of the traj checker)
- - NITRATE processed from transmitted spectrum + PREDEPLOYMENT_CALIB_* information filled</t>
-  </si>
-  <si>
-    <t>004o</t>
-  </si>
-  <si>
-    <t>store_gps_data_ir_sbd.m
+    <t>P
+store_gps_data_ir_sbd.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Est locations of Arvor Deep floats are considered as not valid (and then not reported in the traj file).</t>
-  </si>
-  <si>
-    <t>Mail (01/07/2016 16:22)</t>
-  </si>
-  <si>
-    <t>005b</t>
-  </si>
-  <si>
-    <t>005c</t>
-  </si>
-  <si>
-    <t>get_config_file_number.m
+    <t>P
+get_config_file_number.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (07/07/2016 17:37)</t>
-  </si>
-  <si>
-    <t>To choose between multiple configuration files for Nova float.</t>
-  </si>
-  <si>
-    <t>005d</t>
-  </si>
-  <si>
-    <t>create_nc_mono_prof_b_files_3_1.m
+    <t>P
+create_nc_mono_prof_b_files_3_1.m
 update_meta_data.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (08/07/2016 14:54)</t>
-  </si>
-  <si>
-    <t>Bug when checking if Nova profile file should be updated (Matlab 'dir' function used in a .m file where a variable named 'dir' is already present).
-Do not add DO parameters for V5.63 floats.
-Add POSITIONING_SYSTEM = 'IRIDIUM' to all floats with  POSITIONING_SYSTEM = 'GPS' and with an Iridium SBD transmission (i.e. all but French Remocean floats).</t>
-  </si>
-  <si>
-    <t>006a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20160708_006a</t>
-  </si>
-  <si>
-    <t>Based on' 005d' version: 
- - 1 new Arvor ARN Iridium (5.43) decoder (7 floats)
- - 1 new Arvor ARN DO Argos (4.54) decoder (2 floats)
- - Traj RTQC: test #22 added to IN AIR measurements (MC=1099)</t>
-  </si>
-  <si>
-    <t>006b</t>
-  </si>
-  <si>
-    <t>update_meta_data.m
+    <t>P
+update_meta_data.m
 compute_drift_derived_parameters_ir_rudics.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (12/07/2016 15:33)</t>
-  </si>
-  <si>
-    <t>We should first check if a SUNA sensor is mounted on the float before adding 'on the fly' missing associated parameters.
-Bug corrected in float/cycle/profile numbers of the output log contents.</t>
-  </si>
-  <si>
-    <t>007a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20160916_007a</t>
-  </si>
-  <si>
-    <t>Based on' 006b' version: 
- - 6 new Apex Argos decoders (92 floats)
- - few corrections on previous version</t>
-  </si>
-  <si>
-    <t>007b</t>
-  </si>
-  <si>
-    <t>compute_nva_dates_1_2.m
+    <t>P
+compute_nva_dates_1_2.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (19/09/2016 17:52)</t>
-  </si>
-  <si>
-    <t>From NOVA float 6903179 we only received hydraulic message for its cycle #161 =&gt; we should manage cycle timings accordingly.</t>
-  </si>
-  <si>
-    <t>007c</t>
-  </si>
-  <si>
-    <t>compute_BBP700_301.m
+    <t>P
+compute_BBP700_301.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (20/09/2016 16:33)</t>
-  </si>
-  <si>
-    <t>To process BBP700 for FLBB INCOIS floats the angular is 142 degree and the khi coef 1.097.</t>
-  </si>
-  <si>
-    <t>007d</t>
-  </si>
-  <si>
-    <t>compute_apx_times.m
+    <t>P
+compute_apx_times.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (21/09/2016 09:38)</t>
-  </si>
-  <si>
-    <t>For Apex TST processing, use the 'improved method' before the TWR one (we had a bad trans repetition period in de data base which cause erroneous TST)</t>
-  </si>
-  <si>
-    <t>007e</t>
-  </si>
-  <si>
-    <t>Mail (22/09/2016 11:54)</t>
-  </si>
-  <si>
-    <t>Complement to '007d' patch.</t>
-  </si>
-  <si>
-    <t>008a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20161021_008a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on' 007e' version: 
- - 2 new Apex Argos decoders (5 floats)
- - improvement of Iridium decoders: rsync log parsing, Bio data decoding, using virtual buffers </t>
-  </si>
-  <si>
-    <t>008b</t>
-  </si>
-  <si>
-    <t>For Provor Iridium and Nova floats, the decoder crashed when reprocessing data according to buffer list.
-For Provor Rudics floats, the data files are now stored in a 'loginName_wmo' directory (previously in a 'loginName' directory).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decode_provor_iridium_sbd.m
+    <t xml:space="preserve">P
+decode_provor_iridium_sbd.m
 get_float_cycle_list_iridium_rudics.m
 copy_remocean_sbd_files.m
 decode_nova_iridium_sbd.m             
@@ -842,70 +1654,30 @@
 </t>
   </si>
   <si>
-    <t>Mail (09/11/2016 15:55)</t>
-  </si>
-  <si>
-    <t>008c</t>
-  </si>
-  <si>
-    <t>decode_prv_data_ir_sbd_210_211.m
+    <t>P
+decode_prv_data_ir_sbd_210_211.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Improve location sign determination for decId #210 floats. We now use the 'best' Iridium location, i.e. with minimum CEP radius (instead of the first one).</t>
-  </si>
-  <si>
-    <t>Mail (14/12/2016 14:51)</t>
-  </si>
-  <si>
-    <t>008d</t>
-  </si>
-  <si>
-    <t>ignore_duplicated_mail_files.m
+    <t>P
+ignore_duplicated_mail_files.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (20/12/2016 08:19)</t>
-  </si>
-  <si>
-    <t>Correct selection of Iridium mail files to delete when duplicates exist (for float 6901468 which encountered Iridium transmission issues).</t>
-  </si>
-  <si>
-    <t>008e</t>
-  </si>
-  <si>
-    <t>Mail (20/12/2016 12:11)</t>
-  </si>
-  <si>
-    <t>When the info.json file is missing and many configuration files are provided, the decoder is not able to find which one should be used. It stops but the path of the XML report is not set. In this case we set this path to '.' under windows and to '/tmp' under Linux.</t>
-  </si>
-  <si>
-    <t>decode_provor_2_nc_dm.m
+    <t>P
+decode_provor_2_nc_dm.m
 decode_argo_2_nc_rt.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>008f</t>
-  </si>
-  <si>
-    <t>compute_drift_NITRATE_BIS_105_to_109.m
+    <t>P
+compute_drift_NITRATE_BIS_105_to_109.m
 compute_profile_NITRATE_BIS_105_to_109.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Replace complex values of NITRATE with associated FillValue (6901865 #34: nitrate spectrum is inconsistent =&gt;some  processed NITRATE values are complex).</t>
-  </si>
-  <si>
-    <t>Mail (21/12/2016 17:09)</t>
-  </si>
-  <si>
-    <t>008g</t>
-  </si>
-  <si>
-    <t>Mail (17/01/2017 17:32)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decode_provor_iridium_sbd.m            
+    <t xml:space="preserve">P
+decode_provor_iridium_sbd.m            
 decode_prv_data_ir_sbd_201_203.m       
 decode_prv_data_ir_sbd_202.m           
 decode_prv_data_ir_sbd_204.m           
@@ -920,39 +1692,15 @@
 init_default_values.m </t>
   </si>
   <si>
-    <t>For decoder Ids 201 to 209:
- - Improve detection of Deep VS Surface phases: detection is now only based on number of transmitted messages and measurements (provided in the float tech information).
- - Improve cycle number management: the first deep cycle should be #1.</t>
-  </si>
-  <si>
-    <t>008h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get_prv_data_two_tech_msg.m
+    <t xml:space="preserve">P
+get_prv_data_two_tech_msg.m
 split_argos_file_ghost.m
 rename_argos_input_file.m
 init_default_values.m </t>
   </si>
   <si>
-    <t>Mail (08/02/2017 11:13)</t>
-  </si>
-  <si>
-    <t>For decoder Ids 30 and 32: separate expected message Ids (4, 5, 6 for CTD floats and 7, 8, 9 for CTDO floats).
-For Apex Argos decoders: the ghost detection failed for float 6901855. We then split the Argos file only if the ghost message has at most 2 float messages in its satellite pass.</t>
-  </si>
-  <si>
-    <t>009a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_201702211_009a</t>
-  </si>
-  <si>
-    <t>Based on' 008h' version: 
- - new decoder for CTS5 floats (decId 121)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compute_prv_dates_210_211.m            
+    <t xml:space="preserve">P
+compute_prv_dates_210_211.m            
 decode_provor_iridium_sbd.m            
 decode_prv_data_ir_sbd_210_211.m       
 finalize_trajectory_data_ir_sbd.m      
@@ -964,53 +1712,19 @@
 </t>
   </si>
   <si>
-    <t>009b</t>
-  </si>
-  <si>
-    <t>Mail (24/02/2017 08:52)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update of decId 210 and 211 to manage:
-- duplicates in float transmission (3901863 and 3901868)
-- reset of a float at sea (3901863)
-- no data sample during subsurface cycle (but only for cycles #21, #22 and #23 of 3901863)
-</t>
-  </si>
-  <si>
-    <t>009c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decode_provor_iridium_sbd.m            
+    <t xml:space="preserve">P
+decode_provor_iridium_sbd.m            
 init_default_values.m                  
 </t>
   </si>
   <si>
-    <t>Mail (27/02/2017 09:41)</t>
-  </si>
-  <si>
-    <t>Assign a configuration to cycle #0 data. Useful when a float stays all its life in EOL mode.</t>
-  </si>
-  <si>
-    <t>decode_provor_iridium_rudics_cts4
+    <t>P
+decode_provor_iridium_rudics_cts4
 init_default_values.m</t>
   </si>
   <si>
-    <t>009d</t>
-  </si>
-  <si>
-    <t>add_launch_data_ir_rudics has no argument now.</t>
-  </si>
-  <si>
-    <t>Mail (27/02/2017 14:54)</t>
-  </si>
-  <si>
-    <t>009e</t>
-  </si>
-  <si>
-    <t>Mail (02/03/2017 17:13)</t>
-  </si>
-  <si>
-    <t>add_vertical_sampling_scheme_ir_rudics_cts5_from_payload.m  
+    <t>P
+add_vertical_sampling_scheme_ir_rudics_cts5_from_payload.m  
 cut_ctd_profile_ir_rudics.m                                 
 decode_payload_data.m                                       
 get_payload_config.m                                        
@@ -1020,13 +1734,8 @@
 init_default_values.m</t>
   </si>
   <si>
-    <t>Update needed to cope with CTS5 float anomaly: 6902742 transmitted the payload configuration with the payload data.</t>
-  </si>
-  <si>
-    <t>009f</t>
-  </si>
-  <si>
-    <t>decode_provor_iridium_sbd.m           
+    <t>P
+decode_provor_iridium_sbd.m           
 decode_prv_data_ir_sbd_201_203.m      
 decode_prv_data_ir_sbd_202.m          
 decode_prv_data_ir_sbd_204.m          
@@ -1041,45 +1750,8 @@
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (03/03/2017 17:01)</t>
-  </si>
-  <si>
-    <t>Following the '008g' patch, one global variable was not correctly initialized when decoding data from buffer list.</t>
-  </si>
-  <si>
-    <t>010a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20170328_010a</t>
-  </si>
-  <si>
-    <t>Based on '009f' version: 
- - new decoder for CTS4 BISULFIDE (decId 110)
- - update of SENSOR and SENSOR_MODEL names + few static configuration parameters
- - finalization of CTS5 floats with SUNA sensor
- - specific QC test implemnted for BBP
- - evolutions for the Trajectory files to be accepted by the (coming soon) GDAC TRAJ checker
- - buoyancy actions reported in the TECH_AUX files
- - management of data transmitted twice when float is switched into EOL mode (decId 201 &amp; 211)</t>
-  </si>
-  <si>
-    <t>011a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20170424_011a</t>
-  </si>
-  <si>
-    <t>Based on '010a' version: 
- - new decoder for ARVOR-ARN-IR Ice floats (Coriolis version 5.45 decId 212)
- - new decoder for PROVOR-ARN-DO-IR floats (Coriolis version 5.74 decId 213)</t>
-  </si>
-  <si>
-    <t>011b</t>
-  </si>
-  <si>
-    <t>add_configuration_number_ir_rudics_cts5.m  
+    <t>P
+add_configuration_number_ir_rudics_cts5.m  
 collect_technical_data_cts5.m              
 collect_trajectory_data_cts5.m             
 compute_nva_dates_1_2.m                    
@@ -1095,17 +1767,8 @@
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (25/04/2017 17:46)</t>
-  </si>
-  <si>
-    <t>Manage:
- - Dova 6903190: switched in EOL mode
- - CTS5 6902742: switched in EOL mode after an emergency ascent
- - update dm decoder
- - update configuration labels for Arvor Ice (decId 212)</t>
-  </si>
-  <si>
-    <t>compute_nva_dates_1_2.m                
+    <t>P
+compute_nva_dates_1_2.m                
 decode_nova_iridium_sbd.m              
 decode_nva_data_ir_sbd_2001.m          
 decode_nva_data_ir_sbd_2002.m          
@@ -1117,60 +1780,33 @@
 init_default_values.m</t>
   </si>
   <si>
-    <t>Correctly manage EOL cycles of Nova 6903194 and Dova 6903180 and 6903190.
-The prelude cycle is numbered 255 (float number) (cf. 6903194) then the floats switched in EOL (with incremented cycle numbers) and finally when cycle number 255 (float number) is reached, all following EOL cycles are numbered 255 (float number).
-In decoder output, the prelude is stored in cycle #0, the EOL cycles are stored according to cycle numbers that have been received. Thus, cycle 256 gathers all GPS locations received in the last part of the float EOL (with float cycle number 255).</t>
-  </si>
-  <si>
-    <t>get_prv_data_two_tech_msg.m
+    <t>P
+get_prv_data_two_tech_msg.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (09/05/2017 14:39)</t>
-  </si>
-  <si>
-    <t>Manage EOL of float 6902685.</t>
-  </si>
-  <si>
-    <t>Mail (01/05/2017 19:57)</t>
-  </si>
-  <si>
-    <t>decode_nva_data_ir_sbd_2001.m          
+    <t>P
+decode_nva_data_ir_sbd_2001.m          
 decode_nva_data_ir_sbd_2002.m          
 finalize_trajectory_data_ir_sbd_nva.m  
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (12/05/2017 09:28)</t>
-  </si>
-  <si>
-    <t>Manage EOL of Nova/Dova floats.</t>
-  </si>
-  <si>
-    <t>create_nc_mono_prof_c_files_3_1.m  
+    <t>P
+create_nc_mono_prof_c_files_3_1.m  
 init_default_values.m</t>
   </si>
   <si>
-    <t>Manage anomaly of float 6902764 #58 (one packet of the ascending profile transmitted twice) in the decision to generate or not the PROF.nc file ( when GENERATE_NC_MONO_PROF = 2).</t>
-  </si>
-  <si>
-    <t>Mail (15/05/2017 11:05)</t>
-  </si>
-  <si>
-    <t>Anomaly in decoderId #30 and #32. Grounding cycle information is reported in the TECH file but not in the TRAJ file (cf. 39001927 #7).</t>
-  </si>
-  <si>
-    <t>compute_prv_dates_30_32.m     
+    <t>P
+compute_prv_dates_30_32.m     
 decode_provor_argos_data.m    
 process_trajectory_data_30.m  
 process_trajectory_data_32.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>Mail (15/05/2017 16:08)</t>
-  </si>
-  <si>
-    <t>add_profile_date_and_location_201_to_213_2001_2002.m  
+    <t>P
+add_profile_date_and_location_201_to_213_2001_2002.m  
 add_profile_date_and_location_ir_rudics_cts4.m        
 add_profile_date_and_location_ir_rudics_cts5.m        
 add_profile_date_and_location_ir_sbd2.m               
@@ -1192,119 +1828,27 @@
 init_default_values.m</t>
   </si>
   <si>
-    <t>1 - Correction of "Float #%d Cycle #%d: Shift in float day (previous offset = %d (%s), new offset = %d (%s))" message contents.
-2 - Correction of the interpolation between 2 fixes located on each part of the date line.
-3 - PLATFORM_TYPE = 'DOVA' and WMO_INST_TYPE = '869' is not accepted any more for DOVA float =&gt; replaced by PLATFORM_TYPE = 'NOVA' and WMO_INST_TYPE = '865' (i.e. NOVA and DOVA share the same PLATFORM_TYPE and WMO_INST_TYPE).</t>
-  </si>
-  <si>
-    <t>Mail (18/05/2017 17:50)</t>
-  </si>
-  <si>
-    <t>012a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20170530_012a</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on '011h' version: 
- - new technical parameters (stored in TECH_AUX files) used for Coriolis internal monitoring of float tech data
- - management of roll-over to decode grounding day for DecId 201, 202, 203 (Arvor Deep)
- - correction of grounding dates (when relative to "descent to profile depth" phase) for DecId 210, 211, 212, 213
- - duplication of PRES axis in b PROF files (even when no b parameter is sampled in the concerned N_PROF profile)
-</t>
-  </si>
-  <si>
-    <t>011c</t>
-  </si>
-  <si>
-    <t>011d</t>
-  </si>
-  <si>
-    <t>011e</t>
-  </si>
-  <si>
-    <t>011f</t>
-  </si>
-  <si>
-    <t>011g</t>
-  </si>
-  <si>
-    <t>011h</t>
-  </si>
-  <si>
-    <t>create_nc_meta_aux_file.m
+    <t>P
+create_nc_meta_aux_file.m
 init_default_values.m</t>
   </si>
   <si>
-    <t>DATA_CENTRE added to META_AUX file format.</t>
-  </si>
-  <si>
-    <t>Mail (08/06/2017 15:17)</t>
-  </si>
-  <si>
-    <t>012b</t>
-  </si>
-  <si>
-    <t>012c</t>
-  </si>
-  <si>
-    <t>add_profile_date_and_location_30_32.m
+    <t>P
+add_profile_date_and_location_30_32.m
 parse_input_param_argos.m
 rename_argos_input_file.m
 init_default_values.m</t>
   </si>
   <si>
-    <t xml:space="preserve"> - correction of anomalies raised when very few Argos data is processed (in 'profile')
- - process Argos input file in 'profile' mode when it contains at least g_decArgo_minNumMsgForProcessing (=5) float messages</t>
-  </si>
-  <si>
-    <t>Mail (12/06/2017 10:52)</t>
-  </si>
-  <si>
-    <t>012d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decode_cycle_number_nva_data_ir_sbd.m  
+    <t xml:space="preserve">P
+decode_cycle_number_nva_data_ir_sbd.m  
 decode_nova_iridium_sbd.m 
 read_nova_iridium_sbd.m
 init_default_values.m    </t>
   </si>
   <si>
-    <t>Manage specific EOL of Nova 6903192.</t>
-  </si>
-  <si>
-    <t>Mail (23/06/2017 15:04)</t>
-  </si>
-  <si>
-    <t>013a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20170905_013a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on '012d' version:
- - 13 new decoders for Apex Iridium Rudics floats
- - new decoder for Navis floats
- - new decoder for PROVOR-DO-IR Ice floats (Coriolis version 5.75 decId 214)
- - new decoder for ARVOR-DEEP floats with "Near Surface" and "In Air" measurements (Coriolis version 5.64 decId 215)
- - correction on ARVOR-ARN-IR Ice floats decoder (Coriolis version 5.45 decId 212): Ice mode is optional
- - correction of grounding date for Argos floats
- - update of generate_json_float_meta_* tools (creation of RT version)
-</t>
-  </si>
-  <si>
-    <t>013b</t>
-  </si>
-  <si>
-    <t>Anomaly in '013a' concerning the default value used for a configuration value retrieved with the "get_config_value" function.</t>
-  </si>
-  <si>
-    <t>compute_prv_dates_204_to_209.m         
+    <t>P
+compute_prv_dates_204_to_209.m         
 compute_prv_dates_30_32.m              
 create_prv_drift_30.m                  
 init_default_values.m                  
@@ -1321,10 +1865,8 @@
 store_tech2_data_for_nc_212_214.m</t>
   </si>
   <si>
-    <t>013c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_default_values.m
+    <t xml:space="preserve">P
+init_default_values.m
 decode_provor_iridium_sbd.m               
 get_nc_tech_parameters_json.m                                  
 store_tech1_data_for_nc_201_to_203_215.m  
@@ -1343,35 +1885,20 @@
 </t>
   </si>
   <si>
-    <t>Update to report technical information of 'surface' cycles in the TECH_AUX files (for decoders 30, 32, 201 to 215, 2001 and 2002).</t>
-  </si>
-  <si>
-    <t>013d</t>
-  </si>
-  <si>
-    <t>init_default_values.m 
+    <t>P
+init_default_values.m 
 finalize_profile_aux_ir_rudics_cts5.m 
 process_apx_ir_rudics_profile.m</t>
   </si>
   <si>
-    <t>Double precision lost for 'MTIME' data (stored in a single precision variable).</t>
-  </si>
-  <si>
-    <t>013e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_default_values.m  
+    <t xml:space="preserve">P
+init_default_values.m  
 add_vertical_sampling_scheme_ir_rudics.m  
 decode_prv_data_ir_rudics.m               </t>
   </si>
   <si>
-    <t>For CTS4 float decoders: check if received packets are consistent with sensor mounted on the float + create a default VSS when configuration information are missing.</t>
-  </si>
-  <si>
-    <t>013f</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 adjust_clock_offset_apx_ir_rudics.m         
 decode_apex_iridium_rudics_data.m               
 decode_apx_ir_rudics.m                      
@@ -1382,35 +1909,13 @@
 process_trajectory_data_apx_ir_rudics.m</t>
   </si>
   <si>
-    <t>For Apex Ir and Navis (decoder Id 1101 to 1113 and 1201): use the profile terminated date from .msg file to set AET if no other information is available from .log file.</t>
-  </si>
-  <si>
-    <t>014a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20170926_014a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on '013f' version:
- - one new decoder (decId 122) for Provor CTS5 floats (7.02) (with AMPT version 1.06.010)
-</t>
-  </si>
-  <si>
-    <t>014b</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 decode_prv_data_ir_sbd_215.m</t>
   </si>
   <si>
-    <t>Global variables g_decArgo_13Or11TypePacketExpected and g_decArgo_14Or12TypePacketExpected not initialized in some cases (decId 215).</t>
-  </si>
-  <si>
-    <t>014c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_default_values.m
+    <t xml:space="preserve">P
+init_default_values.m
 decode_provor_iridium_sbd.m               
 decode_prv_data_ir_sbd_210_211.m          
 decode_prv_data_ir_sbd_212.m              
@@ -1423,26 +1928,13 @@
 update_float_config_ir_sbd_212_214.m      </t>
   </si>
   <si>
-    <t xml:space="preserve">When a float has been reset at sea 'float internal cycle number' and 'decoder cycle number' differ.
-We should use 'float internal cycle number' to manage configuration parameters at each cycle (bug detected from erroneous management of alternate profile depth for float 6901250).
-Correction for DecId: 210 to 214 (all decId that manage reset of the float).
-</t>
-  </si>
-  <si>
-    <t>014d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_default_values.m
+    <t xml:space="preserve">P
+init_default_values.m
 process_apx_ir_rudics_profile.m  </t>
   </si>
   <si>
-    <t>For Apex Iridium and Navis floats, create the 'Primary sampling' profile by merging HR and LR data.</t>
-  </si>
-  <si>
-    <t>014e</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 compute_nva_dates_1_2.m             
 decode_nva_data_ir_sbd_2001.m       
 decode_nva_data_ir_sbd_2002.m             
@@ -1451,13 +1943,8 @@
 store_gps_data_ir_sbd_nva.m</t>
   </si>
   <si>
-    <t>Manage specificities of EOL transmitted data for a Nova float (to process 6903195 received data).</t>
-  </si>
-  <si>
-    <t>014f</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 format_position.m                                  
 print_float_tech_data_in_csv_file_ir_rudics_one.m  
 print_float_tech_data_in_csv_file_ir_sbd2_one.m    
@@ -1471,13 +1958,8 @@
 print_tech_data_in_csv_file_214.m</t>
   </si>
   <si>
-    <t>Format position in CSV decoded files of NKE floats (from decimal values to degrees and decimal minutes).</t>
-  </si>
-  <si>
-    <t>014g</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 collect_trajectory_data_ir_rudics_sbd2.m                         
 process_profile_ir_rudics_CTD_mean_stdMed.m        
 process_profile_ir_rudics_CTD_raw.m                
@@ -1509,128 +1991,38 @@
 store_tech_data_for_nc_209.m</t>
   </si>
   <si>
-    <t>Do not consider "subsurface point" value when PTS = 0 0 0. It has not been set because the float didn't dive deep enough.</t>
-  </si>
-  <si>
-    <t>015a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20171016_015a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on '014g' version:
- - update of decoders 212 and 214 to manage delayed data that can occur with float versions (5.45 and 5.75)
-</t>
-  </si>
-  <si>
-    <t>016a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20171109_016a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on '015a' version:
- - new decoder for Apex Iridium SBD floats (decId 1314) : 2 floats
- - improvment of Apex Iridium RUDICS décoders: retrieve clok offset information from .msg files (if no (or very few) .log files are provided)
- - corrections on Apex Iridium RUDICS decoders: NB_SAMPLE parameter should not be in B-TRAJ files
- - MTIME moved from PROF_AUX files to B-PROF files
- - MC27 configuration parameter managed in decId 213 and 214 + PTS data packets managed in decId 214
-</t>
-  </si>
-  <si>
-    <t>016b</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 decode_provor_iridium_rudics_cts5.m</t>
   </si>
   <si>
-    <t>Provor CTS5 decoders: initialize "g_decArgo_patternNumFloat" before creating VSS of corrected cycles.</t>
-  </si>
-  <si>
-    <t>016c</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 create_config_param_names_ir_sbd.m</t>
   </si>
   <si>
-    <t>MC27 is not supposed to be managed by decId 212 floats.</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 get_config_file_number.m</t>
   </si>
   <si>
-    <t>Update of the algorithm used to choose between multiple input configuration files (erroneous for decId 1314).</t>
-  </si>
-  <si>
-    <t>016d</t>
-  </si>
-  <si>
-    <t>016e</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 set_n_cycle_vs_n_meas_consistency.m</t>
   </si>
   <si>
-    <t>Check empty structures before adressing them.</t>
-  </si>
-  <si>
-    <t>016f</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 decode_provor_iridium_sbd_delayed.m</t>
   </si>
   <si>
-    <t>Bug corrected: infinite loop when replaying data buffers of a float that experienced delayed data transmission.</t>
-  </si>
-  <si>
-    <t>016g</t>
-  </si>
-  <si>
-    <t>Bug corrected: TRAJ N_CYCLE vs N_MEASUREMENT check failed for data sent by Remocean #6901439</t>
-  </si>
-  <si>
-    <t>017a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20180202_017a</t>
-  </si>
-  <si>
-    <t>Based on '016g' version:
- - 1 new decoder (decId 123) for PROVOR CTS5 float equipped with PH sensor (coriolis version 7.03): 1 float
- - 2 new decoders (decId 1014 and 1015) for Apex Argos BGC floats (coriolis versions 082807 &amp; 020110): 4 and 2 floats
- - RAW_DOWNWELLING_* parameter data stored in FLOAT type (instead of DOUBLE)
- - FillValue of MTIME parameter set to double(999999)
- - miscellaneous corrections on Ice float decoders</t>
-  </si>
-  <si>
-    <t>016h</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 get_netcdf_param_attributes_3_1.m</t>
   </si>
   <si>
-    <t>RAW_DOWNWELLING_* parameters stored in FLOAT instead of DOUBLE</t>
-  </si>
-  <si>
-    <t>017b</t>
-  </si>
-  <si>
-    <t>FillValue of MTIME (temporarily) set to 99999 (instead of 999999)</t>
-  </si>
-  <si>
-    <t>017c</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 decode_provor_iridium_sbd_delayed.m                 
 process_profiles_201_203_215.m         
 process_profiles_202.m                 
@@ -1654,146 +2046,58 @@
 store_tech2_data_for_nc_216.m</t>
   </si>
   <si>
-    <t xml:space="preserve"> - cope with erroneous transmission of float 3902136 during cycle #2
- - similar to '014g' patch for floats which transmit PSAL with an offset of 10</t>
-  </si>
-  <si>
-    <t>017d</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 sensor_2_value_for_pressure_ir_rudics_sbd2.m
 print_sensor_tech_data_in_csv_file_ir_rudics_sbd2_CTD.m</t>
   </si>
   <si>
-    <t>Update of INCOIS FLBB floats decoder (decId 301)</t>
-  </si>
-  <si>
-    <t>018a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20180220_018a</t>
-  </si>
-  <si>
-    <t>Based on '017d' version:
- - 1 new decoder (decId 217) for Arvor-Ir-DO floats (coriolis version 5.46): 1 float
- - 1 new decoder (decId 2003) for NOVA floats (coriolis version 0.9): 2 floats
- - improvment of existing NOVA/DOVA decoders to process EOL data
- - improvment of Deep-DO-Ice (5.65) float decoder to manage second Iridium session
- - add a 'slope' coefficient to RT adjustments provided from the Coriolis data base</t>
-  </si>
-  <si>
-    <t>018b</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 is_buffer_completed_ir_sbd_delayed.m</t>
   </si>
   <si>
-    <t>Bug in PT33 configuration value retrieval for decId 216 (5.65)</t>
-  </si>
-  <si>
-    <t>018c</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 init_float_config_apx_argos.m
 init_float_config_apx_ir.m</t>
   </si>
   <si>
-    <t>Incorrect name for JSON meta-data storage structure (used to retrieve RT adjustment information).</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 parse_input_param_iridium_rudics_rt.m</t>
   </si>
   <si>
-    <t>DecId 123 was ignored from the rsync log file parsing procedure.</t>
-  </si>
-  <si>
-    <t>018d</t>
-  </si>
-  <si>
-    <t>018e</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 read_argos_file_fmt1.m</t>
   </si>
   <si>
-    <t>Error in read_argos_file_fmt1 =&gt; no output data ! (error since '018a' version)</t>
-  </si>
-  <si>
-    <t>018f</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 duplicate_files_ir_cts5.m</t>
   </si>
   <si>
-    <t>Correction of CTS5 float duplication file when the file already exists</t>
-  </si>
-  <si>
-    <t>018g</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - bug in PROF_AUX creation for Apex Argos BGC float (in RT with fla = 2)
- - bug in NOVA #6903278 float processing (code more robust when erroneous data is transmitted by the float)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_default_values.m
+    <t xml:space="preserve">P
+init_default_values.m
 create_nc_mono_prof_aux_files.m                               
 store_gps_data_ir_sbd_nva_2001_2002.m  
 store_gps_data_ir_sbd_nva_2003.m       
 </t>
   </si>
   <si>
-    <t>019a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20180326_019a</t>
-  </si>
-  <si>
-    <t>Based on '018g' version:
- - 1 new decoder (decId 111) for Provor CTS4 V3.xx floats (coriolis version 6.11): 6 floats for Coriolis, 8 floats for INCOIS
- - update of existing CTS4 decoders (erroneous decoding of STDEV+Median data for ECO3, CROVER and SUNA sensors)
- - update of Argo parameter list (for 'nc_create_synthetic_profile' tool)
- - when the bad decoder is used (RT vs DM) a DECODING_ERROR is raised + the nc file generation is skipped
- - the DM CTS4 decoder is now able to shift decoded cycle numbers</t>
-  </si>
-  <si>
-    <t>019b</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 decode_provor_iridium_rudics_cts4.m</t>
   </si>
   <si>
-    <t>Bug in CST4 Remocean decoders (decId 105 to 110): the buffer timeout is not raised anymore.</t>
-  </si>
-  <si>
-    <t>019c</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 process_profiles_ir_rudics_cts5_from_payload</t>
   </si>
   <si>
-    <t>For Provor CTS5 decoders: change message level (ERROR to WARNING) when data sampled during the' descent to prof' phase has been received.</t>
-  </si>
-  <si>
-    <t>019d</t>
-  </si>
-  <si>
-    <t>For decId 111 (Provor CTS4 V3.xx floats; coriolis version 6.11):
- - take into account that rsync log files are stored in the "DIR_INPUT_RSYNC_LOG/float_login_name" directory.
- - in "predefined buffer" mode we must check the buffer contents to update the global variable g_decArgo_receivedDataPhase (used in the following decoding steps).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_default_values.m
+    <t xml:space="preserve">P
+init_default_values.m
 decode_provor_iridium_rudics_cts4.m          
 decode_prv_data_ir_rudics_cts4_111.m         
 duplicate_files_ir.m                         
@@ -1804,33 +2108,8 @@
 parse_rsync_log_ir_rudics_cts4_111.m         </t>
   </si>
   <si>
-    <t>020a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20180427_020a</t>
-  </si>
-  <si>
-    <t>Based on '019d' version:
- - 1 new decoder (decId 1021) for Apex APF11 Argos (2.8.0 version): 6 floats</t>
-  </si>
-  <si>
-    <t>021a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20180516_021a</t>
-  </si>
-  <si>
-    <t>Based on '020a' version:
- - 1 new decoder (decId 1022) for Apex APF11 Argos (2.10.4 version): 5 floats.
- - all 'copyfile' or 'movefile' functions used in the decoder now report an ERROR message in the log file when the wanted action failed.</t>
-  </si>
-  <si>
-    <t>021b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_default_values.m
+    <t xml:space="preserve">P
+init_default_values.m
 create_output_float_config_argos.m     
 read_nova_iridium_sbd.m                
 rename_argos_input_file.m              
@@ -1838,36 +2117,14 @@
       </t>
   </si>
   <si>
-    <t>For decId 1021 and 1022 (Apex APF11 Argos):
- - in RT mode: don't apply ghost detection algorithm
-For decId 2001 and 2002 (NOVA/DOVA):
- - manage erroneous data received from float #6903178 during the EOL mode
- - correct erroneous storage of GPS latitudes and longitudes</t>
-  </si>
-  <si>
-    <t>021c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_default_values.m
+    <t xml:space="preserve">P
+init_default_values.m
 create_vertical_sampling_scheme_description_apx_argos.m
       </t>
   </si>
   <si>
-    <t>For decId 1021 and 1022 (Apex APF11 Argos):
- - bug: a typo in configuration labels prevents to set the detailed description of the VSS</t>
-  </si>
-  <si>
-    <t>022a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20180606_022a</t>
-  </si>
-  <si>
-    <t>022b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARGO_simplify_getpressureaxis_v6.m  
+    <t xml:space="preserve">P
+ARGO_simplify_getpressureaxis_v6.m  
 get_m_prof_file_size.m              
 lov_netcdf_pickprod.m               
 nc_compare_m_prof_file_size.m       
@@ -1882,62 +2139,26 @@
       </t>
   </si>
   <si>
-    <t>First version of merged profile (version 2) (M-PROF) generating tool.
-First version of synthetic profile (S-PROF) generating tool.</t>
-  </si>
-  <si>
-    <t>022c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARGO_simplify_getpressureaxis_v6.m   
+    <t xml:space="preserve">P
+ARGO_simplify_getpressureaxis_v6.m   
 nc_create_merged_profile_rt.m       
 nc_create_synthetic_profile_rt.m    
       </t>
   </si>
   <si>
-    <t>Updated version of M&amp;S-PROF generating tools (same version number because no files have been generated yet).
-New version of ARGO_simplify_getpressureaxis_v6.m file (provided by bittig@obs-vlfr.fr on 19/06/2018 16:58).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nc_create_merged_profile_rt.m       
+    <t xml:space="preserve">P
+nc_create_merged_profile_rt.m       
 nc_create_synthetic_profile_rt.m    
       </t>
   </si>
   <si>
-    <t>Updated version of M&amp;S-PROF generating tools (same version number because no files have been generated yet): the name of the XML report file can be set through an input parameter.</t>
-  </si>
-  <si>
-    <t>022d</t>
-  </si>
-  <si>
-    <t>022e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nc_create_synthetic_profile_.m    
+    <t xml:space="preserve">P
+nc_create_synthetic_profile_.m    
       </t>
   </si>
   <si>
-    <t>Print Matlab error in log file when ARGO_simplify_getpressureaxis_v6 function crashes.</t>
-  </si>
-  <si>
-    <t>022f</t>
-  </si>
-  <si>
-    <t>For PROVOR CTS4 with Iridium transmission (decId 105 to 111) consider input files uploaded by the float (.bin or .b64 depending on transmission configuration).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nc_create_synthetic_profile.m
-nc_create_merged_profile.m
-      </t>
-  </si>
-  <si>
-    <t>Input argument of tools 'nc_create_synthetic_profile' and 'nc_create_merged_profile' could be a unique WMO number provided as a string (Ex: nc_create_merged_profile('6901580')).</t>
-  </si>
-  <si>
-    <t>022g</t>
-  </si>
-  <si>
-    <t>init_default_values.m                        
+    <t>P
+init_default_values.m                        
 add_to_list.m                                
 base64decode.m                               
 decode_provor_iridium_rudics_cts4.m          
@@ -1953,61 +2174,38 @@
 correct_remocean_sbd_file_name.m</t>
   </si>
   <si>
-    <t>Update for nc_create_synthetic_profile tool.</t>
-  </si>
-  <si>
-    <t>022h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nc_create_synthetic_profile_.m
+    <t xml:space="preserve">P
+nc_create_synthetic_profile.m
+nc_create_merged_profile.m
       </t>
   </si>
   <si>
-    <t>022i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nc_create_synthetic_profile_.m
+    <t xml:space="preserve">P
+nc_create_synthetic_profile_.m
+      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+nc_create_synthetic_profile_.m
 nc_create_merged_profile_.m
       </t>
   </si>
   <si>
-    <t>Update for nc_create_synthetic_profile and nc_create_merged_profile tools.</t>
-  </si>
-  <si>
-    <t>022j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nc_create_synthetic_profile_.m
+    <t xml:space="preserve">P
+nc_create_synthetic_profile_.m
 nc_create_merged_profile_.m
 ARGO_simplify_getpressureaxis_v6.m
       </t>
   </si>
   <si>
-    <t>Update for nc_create_synthetic_profile and nc_create_merged_profile tools.
-New version of ARGO_simplify_getpressureaxis_v6 (dated 27/06/2018 22:01).</t>
-  </si>
-  <si>
-    <t>022k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nc_create_synthetic_profile.m
+    <t xml:space="preserve">P
+nc_create_synthetic_profile.m
 nc_create_merged_profile_rt.m
       </t>
   </si>
   <si>
-    <t>022l</t>
-  </si>
-  <si>
-    <t>Updates for BGC data reprocessing:
- - no more comment when 'specific calibration' coefficients '_O' are missing (for BBP, CHLA and CDOM)
- - CHLA: QC = 5 instead of 8 in the quenching zone
- - first version of CHLA RT adjustment (CHLA_ADJUSTED = CHLA/2)
- - NITRATE: 0.026 instead of 0.02 in NITRATE processing (pressure correction effect)
- - first version of NITRATE RT adjustment
- - BBP: PREDEPLOYMENT_CALIB_COMMENT modified to cope with new factory slope coefficients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_default_values.m
+    <t xml:space="preserve">P
+init_default_values.m
 add_chla_rtqc_to_profile_file.m                                 
 add_rtqc_to_profile_file.m                                      
 compute_drift_NITRATE_BISULFIDE_from_spectrum_110.m             
@@ -2028,34 +2226,19 @@
 woa13_all_n00_01.nc    </t>
   </si>
   <si>
-    <t>022m</t>
-  </si>
-  <si>
-    <t>Update of "add_rtqc_to_profile_file" (=&gt; version 3.4): for each profile, update PROFILE_&lt;PARAM&gt;_QC with &lt;PARAM&gt;_QC or &lt;PARAM&gt;_ADJUSTED_QC depending on each profile DATA_MODE</t>
-  </si>
-  <si>
-    <t>init_default_values.m
+    <t>P
+init_default_values.m
 add_rtqc_to_profile_file.m</t>
   </si>
   <si>
-    <t>022n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_default_values.m
+    <t xml:space="preserve">P
+init_default_values.m
 create_nc_mono_prof_b_files_3_1.m  
 create_nc_multi_prof_b_file_3_1.m  </t>
   </si>
   <si>
-    <t>In the '022l' update, the PARAMETER_DATA_MODE was not correctly set in all circumstances in case of RT adjustment (some PARAMETER_DATA_MODE='A' can be missed and set to 'R').</t>
-  </si>
-  <si>
-    <t>022o</t>
-  </si>
-  <si>
-    <t>Anomaly introduced by version '022l' which concerns management of virtual lists for Iridium SBD decoders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_default_values.m
+    <t xml:space="preserve">P
+init_default_values.m
 add_to_list_ir_rudics.m              
 add_to_list_ir_sbd.m                 
 compute_min_delta_trans.m            
@@ -2068,10 +2251,8 @@
 </t>
   </si>
   <si>
-    <t>022p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nc_create_merged_profile.m          
+    <t xml:space="preserve">P
+nc_create_merged_profile.m          
 nc_create_merged_profile_.m         
 nc_create_merged_profile_rt.m       
 nc_create_synthetic_profile.m       
@@ -2079,85 +2260,29 @@
 nc_create_synthetic_profile_rt.m    </t>
   </si>
   <si>
-    <t>New version (1.1) of the nc_create_merged_profile and nc_create_synthetic_profile tools: the temporary directory could be set through an input parameter.</t>
-  </si>
-  <si>
-    <t>022q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_default_values.m
+    <t xml:space="preserve">P
+init_default_values.m
 get_netcdf_param_attributes_3_1.m  
 </t>
   </si>
   <si>
-    <t>Set FillValue of MTIME parameter to 999999 instead of 99999.</t>
-  </si>
-  <si>
-    <t>023a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20180719_023a</t>
-  </si>
-  <si>
-    <t>Based on '021c' version:
- - 1 new decoder (decId 1321) for Apex APF11 Iridium (2.10.1 version): 1 float
- - correction of Apex APF11 Argos decoders: crashed when PnPCycleLen &gt; 1
- - for all Apex Argos decoders: STARTUP_DATE can be stored in the data base with the format 'dd/mm/yyyy HH:MM:SS' or 'YYYYMMDDHHMMSS'</t>
-  </si>
-  <si>
-    <t>Based on '022q' version:
- - 1 new decoder (decId 1322) for Apex APF11 Iridium (2.11.1 version) with CTD + DO + PH: 3 floats
- - update of Apex APF11 Argos decoders: to use mean of surface pressures as Poffset and to store all these sampled values in TECH_AUX file
- - update of Provor CTS4 AltanOS decoder (decId 111): TECH parameters are now in the checker (moved from TECH_AUX file to TECH file) + new algorithm to set time of measurements sampled during the drift phase
- - 1 new decoder (decId 112) for Provor CTS4 Remocean: for float 6902737 only (because of DO processing with case 202_205_303)</t>
-  </si>
-  <si>
-    <t>023b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_default_values.m                            
+    <t xml:space="preserve">P
+init_default_values.m                            
 parse_rsync_log_ir_rudics_cts4_105_to_110_112.m  
 parse_rsync_log_ir_rudics_cts4_111.m             
 parse_rsync_log_ir_rudics_cts5.m 
 </t>
   </si>
   <si>
-    <t>Update parser of rsync log files for CTS4 and CTS5 floats.</t>
-  </si>
-  <si>
-    <t>024a</t>
-  </si>
-  <si>
-    <t>C
-decArgo_20180827_024a</t>
-  </si>
-  <si>
-    <t>Based on '023b' version:
- - for decoder Provor CTS4 6.11 (decId 111) and Apex APF11 Iridium SBD (decId 1321 and 1322): new configuration parameters are now accepted by the checker (version"file_checker_2018-07-16_v2.5.4_spec_2018-08-06") they have been moved from META_AUX to META files.
- - variable MTIME is added by the decoder in the list of float parameters (concerned floats: NAVIS (1201), PROVOR CTS5 (121, 122, 123) and Apex APF11 Ir (1321, 1322)).
- - consistency between DATA_MODE and PARAMETER_DATA_MODE has been corrected for 'fake' primary profiles.
- - NOVA/DOVA decoders: cycle number management updated to cope with float  6901885 behavior.
- - derived parameter adjustments: they have been updated to be compliant with the decision of workshop BGC of ADMT18 (“For a parameter to pass to mode 'A' (i.e., adjusted in real-time), the calculation for the adjustment must involve the parameter itself (e.g., with an offset or slope). If a different parameter used for the calculations is in mode 'A' (e.g., PSAL_ADJUSTED), this does not transitions onto the parameter itself and does not put it into mode 'A'. The field is always calculated with other parameters in 'R' mode (e.g., PSAL). _ADJUSTED is only populated with a "real" parameter adjustment as defined above. A calculation without a "real" parameter adjustment but involving other adjusted parameters (e.g., PSAL_ADJUSTED) is not performed/not recorded in the BGC-Argofiles.").
- - M-PROF and S-PROF generating tools: updated to process B-PROF files where PARAMETER_DATA_MODE variable is missing.</t>
-  </si>
-  <si>
-    <t>024b</t>
-  </si>
-  <si>
-    <t>Update parser of rsync log files for CTS4 floats processed in DM with the decode_provor_2_nc_dm decoder.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_default_values.m                            
+    <t xml:space="preserve">P
+init_default_values.m                            
 decode_provor_iridium_rudics_cts4.m
 parse_input_param_iridium_rudics_dm.m
 </t>
   </si>
   <si>
-    <t>024c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">init_default_values.m                            
+    <t xml:space="preserve">P
+init_default_values.m                            
 compute_derived_parameters_apx_apf11_ir.m   
 convert_sbd_files_apex_apf11_iridium_sbd.m  
 decode_science_log_apx_apf11_ir_1321.m      
@@ -2170,28 +2295,63 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Apex APF11 Ir decoders (decId 1321 &amp; 1322): manage FillValue=-999 reported by the CTD sensor through CTD_P measurements in case of sensor failure
- - Provor CTS5 decoders: correction in the rsync log parser (to not consider files stored in sub-directories)
- - 'software_version' global attribute added in M-PROF and S-PROF files</t>
-  </si>
-  <si>
-    <t>025a</t>
-  </si>
-  <si>
-    <t>26/092018</t>
+    <t xml:space="preserve">P
+compute_prv_dates_212_214_217.m    
+compute_prv_dates_216.m            
+finalize_trajectory_data_ir_sbd.m  
+init_default_values.m              
+process_apx_apf11_ir_gps_evts.m    
+sort_trajectory_data.m </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Apex APF11 Ir: bug in GPS date decoding for month on 2 digits (i.e. october-december)
+ - Arvor Ice (decId 212): bug when the ice flag is not set because of the missing configuration (due to no subsurface measurements, see 6902910 #12).</t>
+  </si>
+  <si>
+    <t>025c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m    
+process_apx_ir_profile.m            
+copy_iridium_mail_files_float_to_recover.m  
+nc_copy_mono_profile_dm_and_qc.m              
+nc_create_merged_profile_rt.m    
+nc_check_dm_consistency.m
+nc_get_scientific_calib_information.m </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - NAVIS decoders: set "Near-surface sampling: discrete, unpumped []" instead of "Near-surface sampling: []'
+ - Tool "nc_create_merged_profile_rt": the B-TRAJ file is not mandatory anymore
+ - Tool "copy_iridium_mail_files_float_to_recover": consider only files with a maximum age (provided in MAX_FILE_AGE_IN_HOUR)
+ - New tool "nc_copy_mono_profile_dm_and_qc": to report DM data and Scoop QCs in newly decoded NetCDF files
+ - New tools "nc_check_dm_consistency" and "nc_get_scientific_calib_information" to control DM information consistency in PROF files.</t>
+  </si>
+  <si>
+    <t>025d</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m    
+update_meta_data.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Floats of decId 111 are not supposed to have the PPOX_DOXY parameter.</t>
+  </si>
+  <si>
+    <t>026a</t>
   </si>
   <si>
     <t>C
-decArgo_20180926_025a</t>
-  </si>
-  <si>
-    <t>Based on '024c' version:
- - update of all DO float decoders to be compliant with file "near_surface_&amp;_in_air_data_processing_at_coriolis_V2.0_20180920.docx" specifications
- - 'decoder_version' global attribute added to all Argo NetCDF files
- - 'PPOX_DOXY' can now be adjusted ('PPOX_DOXY_ADJUSTED*' parameters added in the NetCDF files)
- - update of negative temperature decoding for Apex APF11 Argos floats (decId 1021 et 1022)
- - RTQC of CHLA parameter updated so that grey list test output is considered in the final QC and ADJUSTED_QC
- - M&amp;S-PROF generators: specific input parameters added in RT and PI versions of the tools</t>
+decArgo_20181109_026a</t>
+  </si>
+  <si>
+    <t>Based on '025d' version:
+ - 1 new decoder (decId 124) for Provor CTS5 with APMT firmware 1.06.012 (Coriolis version 7.04): 3 floats
+ - 1 new decoder (decId 1121) for Aper APF11 Ir-RUDICS with firmaware 2.10.4 (Coriolis version 2.10.4): 1 float
+ - few improvements and corrections in Provor CTS5 decoders: managment of a reset of the float, bug in float configuration update
+ - bug in MTIME processing for 'merged' profiles
+ - RTQC "global range" and "spike" tests added for pH parameter</t>
   </si>
 </sst>
 </file>
@@ -2610,13 +2770,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E140" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E145" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E148" sqref="E148"/>
+      <selection pane="bottomRight" activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2793,7 +2953,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>37</v>
@@ -2810,7 +2970,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2827,7 +2987,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>43</v>
@@ -2844,7 +3004,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>46</v>
@@ -2861,7 +3021,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>49</v>
@@ -2884,7 +3044,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -2892,2155 +3052,2223 @@
         <v>42383</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>55</v>
+        <v>388</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="5">
         <v>42387</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="B18" s="5">
         <v>42388</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="B19" s="5">
         <v>42395</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>72</v>
+        <v>391</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="139.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5">
         <v>42397</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>74</v>
+        <v>392</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B21" s="5">
         <v>42404</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B22" s="5">
         <v>42405</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B23" s="5">
         <v>42417</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>87</v>
+        <v>395</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B24" s="5">
         <v>42422</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>91</v>
+        <v>396</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B25" s="5">
         <v>42425</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B26" s="11">
         <v>42429</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>102</v>
+        <v>398</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="171.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B28" s="5">
         <v>42444</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>107</v>
+        <v>399</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B29" s="5">
         <v>42447</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>111</v>
+        <v>400</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B30" s="5">
         <v>42451</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>115</v>
+        <v>401</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B31" s="5">
         <v>42461</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>119</v>
+        <v>402</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B32" s="5">
         <v>42461</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>123</v>
+        <v>403</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B33" s="5">
         <v>42465</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>127</v>
+        <v>404</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B34" s="5">
         <v>42475</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>131</v>
+        <v>405</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B35" s="5">
         <v>42485</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>135</v>
+        <v>406</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B36" s="5">
         <v>42486</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>140</v>
+        <v>407</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B37" s="5">
         <v>42500</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>145</v>
+        <v>408</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="142.65" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B38" s="5">
         <v>42503</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>146</v>
+        <v>409</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B39" s="5">
         <v>42509</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>151</v>
+        <v>410</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B40" s="5">
         <v>42552</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>158</v>
+        <v>411</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="9" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B41" s="11">
         <v>42549</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B42" s="5">
         <v>42552</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>158</v>
+        <v>411</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="B43" s="5">
         <v>42558</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>163</v>
+        <v>412</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B44" s="5">
         <v>42559</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>167</v>
+        <v>413</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="9" customFormat="1" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B45" s="11">
         <v>42559</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="B46" s="5">
         <v>42563</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>174</v>
+        <v>414</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B47" s="11">
         <v>42629</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="B48" s="5">
         <v>42632</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>181</v>
+        <v>415</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="B49" s="5">
         <v>42633</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>185</v>
+        <v>416</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="B50" s="5">
         <v>42634</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>189</v>
+        <v>417</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="B51" s="5">
         <v>42635</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>189</v>
+        <v>417</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B52" s="11">
         <v>42664</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="256.75" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="271.05" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="B53" s="5">
         <v>42683</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>200</v>
+        <v>418</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="B54" s="5">
         <v>42718</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>203</v>
+        <v>419</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B55" s="5">
         <v>42724</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>207</v>
+        <v>420</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B56" s="5">
         <v>42724</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>213</v>
+        <v>421</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="B57" s="5">
         <v>42725</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>215</v>
+        <v>422</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="185.45" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="199.7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="B58" s="5">
         <v>42752</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>220</v>
+        <v>423</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="B59" s="5">
         <v>42774</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>223</v>
+        <v>424</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="9" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="B60" s="11">
         <v>42787</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="142.65" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="B61" s="5">
         <v>42790</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>229</v>
+        <v>425</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="B62" s="5">
         <v>42793</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="B63" s="5">
         <v>42793</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>237</v>
+        <v>427</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="114.15" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="B64" s="5">
         <v>42796</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>243</v>
+        <v>428</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="186.15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="200.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="B65" s="5">
         <v>42797</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>246</v>
+        <v>429</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="9" customFormat="1" ht="114.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="B66" s="11">
         <v>42822</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="B67" s="11">
         <v>42849</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="199.7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="214" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="B68" s="5">
         <v>42850</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>256</v>
+        <v>430</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="142.65" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="B69" s="5">
         <v>42856</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>259</v>
+        <v>431</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="B70" s="5">
         <v>42864</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>261</v>
+        <v>432</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="B71" s="5">
         <v>42867</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>265</v>
+        <v>433</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="B72" s="5">
         <v>42870</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>268</v>
+        <v>434</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="B73" s="5">
         <v>42870</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>272</v>
+        <v>435</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="286" thickBot="1" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="300.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="B74" s="5">
         <v>42873</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>274</v>
+        <v>436</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="B75" s="11">
         <v>42885</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="B76" s="5">
         <v>42894</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>287</v>
+        <v>437</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="B77" s="5">
         <v>42898</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>292</v>
+        <v>438</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>295</v>
+        <v>244</v>
       </c>
       <c r="B78" s="5">
         <v>42909</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>296</v>
+        <v>439</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="9" customFormat="1" ht="129.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="B79" s="11">
         <v>42983</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="214" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="228.25" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="B80" s="5">
         <v>42989</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>304</v>
+        <v>440</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="242.5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="256.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="B81" s="5">
         <v>42989</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>306</v>
+        <v>441</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="B82" s="5">
         <v>42989</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>309</v>
+        <v>442</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="B83" s="5">
         <v>42991</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>312</v>
+        <v>443</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="129.1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="143.35" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="B84" s="5">
         <v>42997</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>315</v>
+        <v>444</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="B85" s="11">
         <v>43004</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="B86" s="5">
         <v>43006</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>321</v>
+        <v>445</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="171.2" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="B87" s="5">
         <v>43007</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>324</v>
+        <v>446</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>326</v>
+        <v>267</v>
       </c>
       <c r="B88" s="5">
         <v>43011</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>327</v>
+        <v>447</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>329</v>
+        <v>269</v>
       </c>
       <c r="B89" s="5">
         <v>43011</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>330</v>
+        <v>448</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="171.2" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="185.45" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="B90" s="5">
         <v>43011</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>333</v>
+        <v>449</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="B91" s="5">
         <v>43012</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>336</v>
+        <v>450</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="B92" s="11">
         <v>43024</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>339</v>
+        <v>276</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>340</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="9" customFormat="1" ht="100.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="B93" s="11">
         <v>43048</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="B94" s="5">
         <v>43052</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>345</v>
+        <v>451</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="B95" s="5">
         <v>43054</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>348</v>
+        <v>452</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="B96" s="5">
         <v>43055</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>350</v>
+        <v>453</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="B97" s="5">
         <v>43059</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>354</v>
+        <v>454</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="B98" s="5">
         <v>43062</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>357</v>
+        <v>455</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>359</v>
+        <v>291</v>
       </c>
       <c r="B99" s="5">
         <v>43074</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>354</v>
+        <v>454</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="B100" s="5">
         <v>43137</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>365</v>
+        <v>456</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>366</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="B101" s="11">
         <v>43133</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>367</v>
+        <v>298</v>
       </c>
       <c r="B102" s="5">
         <v>43137</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>365</v>
+        <v>456</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="313.85000000000002" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="328.1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="B103" s="5">
         <v>43137</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>370</v>
+        <v>457</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="B104" s="5">
         <v>43138</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>373</v>
+        <v>458</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>374</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
-        <v>375</v>
+        <v>304</v>
       </c>
       <c r="B105" s="11">
         <v>43151</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>376</v>
+        <v>305</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>378</v>
+        <v>307</v>
       </c>
       <c r="B106" s="5">
         <v>43159</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>379</v>
+        <v>459</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>381</v>
+        <v>309</v>
       </c>
       <c r="B107" s="5">
         <v>43159</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="B108" s="5">
         <v>43161</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>384</v>
+        <v>461</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>387</v>
+        <v>313</v>
       </c>
       <c r="B109" s="5">
         <v>43161</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>388</v>
+        <v>462</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>390</v>
+        <v>315</v>
       </c>
       <c r="B110" s="5">
         <v>43172</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>391</v>
+        <v>463</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>393</v>
+        <v>317</v>
       </c>
       <c r="B111" s="5">
         <v>43173</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>394</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
-        <v>396</v>
+        <v>319</v>
       </c>
       <c r="B112" s="11">
         <v>43185</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>399</v>
+        <v>322</v>
       </c>
       <c r="B113" s="5">
         <v>43186</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>400</v>
+        <v>465</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>402</v>
+        <v>324</v>
       </c>
       <c r="B114" s="5">
         <v>43189</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="129.1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="143.35" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>405</v>
+        <v>326</v>
       </c>
       <c r="B115" s="5">
         <v>43206</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>406</v>
+        <v>327</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="9" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
-        <v>408</v>
+        <v>328</v>
       </c>
       <c r="B116" s="11">
         <v>43217</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>409</v>
+        <v>329</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>410</v>
+        <v>330</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
-        <v>411</v>
+        <v>331</v>
       </c>
       <c r="B117" s="11">
         <v>43236</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>412</v>
+        <v>332</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>414</v>
+        <v>334</v>
       </c>
       <c r="B118" s="5">
         <v>43237</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>417</v>
+        <v>336</v>
       </c>
       <c r="B119" s="5">
         <v>43238</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>419</v>
+        <v>337</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="9" customFormat="1" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="B120" s="11">
         <v>43258</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>421</v>
+        <v>339</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="185.45" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="199.7" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="B121" s="5">
         <v>43269</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="B122" s="5">
         <v>43271</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>430</v>
+        <v>345</v>
       </c>
       <c r="B123" s="5">
         <v>43272</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>431</v>
+        <v>346</v>
       </c>
       <c r="B124" s="5">
         <v>43276</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="199.7" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="214" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>434</v>
+        <v>348</v>
       </c>
       <c r="B125" s="5">
         <v>43277</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>438</v>
+        <v>351</v>
       </c>
       <c r="B126" s="5">
         <v>43277</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>441</v>
+        <v>353</v>
       </c>
       <c r="B127" s="5">
         <v>43277</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>443</v>
+        <v>354</v>
       </c>
       <c r="B128" s="5">
         <v>43278</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>446</v>
+        <v>356</v>
       </c>
       <c r="B129" s="5">
         <v>43279</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>449</v>
+        <v>358</v>
       </c>
       <c r="B130" s="5">
         <v>43280</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="299.55" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="313.85000000000002" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>451</v>
+        <v>359</v>
       </c>
       <c r="B131" s="5">
         <v>43280</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>454</v>
+        <v>361</v>
       </c>
       <c r="B132" s="5">
         <v>43287</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>457</v>
+        <v>363</v>
       </c>
       <c r="B133" s="5">
         <v>43293</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="171.2" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
       <c r="B134" s="5">
         <v>43293</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>463</v>
+        <v>367</v>
       </c>
       <c r="B135" s="5">
         <v>43294</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>466</v>
+        <v>369</v>
       </c>
       <c r="B136" s="5">
         <v>43294</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>468</v>
+        <v>370</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="9" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
-        <v>469</v>
+        <v>371</v>
       </c>
       <c r="B137" s="11">
         <v>43300</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>470</v>
+        <v>372</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>473</v>
+        <v>375</v>
       </c>
       <c r="B138" s="5">
         <v>43301</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>475</v>
+        <v>376</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="9" customFormat="1" ht="157.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
-        <v>476</v>
+        <v>377</v>
       </c>
       <c r="B139" s="11">
         <v>43339</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>477</v>
+        <v>378</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>479</v>
+        <v>380</v>
       </c>
       <c r="B140" s="5">
         <v>43354</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="157.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="171.85" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>482</v>
+        <v>382</v>
       </c>
       <c r="B141" s="5">
         <v>43355</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>484</v>
+        <v>383</v>
       </c>
     </row>
     <row r="142" spans="1:5" s="9" customFormat="1" ht="100.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>486</v>
+        <v>384</v>
+      </c>
+      <c r="B142" s="11">
+        <v>43369</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>487</v>
+        <v>385</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>488</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B143" s="5">
+        <v>43376</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B144" s="5">
+        <v>43383</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B145" s="5">
+        <v>43388</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B146" s="11">
+        <v>43413</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="515">
   <si>
     <t>Version name</t>
   </si>
@@ -2342,16 +2342,85 @@
     <t>026a</t>
   </si>
   <si>
-    <t>C
-decArgo_20181109_026a</t>
-  </si>
-  <si>
     <t>Based on '025d' version:
  - 1 new decoder (decId 124) for Provor CTS5 with APMT firmware 1.06.012 (Coriolis version 7.04): 3 floats
  - 1 new decoder (decId 1121) for Aper APF11 Ir-RUDICS with firmaware 2.10.4 (Coriolis version 2.10.4): 1 float
  - few improvements and corrections in Provor CTS5 decoders: managment of a reset of the float, bug in float configuration update
  - bug in MTIME processing for 'merged' profiles
  - RTQC "global range" and "spike" tests added for pH parameter</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20181112_026a</t>
+  </si>
+  <si>
+    <t>026b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m 
+compute_prv_dates_212_214_217.m  
+compute_prv_dates_216.m          
+</t>
+  </si>
+  <si>
+    <t>Corrected typo in ERROR message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m 
+store_tech1_data_for_nc_201_to_203_215_216.m  
+store_tech2_data_for_nc_216.m          
+</t>
+  </si>
+  <si>
+    <t>Manage uncompleted data of float #3902129 (Arvor-Deep Ice 5.65 decId 216).</t>
+  </si>
+  <si>
+    <t>026c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m    
+create_nc_mono_prof_b_files_3_1.m  
+create_nc_mono_prof_c_files_3_1.m    
+update_meta_data.m   </t>
+  </si>
+  <si>
+    <t>026d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - update meta-data of INCOIS CTS4 v3.xx floats (angle of the measurements)
+ - NOVA/DOVA floats: update B-PROF clock offset of cycle N-1 when N is the last processed cycle</t>
+  </si>
+  <si>
+    <t>026e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+compute_BBP532_108_109.m                 
+compute_BBP700_105_to_112_121_122_124.m      
+update_meta_data.m </t>
+  </si>
+  <si>
+    <t>Set angle to 142° for ECO2 sensor while processing BBP700 for decId 111 (6.11).</t>
+  </si>
+  <si>
+    <t>027a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20181219_027a</t>
+  </si>
+  <si>
+    <t>Based on '026e' version:
+ - optimization of Provor CTS3 and Arvor Ice decoders (decId 212, 214, 216 and 217) to manage a possible overflow of the memory card
+ - Ice configuration parameter IC0 (or PG0) should be set
+ - generate META.nc and TRAJ.nc files for Argos floats that never transmits any data
+ - specific offset in cycle numbering for float 3901663 (Apex APF11 Argos) that reset after cycle #22
+ - new version of M-PROF et S-PROF generator tools
+ - update of generate_json_float_meta_* tools for Iridium-SBD floats (to check IMEI vs PTT consistency).</t>
   </si>
 </sst>
 </file>
@@ -2770,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E145" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E147" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E155" sqref="E155"/>
@@ -5259,16 +5328,101 @@
         <v>497</v>
       </c>
       <c r="B146" s="11">
-        <v>43413</v>
+        <v>43416</v>
       </c>
       <c r="C146" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E146" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="D146" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="E146" s="14" t="s">
-        <v>499</v>
+    </row>
+    <row r="147" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B147" s="5">
+        <v>43427</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B148" s="5">
+        <v>43437</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B149" s="5">
+        <v>43444</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B150" s="5">
+        <v>43445</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="9" customFormat="1" ht="100.55" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B151" s="11">
+        <v>43453</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="533">
   <si>
     <t>Version name</t>
   </si>
@@ -2421,6 +2421,94 @@
  - specific offset in cycle numbering for float 3901663 (Apex APF11 Argos) that reset after cycle #22
  - new version of M-PROF et S-PROF generator tools
  - update of generate_json_float_meta_* tools for Iridium-SBD floats (to check IMEI vs PTT consistency).</t>
+  </si>
+  <si>
+    <t>027b</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+add_rtqc_to_profile_file.m</t>
+  </si>
+  <si>
+    <t>The spike test for CHLA disapeared (because of a typo) in version '026a' (profile RTQC version 3.7) =&gt; corrected</t>
+  </si>
+  <si>
+    <t>027c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+create_config_param_names_apx_ir.m                    
+decode_apex_iridium_rudics_data.m                     
+decode_apex_iridium_rudics_data_apf11.m               
+decode_apx_apf11_ir.m                                 
+decode_science_log_apx_apf11_ir_1121_1321.m           
+decode_science_log_apx_apf11_ir_1322.m                
+decode_vitals_log_apx_apf11_ir.m                      
+get_clock_offset_value_apx_apf11_ir.m                 
+get_cycle_float_file_list_iridium_rudics_apx_apf11.m  
+get_float_cycle_list.m                                
+get_float_cycle_list_iridium_rudics_apx_apf11.m                                       
+process_trajectory_data_apx_apf11_ir.m                
+read_apx_apf11_ir_binary_log_file.m                   
+</t>
+  </si>
+  <si>
+    <t>Update decid 1121 to process Apex APF11 Ir-RUDICS with firmware version 2.11.3.</t>
+  </si>
+  <si>
+    <t>027d</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+rename_argos_input_file.m</t>
+  </si>
+  <si>
+    <t>Specific offset in cycle numbering for float 3901663 (Apex APF11 Argos) that reset again after cycle #3</t>
+  </si>
+  <si>
+    <t>027e</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+interpolate_between_2_locations.m</t>
+  </si>
+  <si>
+    <t>Correction of the interpolation between 2 fixes located on each part of the date line (done in '011h' version).</t>
+  </si>
+  <si>
+    <t>027f</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+finalize_trajectory_data_ir_sbd.m</t>
+  </si>
+  <si>
+    <t>Manage Ice cycles without measurements (considered as 'surface' cycles) (initially for 6902910 float).</t>
+  </si>
+  <si>
+    <t>028a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20190217_028a</t>
+  </si>
+  <si>
+    <t>Based on '027f' version:
+ - optimization of Provor CTS4 Ice decoder (decId 111) to manage a possible overflow of the memory card
+ - new decoder (version 6.12 decId 113) for Provor CTS4 with NITRATE&amp;BISULFIDE
+ - CTS5 decoders: correction of profil date which was not correct for 'under Ice profiles'
+ - all Apex APF11 version were renamed (one character added for the tansmission type)
+   2.8.0 =&gt; 2.8.0.A
+   2.10.1 =&gt; 2.10.1.S
+   2.10.4 =&gt; 2.10.4.A for decId 1022
+   2.10.4 =&gt; 2.10.4.R for decId 1121
+   2.11.1 =&gt; 2.11.1.S
+   2.11.3 =&gt; 2.11.3.R</t>
   </si>
 </sst>
 </file>
@@ -2595,7 +2683,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2630,7 +2718,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2839,26 +2927,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E147" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B154" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E155" sqref="E155"/>
+      <selection pane="bottomRight" activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="207" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="3"/>
+    <col min="6" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2892,7 +2980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2909,7 +2997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="85.7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2926,7 +3014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2943,7 +3031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -2960,7 +3048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -3011,7 +3099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -3028,7 +3116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -3045,7 +3133,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="85.7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -3062,7 +3150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -3096,7 +3184,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="9" customFormat="1" ht="129.1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="9" customFormat="1" ht="129.19999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>50</v>
       </c>
@@ -3113,7 +3201,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="114.15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="114.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -3130,7 +3218,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -3147,7 +3235,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>64</v>
       </c>
@@ -3164,7 +3252,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
@@ -3181,7 +3269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="139.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="139.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
@@ -3198,7 +3286,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
@@ -3215,7 +3303,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>76</v>
       </c>
@@ -3232,7 +3320,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
@@ -3249,7 +3337,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>82</v>
       </c>
@@ -3283,7 +3371,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="9" customFormat="1" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>88</v>
       </c>
@@ -3300,7 +3388,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="85.7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>91</v>
       </c>
@@ -3334,7 +3422,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>98</v>
       </c>
@@ -3351,7 +3439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="114.15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="114.2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>101</v>
       </c>
@@ -3368,7 +3456,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>104</v>
       </c>
@@ -3385,7 +3473,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
@@ -3402,7 +3490,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>110</v>
       </c>
@@ -3419,7 +3507,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>113</v>
       </c>
@@ -3436,7 +3524,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>116</v>
       </c>
@@ -3453,7 +3541,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="85.7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>119</v>
       </c>
@@ -3470,7 +3558,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>122</v>
       </c>
@@ -3487,7 +3575,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="156.94999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>125</v>
       </c>
@@ -3504,7 +3592,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>128</v>
       </c>
@@ -3555,7 +3643,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>137</v>
       </c>
@@ -3572,7 +3660,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>138</v>
       </c>
@@ -3657,7 +3745,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>153</v>
       </c>
@@ -3674,7 +3762,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>156</v>
       </c>
@@ -3691,7 +3779,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>159</v>
       </c>
@@ -3742,7 +3830,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="271.05" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="271.14999999999998" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>168</v>
       </c>
@@ -3759,7 +3847,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>171</v>
       </c>
@@ -3776,7 +3864,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>174</v>
       </c>
@@ -3793,7 +3881,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>177</v>
       </c>
@@ -3810,7 +3898,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>180</v>
       </c>
@@ -3878,7 +3966,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="156.94999999999999" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>192</v>
       </c>
@@ -3895,7 +3983,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>195</v>
       </c>
@@ -3912,7 +4000,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>198</v>
       </c>
@@ -3929,7 +4017,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="128.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="128.44999999999999" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>201</v>
       </c>
@@ -3946,7 +4034,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="200.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="200.45" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>204</v>
       </c>
@@ -3963,7 +4051,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="9" customFormat="1" ht="114.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" s="9" customFormat="1" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>207</v>
       </c>
@@ -3997,7 +4085,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="214" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="213.95" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>213</v>
       </c>
@@ -4014,7 +4102,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="156.94999999999999" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>232</v>
       </c>
@@ -4031,7 +4119,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>233</v>
       </c>
@@ -4048,7 +4136,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>234</v>
       </c>
@@ -4065,7 +4153,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>235</v>
       </c>
@@ -4082,7 +4170,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="85.7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>236</v>
       </c>
@@ -4099,7 +4187,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="300.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="300.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>237</v>
       </c>
@@ -4116,7 +4204,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" s="9" customFormat="1" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>228</v>
       </c>
@@ -4133,7 +4221,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>240</v>
       </c>
@@ -4150,7 +4238,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>241</v>
       </c>
@@ -4184,7 +4272,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="9" customFormat="1" ht="129.1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" s="9" customFormat="1" ht="129.19999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>247</v>
       </c>
@@ -4201,7 +4289,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="228.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="228.2" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>250</v>
       </c>
@@ -4218,7 +4306,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="256.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="256.7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>252</v>
       </c>
@@ -4235,7 +4323,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>254</v>
       </c>
@@ -4252,7 +4340,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>256</v>
       </c>
@@ -4269,7 +4357,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="143.35" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="143.44999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>258</v>
       </c>
@@ -4303,7 +4391,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>263</v>
       </c>
@@ -4337,7 +4425,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>267</v>
       </c>
@@ -4354,7 +4442,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="114.15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="114.2" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>269</v>
       </c>
@@ -4422,7 +4510,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="9" customFormat="1" ht="100.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>278</v>
       </c>
@@ -4439,7 +4527,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>281</v>
       </c>
@@ -4456,7 +4544,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>283</v>
       </c>
@@ -4473,7 +4561,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>286</v>
       </c>
@@ -4490,7 +4578,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>287</v>
       </c>
@@ -4507,7 +4595,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>289</v>
       </c>
@@ -4524,7 +4612,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>291</v>
       </c>
@@ -4558,7 +4646,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" s="9" customFormat="1" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>293</v>
       </c>
@@ -4575,7 +4663,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>298</v>
       </c>
@@ -4592,7 +4680,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="328.1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="328.15" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>300</v>
       </c>
@@ -4626,7 +4714,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" s="9" customFormat="1" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>304</v>
       </c>
@@ -4643,7 +4731,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>307</v>
       </c>
@@ -4660,7 +4748,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>309</v>
       </c>
@@ -4677,7 +4765,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>312</v>
       </c>
@@ -4694,7 +4782,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>313</v>
       </c>
@@ -4711,7 +4799,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>315</v>
       </c>
@@ -4728,7 +4816,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>317</v>
       </c>
@@ -4745,7 +4833,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" s="9" customFormat="1" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>319</v>
       </c>
@@ -4762,7 +4850,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>322</v>
       </c>
@@ -4779,7 +4867,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>324</v>
       </c>
@@ -4796,7 +4884,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="143.35" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="143.44999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>326</v>
       </c>
@@ -4847,7 +4935,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>334</v>
       </c>
@@ -4915,7 +5003,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>342</v>
       </c>
@@ -4932,7 +5020,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>345</v>
       </c>
@@ -4949,7 +5037,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>346</v>
       </c>
@@ -4966,7 +5054,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="214" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="213.95" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>348</v>
       </c>
@@ -4983,7 +5071,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>351</v>
       </c>
@@ -5000,7 +5088,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>353</v>
       </c>
@@ -5017,7 +5105,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>354</v>
       </c>
@@ -5034,7 +5122,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>356</v>
       </c>
@@ -5051,7 +5139,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>358</v>
       </c>
@@ -5068,7 +5156,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="313.85000000000002" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="313.89999999999998" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>359</v>
       </c>
@@ -5085,7 +5173,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>361</v>
       </c>
@@ -5102,7 +5190,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>363</v>
       </c>
@@ -5136,7 +5224,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>367</v>
       </c>
@@ -5187,7 +5275,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>375</v>
       </c>
@@ -5204,7 +5292,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="9" customFormat="1" ht="157.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" s="9" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>377</v>
       </c>
@@ -5221,7 +5309,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>380</v>
       </c>
@@ -5238,7 +5326,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="171.85" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="171.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>382</v>
       </c>
@@ -5255,7 +5343,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="9" customFormat="1" ht="100.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" s="9" customFormat="1" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>384</v>
       </c>
@@ -5272,7 +5360,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>387</v>
       </c>
@@ -5289,7 +5377,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="114.15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="114.2" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>491</v>
       </c>
@@ -5323,7 +5411,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" s="9" customFormat="1" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>497</v>
       </c>
@@ -5340,7 +5428,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>500</v>
       </c>
@@ -5357,7 +5445,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>505</v>
       </c>
@@ -5374,7 +5462,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>507</v>
       </c>
@@ -5391,7 +5479,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>509</v>
       </c>
@@ -5408,7 +5496,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="9" customFormat="1" ht="100.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" s="9" customFormat="1" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>512</v>
       </c>
@@ -5423,6 +5511,108 @@
       </c>
       <c r="E151" s="14" t="s">
         <v>514</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B152" s="5">
+        <v>43454</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="228.2" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B153" s="5">
+        <v>43455</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B154" s="5">
+        <v>43469</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B155" s="5">
+        <v>43475</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B156" s="5">
+        <v>43488</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="9" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B157" s="11">
+        <v>43513</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="572">
   <si>
     <t>Version name</t>
   </si>
@@ -2509,6 +2509,157 @@
    2.10.4 =&gt; 2.10.4.R for decId 1121
    2.11.1 =&gt; 2.11.1.S
    2.11.3 =&gt; 2.11.3.R</t>
+  </si>
+  <si>
+    <t>028b</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+decode_provor_iridium_sbd.m</t>
+  </si>
+  <si>
+    <t>Manage specific data received from float 3901598 for cycle #86</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+nc_create_synthetic_profile.m
+nc_create_synthetic_profile_rt.m
+ARGO_simplified_profile.m
+lov_netcdf_pickprod.m</t>
+  </si>
+  <si>
+    <t>028d</t>
+  </si>
+  <si>
+    <t>New version (18.02.2019) of ARGO_simplified_profile for nc_create_synthetic_profile and nc_create_synthetic_profile_rt tools</t>
+  </si>
+  <si>
+    <t>028e</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+add_profile_date_and_location_ir_rudics_cts5.m  
+decode_event_data_cts5.m</t>
+  </si>
+  <si>
+    <t>Provor CTS5: profile JULD was not correctly set when no adjusted times were available.</t>
+  </si>
+  <si>
+    <t>028f</t>
+  </si>
+  <si>
+    <t>Float 6902798 (5.74) cycle #110 close uncompleted buffer to separate it from second Iridium session transmission.</t>
+  </si>
+  <si>
+    <t>028g</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+create_decoding_buffers_cts4.m</t>
+  </si>
+  <si>
+    <t>For CTS4 Ice decoders (decId 11 and 113): check deep flag consistency on completed buffer only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m                                                
+merge_first_last_msg_time_ir_rudics_105_to_110_112_sbd2.m  
+merge_first_last_msg_time_ir_rudics_111_113.m              
+</t>
+  </si>
+  <si>
+    <t>Bug in an optimized loop of CTS4 decoders</t>
+  </si>
+  <si>
+    <t>028i</t>
+  </si>
+  <si>
+    <t>028h</t>
+  </si>
+  <si>
+    <t>For CTS4 Ice decoders (decId 11 and 113): deep flag consistency check generates an INFO message (case of a deep cycle without measurements - Example: 6903250 session #3, grounding at surface)</t>
+  </si>
+  <si>
+    <t>028j</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+read_mail_and_extract_attachment.m</t>
+  </si>
+  <si>
+    <t>Modification of Iridium mail file parser to managed files forwarded from Italy.</t>
+  </si>
+  <si>
+    <t>028k</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+parse_input_param_iridium_rudics_rt.m</t>
+  </si>
+  <si>
+    <t>Missing information to use decId 113 with RT decoder.</t>
+  </si>
+  <si>
+    <t>028l</t>
+  </si>
+  <si>
+    <t>Similar to 028f but for cycle #112 of float 6902799</t>
+  </si>
+  <si>
+    <t>028m</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+nc_create_synthetic_profile.m
+nc_create_synthetic_profile_rt.m
+nc_create_synthetic_profile_.m
+ARGO_simplified_profile.m
+lov_netcdf_pickprod.m</t>
+  </si>
+  <si>
+    <t>Corrected version of '028d' delivery which was not complete (nc_create_synthetic_profile_.m file was missing).</t>
+  </si>
+  <si>
+    <t>028n</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m</t>
+  </si>
+  <si>
+    <t>For DOXY processing correction of B2 factor (-1.0341e-2 instead of -1.0341e-3). Comment from Henry Bittig's email dated 14/06/2018 à 15:05: There was a typo in the O2 solubility’s B2 factor: Its value is -1.0341e-2, not -1.0341e-3. The impact is minor and probably doesn’t merit a full DOXY reprocessing in its own, but should be corrected for new data (all DACs).</t>
+  </si>
+  <si>
+    <t>028o</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers.m</t>
+  </si>
+  <si>
+    <t>Manage buffers of BODC float #3901963 which experienced transmission difficulties.</t>
+  </si>
+  <si>
+    <t>029a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20190522_029a</t>
+  </si>
+  <si>
+    <t>Based on '028o' version:
+ - new decoder (decId 125) for Provor CTS5 with Coriolis version 7.05
+ - additional TECH_AUX parameters for decId 212, 214, 216 and 217
+ - modification of RTQC test #19
+ - first implémentation of RTQC specific and generic tests for NITRATE</t>
   </si>
 </sst>
 </file>
@@ -2683,7 +2834,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2718,7 +2869,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2927,26 +3078,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B154" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E165" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D174" sqref="D174"/>
+      <selection pane="bottomRight" activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="207" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="3"/>
+    <col min="6" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2980,7 +3131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2997,7 +3148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="85.7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="85.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3014,7 +3165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -3031,7 +3182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -3048,7 +3199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -3099,7 +3250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -3116,7 +3267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -3133,7 +3284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="85.7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="85.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -3150,7 +3301,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -3184,7 +3335,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="9" customFormat="1" ht="129.19999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="9" customFormat="1" ht="129.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>50</v>
       </c>
@@ -3201,7 +3352,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="114.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="114.3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -3218,7 +3369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -3235,7 +3386,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>64</v>
       </c>
@@ -3252,7 +3403,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
@@ -3269,7 +3420,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="139.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="139.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
@@ -3286,7 +3437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
@@ -3303,7 +3454,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>76</v>
       </c>
@@ -3320,7 +3471,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
@@ -3337,7 +3488,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>82</v>
       </c>
@@ -3371,7 +3522,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="9" customFormat="1" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>88</v>
       </c>
@@ -3388,7 +3539,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="85.7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="85.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>91</v>
       </c>
@@ -3422,7 +3573,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>98</v>
       </c>
@@ -3439,7 +3590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="114.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="114.3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>101</v>
       </c>
@@ -3456,7 +3607,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>104</v>
       </c>
@@ -3473,7 +3624,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
@@ -3490,7 +3641,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>110</v>
       </c>
@@ -3507,7 +3658,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>113</v>
       </c>
@@ -3524,7 +3675,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>116</v>
       </c>
@@ -3541,7 +3692,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="85.7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="85.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>119</v>
       </c>
@@ -3558,7 +3709,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>122</v>
       </c>
@@ -3575,7 +3726,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="156.94999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>125</v>
       </c>
@@ -3592,7 +3743,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>128</v>
       </c>
@@ -3643,7 +3794,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>137</v>
       </c>
@@ -3660,7 +3811,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>138</v>
       </c>
@@ -3745,7 +3896,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>153</v>
       </c>
@@ -3762,7 +3913,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>156</v>
       </c>
@@ -3779,7 +3930,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>159</v>
       </c>
@@ -3830,7 +3981,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="271.14999999999998" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="271.2" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>168</v>
       </c>
@@ -3847,7 +3998,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>171</v>
       </c>
@@ -3864,7 +4015,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>174</v>
       </c>
@@ -3881,7 +4032,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>177</v>
       </c>
@@ -3898,7 +4049,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>180</v>
       </c>
@@ -3966,7 +4117,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="156.94999999999999" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>192</v>
       </c>
@@ -3983,7 +4134,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>195</v>
       </c>
@@ -4000,7 +4151,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>198</v>
       </c>
@@ -4017,7 +4168,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="128.44999999999999" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>201</v>
       </c>
@@ -4034,7 +4185,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="200.45" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="200.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>204</v>
       </c>
@@ -4051,7 +4202,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="9" customFormat="1" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" s="9" customFormat="1" ht="114.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>207</v>
       </c>
@@ -4085,7 +4236,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="213.95" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="214" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>213</v>
       </c>
@@ -4102,7 +4253,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="156.94999999999999" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>232</v>
       </c>
@@ -4119,7 +4270,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>233</v>
       </c>
@@ -4136,7 +4287,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>234</v>
       </c>
@@ -4153,7 +4304,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>235</v>
       </c>
@@ -4170,7 +4321,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="85.7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="85.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>236</v>
       </c>
@@ -4187,7 +4338,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="300.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="300.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>237</v>
       </c>
@@ -4204,7 +4355,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="9" customFormat="1" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>228</v>
       </c>
@@ -4221,7 +4372,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>240</v>
       </c>
@@ -4238,7 +4389,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>241</v>
       </c>
@@ -4272,7 +4423,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="9" customFormat="1" ht="129.19999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" s="9" customFormat="1" ht="129.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>247</v>
       </c>
@@ -4289,7 +4440,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="228.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="228.25" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>250</v>
       </c>
@@ -4306,7 +4457,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="256.7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="256.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>252</v>
       </c>
@@ -4323,7 +4474,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>254</v>
       </c>
@@ -4340,7 +4491,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>256</v>
       </c>
@@ -4357,7 +4508,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="143.44999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="143.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>258</v>
       </c>
@@ -4391,7 +4542,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>263</v>
       </c>
@@ -4425,7 +4576,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>267</v>
       </c>
@@ -4442,7 +4593,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="114.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="114.3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>269</v>
       </c>
@@ -4510,7 +4661,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" s="9" customFormat="1" ht="100.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>278</v>
       </c>
@@ -4527,7 +4678,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>281</v>
       </c>
@@ -4544,7 +4695,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>283</v>
       </c>
@@ -4561,7 +4712,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>286</v>
       </c>
@@ -4578,7 +4729,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>287</v>
       </c>
@@ -4595,7 +4746,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>289</v>
       </c>
@@ -4612,7 +4763,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>291</v>
       </c>
@@ -4646,7 +4797,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="9" customFormat="1" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>293</v>
       </c>
@@ -4663,7 +4814,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>298</v>
       </c>
@@ -4680,7 +4831,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="328.15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="328.1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>300</v>
       </c>
@@ -4714,7 +4865,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="9" customFormat="1" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>304</v>
       </c>
@@ -4731,7 +4882,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>307</v>
       </c>
@@ -4748,7 +4899,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>309</v>
       </c>
@@ -4765,7 +4916,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>312</v>
       </c>
@@ -4782,7 +4933,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>313</v>
       </c>
@@ -4799,7 +4950,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>315</v>
       </c>
@@ -4816,7 +4967,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>317</v>
       </c>
@@ -4833,7 +4984,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="9" customFormat="1" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>319</v>
       </c>
@@ -4850,7 +5001,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>322</v>
       </c>
@@ -4867,7 +5018,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>324</v>
       </c>
@@ -4884,7 +5035,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="143.44999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="143.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>326</v>
       </c>
@@ -4935,7 +5086,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>334</v>
       </c>
@@ -5003,7 +5154,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>342</v>
       </c>
@@ -5020,7 +5171,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>345</v>
       </c>
@@ -5037,7 +5188,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>346</v>
       </c>
@@ -5054,7 +5205,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="213.95" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="214" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>348</v>
       </c>
@@ -5071,7 +5222,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>351</v>
       </c>
@@ -5088,7 +5239,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>353</v>
       </c>
@@ -5105,7 +5256,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>354</v>
       </c>
@@ -5122,7 +5273,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>356</v>
       </c>
@@ -5139,7 +5290,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>358</v>
       </c>
@@ -5156,7 +5307,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="313.89999999999998" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="314" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>359</v>
       </c>
@@ -5173,7 +5324,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>361</v>
       </c>
@@ -5190,7 +5341,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="57.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>363</v>
       </c>
@@ -5224,7 +5375,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>367</v>
       </c>
@@ -5275,7 +5426,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>375</v>
       </c>
@@ -5292,7 +5443,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="9" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" s="9" customFormat="1" ht="157.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>377</v>
       </c>
@@ -5309,7 +5460,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>380</v>
       </c>
@@ -5326,7 +5477,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="171.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="172.05" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>382</v>
       </c>
@@ -5343,7 +5494,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="9" customFormat="1" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" s="9" customFormat="1" ht="100.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>384</v>
       </c>
@@ -5360,7 +5511,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="99.95" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>387</v>
       </c>
@@ -5377,7 +5528,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="114.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="114.3" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>491</v>
       </c>
@@ -5411,7 +5562,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="9" customFormat="1" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>497</v>
       </c>
@@ -5428,7 +5579,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>500</v>
       </c>
@@ -5445,7 +5596,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>505</v>
       </c>
@@ -5462,7 +5613,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="71.45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>507</v>
       </c>
@@ -5479,7 +5630,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>509</v>
       </c>
@@ -5496,7 +5647,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="9" customFormat="1" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" s="9" customFormat="1" ht="100.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>512</v>
       </c>
@@ -5513,7 +5664,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>515</v>
       </c>
@@ -5530,7 +5681,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="228.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="228.25" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>518</v>
       </c>
@@ -5547,7 +5698,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>521</v>
       </c>
@@ -5564,7 +5715,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>524</v>
       </c>
@@ -5581,7 +5732,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="45.7" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>527</v>
       </c>
@@ -5613,6 +5764,244 @@
       </c>
       <c r="E157" s="14" t="s">
         <v>532</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B158" s="5">
+        <v>43514</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B159" s="5">
+        <v>43524</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="59.95" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B160" s="5">
+        <v>43524</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B161" s="5">
+        <v>43524</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B162" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B163" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B164" s="5">
+        <v>43543</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B165" s="5">
+        <v>43546</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B166" s="5">
+        <v>43550</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B167" s="5">
+        <v>43553</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B168" s="5">
+        <v>43570</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B169" s="5">
+        <v>43580</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B170" s="5">
+        <v>43600</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="9" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="B171" s="11">
+        <v>43607</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="583">
   <si>
     <t>Version name</t>
   </si>
@@ -2660,6 +2660,62 @@
  - additional TECH_AUX parameters for decId 212, 214, 216 and 217
  - modification of RTQC test #19
  - first implémentation of RTQC specific and generic tests for NITRATE</t>
+  </si>
+  <si>
+    <t>029b</t>
+  </si>
+  <si>
+    <t>Version 4.2 of add_rtqc_to_profile_file: bug corrected while linking PROF and TRAJ data to report QC for some MCs: for adjusted values, the QC are reported only if the adjustment is done by the decoder itself (not when it comes from BDD slope+offset information).</t>
+  </si>
+  <si>
+    <t>029c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+adjust_clock_offset_apx_apf11_ir.m                        
+compute_profile_location_from_iridium_locations_ir_sbd.m  
+get_iridium_mail_init_struct.m                                                              
+init_tech_info_struct_124_125.m                           
+process_profiles_ir_rudics_cts5_from_payload.m            
+process_trajectory_data_cts5.m                            
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - decId 213: improve processing of Iridium locations (when location is missing in email file) so that it can be used to locate the profile in case of GPS issue (Ex: co_20190527T062249Z_300234065420780_000939_000000_10565.txt)
+ - decId 124: bug in parsing of technical file + improve cycle number determination (for payload data attribution issue)
+ - decId 1321: bug in clock offset correction when no VITALS information is present</t>
+  </si>
+  <si>
+    <t>029d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - decId 124: bug in Event and Technical data comparison (float 6902896) in case of multiple information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+collect_technical_data_cts5.m                       </t>
+  </si>
+  <si>
+    <t>030a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20190710_030a</t>
+  </si>
+  <si>
+    <t>Based on '029d' version:
+ - update of decoder Apex APF11 (V 2.11.1.s &amp; 2.11.3.S) (decId 1322) to manage ECO3 and OCR sensors
+ - update of decoder Apex APF11 (V 2.10.4.R &amp; 2.11.3.R) (decId 1121) to manage OPTODE sensor
+ - update of decoders Provor CTS4 (V 6.11 &amp; 6.12) (decId 111 and 113) to manage TRANSISTOR_PH sensor
+ - new decoder Arvor Deep (V5.66) (decId 218)
+ - Provor CTS5 decoders: correction of pH processing: use of 7 coefficients (f0 to f6) when available
+ - Provor CTS4 decoders: check of float reference day (detect and consider possible jumps in float reference day such as with float 6901515 #20)
+ - NKE SBD data now padded with 26 (instead of 0 previously)
+ - DOXY RT adjustment can be performed (through a slope and offset to be applied on PPOX_DOXY)
+ - external list which provides sensors mounted on each BGC float
+ - use 'defVarFill' instead of 'putAtt' to set FillValue in NetCDF-4 files (i.e. in M-PROF and S-PROF generators)</t>
   </si>
 </sst>
 </file>
@@ -3078,13 +3134,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E165" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E172" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E173" sqref="E173"/>
+      <selection pane="bottomRight" activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -6004,6 +6060,74 @@
         <v>571</v>
       </c>
     </row>
+    <row r="172" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B172" s="5">
+        <v>43620</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B173" s="5">
+        <v>43622</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B174" s="5">
+        <v>43622</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" s="9" customFormat="1" ht="157.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B175" s="11">
+        <v>43656</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="D175" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="607">
   <si>
     <t>Version name</t>
   </si>
@@ -2716,6 +2716,134 @@
  - DOXY RT adjustment can be performed (through a slope and offset to be applied on PPOX_DOXY)
  - external list which provides sensors mounted on each BGC float
  - use 'defVarFill' instead of 'putAtt' to set FillValue in NetCDF-4 files (i.e. in M-PROF and S-PROF generators)</t>
+  </si>
+  <si>
+    <t>030b</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+process_profiles_ir_rudics_cts5_from_payload.m</t>
+  </si>
+  <si>
+    <t>CTS5 decoders: in '029c' version we improved cycle number determination (for payload data attribution issue) by using AST (to be compared with first (i.e. min) profile measurement timestamp) unfortunately some of these timestamps may be dated before AST (Ex: 6902969 (84, 1) firts meas date: 2019-06-14T05:49:28.593292 whereas AST: 2019/06/14 05:50:02 (adj: 2019/06/14 05:50:02)) we then use max profile measurement timestamp</t>
+  </si>
+  <si>
+    <t>030c</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+add_rtqc_to_profile_file.m
+add_rtqc_to_trajectory_file.m</t>
+  </si>
+  <si>
+    <t>RTQC test #7: min value for TEMP in the Read Sea is 21°C (instead of 21.7°C).</t>
+  </si>
+  <si>
+    <t>030d</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+process_profiles_ir_rudics_cts5_from_payload.m
+_config_param_name_111.json
+_config_param_name_113.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - bug in '030b' concerning cycle number determination in case of Ice detection for CTS5 decoders
+ - new checker (file_checker_2018-07-16_v2.5.4_spec_2019-07-15) now able to check Provor CTS4 (V 6.11 &amp; 6.12) (decId 111 and 113) with TRANSISTOR_PH sensor</t>
+  </si>
+  <si>
+    <t>030e</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+create_float_config_apx_argos.m               
+create_float_config_argos.m                   
+decode_apex_argos_data.m                      
+decode_apex_iridium_rudics_data_apf11.m       
+decode_apex_iridium_rudics_data_apf9_navis.m  
+decode_apex_iridium_sbd_data_1314.m           
+decode_apex_iridium_sbd_data_apf11.m          
+decode_nova_iridium_sbd.m                     
+decode_provor_argos_data.m                    
+decode_provor_iridium_rudics_cts4.m           
+decode_provor_iridium_rudics_cts4_delayed.m   
+decode_provor_iridium_rudics_cts5.m           
+decode_provor_iridium_sbd.m                   
+decode_provor_iridium_sbd2.m                  
+decode_provor_iridium_sbd_delayed.m           
+decode_science_log_apx_apf11_ir_1121_1321.m   
+decode_science_log_apx_apf11_ir_1322.m                           
+init_float_config_apx_apf11_ir.m              
+init_float_config_apx_argos.m                 
+init_float_config_apx_ir.m                    
+rename_argos_input_file.m
+generate_json_float_meta_apx_apf11_iridium_rudics_rt
+move_and_rename_apx_argos_files.m  
+process_argos_data_apx.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - stop the decoder (in all cases) when the meta.json file of the concern float is not present
+ - ignore P_T values when = (0,0) for decId 1121, 1321 and 1322 (to correct issues of float #3901667)
+ - take into account of the automatic resets at sea of Apex float #3901663 (decId 1022)</t>
+  </si>
+  <si>
+    <t>030f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+add_configuration_number_ir_rudics_cts5.m                   
+add_configuration_number_ir_rudics_sbd2.m                   
+add_vertical_sampling_scheme_ir_rudics_cts5_from_payload.m  
+create_decoding_buffers.m                                   
+decode_apex_iridium_rudics_data_apf9_navis.m                
+decode_apex_iridium_sbd_data_1314.m                                                         
+init_float_config_apx_ir.m                                  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - stop the decoder (in all cases) when the meta.json file of the concern float is not present (version '030e' was erroneous for Navis floats)
+ - updates to cope with specific behaviour of floats (6902896, 6901438, 4901806, 6903265)</t>
+  </si>
+  <si>
+    <t>030g</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+update_float_config_ir_rudics_cts5.m</t>
+  </si>
+  <si>
+    <t>Provor CTS5: bug to update the payload card configuration when it has not been initialized.</t>
+  </si>
+  <si>
+    <t>030h</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+create_decoding_buffers.m</t>
+  </si>
+  <si>
+    <t>Arvor 5.45: packet types 0, 4 and 5 are tranmitted twice for cycle #27 of float 7900510.</t>
+  </si>
+  <si>
+    <t>031a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20190920_031a</t>
+  </si>
+  <si>
+    <t>Based on '030h' version:
+ - implementation of 2 decoders for Arvor-C floats (versions 5.3 &amp; 5.301).
+ - update of CTS5 decoder (decId 124) to manage UVP data, stored in AUX files (for float 6902968).
+ - bug in profile location determination when no GPS locations are available.
+ - RTQC global range test for DOWN_IRRADIANCE380, DOWN_IRRADIANCE412, DOWN_IRRADIANCE443, DOWN_IRRADIANCE490 and DOWNWELLING_PAR parameters.</t>
   </si>
 </sst>
 </file>
@@ -3134,13 +3262,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E175"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E172" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E181" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E185" sqref="E185"/>
+      <selection pane="bottomRight" activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -6128,6 +6256,142 @@
         <v>582</v>
       </c>
     </row>
+    <row r="176" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B176" s="5">
+        <v>43658</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B177" s="5">
+        <v>43661</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B178" s="5">
+        <v>43662</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="370.9" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B179" s="5">
+        <v>43697</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B180" s="5">
+        <v>43717</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B181" s="5">
+        <v>43725</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B182" s="5">
+        <v>43728</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" s="9" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="B183" s="11">
+        <v>43728</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="622">
   <si>
     <t>Version name</t>
   </si>
@@ -2844,6 +2844,75 @@
  - update of CTS5 decoder (decId 124) to manage UVP data, stored in AUX files (for float 6902968).
  - bug in profile location determination when no GPS locations are available.
  - RTQC global range test for DOWN_IRRADIANCE380, DOWN_IRRADIANCE412, DOWN_IRRADIANCE443, DOWN_IRRADIANCE490 and DOWNWELLING_PAR parameters.</t>
+  </si>
+  <si>
+    <t>031b</t>
+  </si>
+  <si>
+    <t>SUNA sensor for CTS5 floats: SUNA sensor of float #6902897 is not correctly mounted (pixel begin/end transmitted by the float should be shifted by one pixel to the right; i.e. "pixel begin/end to use" = "pixel begin/end received from the float" + 1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+add_nitrate_rtqc_to_profile_file.m                       
+compute_drift_NITRATE_105_to_109_111_112_121_to_125.m    
+compute_profile_NITRATE_105_to_109_111_112_121_to_125.m  
+</t>
+  </si>
+  <si>
+    <t>031c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+compute_profile_location_from_iridium_locations_ir_sbd.m
+</t>
+  </si>
+  <si>
+    <t>Compute profile location from Iridium fixes: Iridium longitude can be 180 deg (should be set to -180 deg before processing). Ex: cycle #18 of float #6903190</t>
+  </si>
+  <si>
+    <t>031d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - add list of decoded cycle numbers in the RT report structure (for XML report file) for ice float decoders (CTS3: 212, 214, 216, 217,218 and CTS4: 111, 113)
+ - float 6902798 (5.74) cycle #119 and 127 close uncompleted buffer to separate it from second Iridium session transmission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+decode_provor_iridium_sbd.m  
+process_decoded_data.m       
+process_decoded_data_cts4.m  
+</t>
+  </si>
+  <si>
+    <t>031e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+compute_derived_parameters_apx_apf11_ir.m    
+decode_apx_apf11_ir.m                        
+decode_science_log_apx_apf11_ir_1121_1321.m                    
+update_meta_data.m                           
+</t>
+  </si>
+  <si>
+    <t>APF11: integration of ECO_FLBBCD  and SATLANTIC_OCR504_ICSW sensors to APF11 2.11.3.R version (decId 1121).</t>
+  </si>
+  <si>
+    <t>032a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20191210_032a</t>
+  </si>
+  <si>
+    <t>Based on '031e' version:
+ - new decoder for Arvor Deep floats (Coriolis version 5.67).
+ - APF11 Argos (decId 1021 et 1022) no "empty" profile generated when no measurements has been sampled.
+ - specific update of buffer generation for Arvor (5.45) 3901645 #31.</t>
   </si>
 </sst>
 </file>
@@ -3262,10 +3331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E181" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E187" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E193" sqref="E193"/>
@@ -6392,6 +6461,91 @@
         <v>606</v>
       </c>
     </row>
+    <row r="184" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B184" s="5">
+        <v>43739</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B185" s="5">
+        <v>43740</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B186" s="5">
+        <v>43755</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="114.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B187" s="5">
+        <v>43761</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" s="9" customFormat="1" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="B188" s="11">
+        <v>43809</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="D188" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$197</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="650">
   <si>
     <t>Version name</t>
   </si>
@@ -2914,11 +2917,141 @@
  - APF11 Argos (decId 1021 et 1022) no "empty" profile generated when no measurements has been sampled.
  - specific update of buffer generation for Arvor (5.45) 3901645 #31.</t>
   </si>
+  <si>
+    <t>032b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+duplicate_files_ir_cts5.m
+copy_cts5_files.m
+</t>
+  </si>
+  <si>
+    <t>For CTS5 6902968: to get the configuration at launch of the UVP sensor, replace 'on the fly' 4279_047_00_payload.xml file with a copy of _payload_190528_073923.xml file.</t>
+  </si>
+  <si>
+    <t>032c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+compute_PH_1121_1322.m                                   
+compute_derived_parameters_apx_apf11_ir.m                
+compute_profile_NITRATE_105_to_109_111_112_121_to_125.m  
+compute_rt_adjusted_param.m                              
+create_nc_multi_prof_c_file_3_1.m                        
+decode_apx_apf11_ir.m                                    
+decode_science_log_apx_apf11_ir_1121_1321.m              
+process_apx_apf11_ir_meta_data_evts.m                    
+update_meta_data.m                                       
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - update decId 1121 (Apex APF11 2.11.3.R): process PH data (ex: 7900559, 7900560).
+  - update decId 1322 (Apex APF11 2.11.1.S): do not consider PROF_AUX profiles while gathering primary profiles for DOXY RT adjustment.
+ - update decId 111 (CTS4 6.11): Inf NITRATE values are set to FillValue (ex: 3902122 (183, 0)).
+ - while generating multi-prof files, consider the case where no primary profile exist in the profiles to be saved (ex: 7900545 #1).
+</t>
+  </si>
+  <si>
+    <t>032d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+create_decoding_buffers_cts4.m
+</t>
+  </si>
+  <si>
+    <t>Manage buffers for Provor CTS4 (6.11) floats 6903549, 6903551, 2902239, 2902264): RUDICS transmission failed on 16/12/2019 and delayed transmissions are not as expected.</t>
+  </si>
+  <si>
+    <t>032e</t>
+  </si>
+  <si>
+    <t>Manage buffers for Provor CTS4 (6.11) float 6903549: RUDICS transmission failed on 16/12/2019 and delayed transmissions are not as expected.</t>
+  </si>
+  <si>
+    <t>032f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+decode_provor_iridium_sbd.m
+</t>
+  </si>
+  <si>
+    <t>Manage transmission inconsistencies of floats 6902799 (5.74) and 3901854 (5.44).</t>
+  </si>
+  <si>
+    <t>032g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+compute_prv_dates_ir_rudics_111_113.m
+create_decoding_buffers_cts4.m
+</t>
+  </si>
+  <si>
+    <t>Manage transmission inconsistencies of floats 6903550 (6.11) and 3902120 (6.11).</t>
+  </si>
+  <si>
+    <t>032h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+clean_duplicates_in_received_data.m
+</t>
+  </si>
+  <si>
+    <t>Typo discovered in "clean_duplicates_in_received_data.m" function (look for duplicates in SBD data messages of Provor/Arvor Ice floats.</t>
+  </si>
+  <si>
+    <t>032i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+compute_first_last_msg_time_from_iridium_mail.m
+create_decoding_buffers_212_214_216_217_218.m
+</t>
+  </si>
+  <si>
+    <t>Manage transmission inconsistencies of float 6903256 (5.45).</t>
+  </si>
+  <si>
+    <t>031f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+create_decoding_buffers.m                   
+</t>
+  </si>
+  <si>
+    <t>Manage buffers for Arvor Ir 5.45 float #3901963 (BODC).</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20200214_033a</t>
+  </si>
+  <si>
+    <t>Based on '032i' version:
+ - new decoder For NEMO floats (decId 3001 for Coriolis version 3): 60 floats.
+ - new decoder for Arvor Iridium floats with firmware version YLA5900A05 (decId 222 for Coriolis version 5.47) : 2 floats.
+ - for (Arvor + Provor CTS3) Ice floats: configuration packets, transmitted during the prelude, are considered even if transmitted before the float launch date.
+ - ‘PROCESS_REMAINING_BUFFERS’ parameter added to RT decoder: can be used to process all received data (even when buffers are not complete).
+ - correction of processing of DOXY values of the last pumped sample (stored in the TRAJ file) for decIds 216, 218 and 221.
+ - manage transmission inconsistencies of floats 3902101, 3902122, 6903006 (Coriolis floats) and 3901963 (BODC float).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3331,26 +3464,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E187" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E193" sqref="E193"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E203" sqref="E203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="207" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="3"/>
+    <col min="6" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -3384,7 +3515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -3401,7 +3532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="85.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -3418,7 +3549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -3435,7 +3566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -3452,7 +3583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -3469,7 +3600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -3503,7 +3634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -3520,7 +3651,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -3537,7 +3668,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="85.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -3554,7 +3685,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -3571,7 +3702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -3588,7 +3719,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="9" customFormat="1" ht="129.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="9" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>50</v>
       </c>
@@ -3605,7 +3736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="114.3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -3622,7 +3753,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -3639,7 +3770,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>64</v>
       </c>
@@ -3656,7 +3787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
@@ -3673,7 +3804,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="139.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
@@ -3690,7 +3821,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
@@ -3707,7 +3838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>76</v>
       </c>
@@ -3724,7 +3855,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
@@ -3741,7 +3872,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>82</v>
       </c>
@@ -3758,7 +3889,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>85</v>
       </c>
@@ -3775,7 +3906,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>88</v>
       </c>
@@ -3792,7 +3923,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="85.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>91</v>
       </c>
@@ -3809,7 +3940,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="171.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>95</v>
       </c>
@@ -3826,7 +3957,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>98</v>
       </c>
@@ -3843,7 +3974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="114.3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>101</v>
       </c>
@@ -3860,7 +3991,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>104</v>
       </c>
@@ -3877,7 +4008,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
@@ -3894,7 +4025,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>110</v>
       </c>
@@ -3911,7 +4042,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>113</v>
       </c>
@@ -3928,7 +4059,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>116</v>
       </c>
@@ -3945,7 +4076,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="85.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>119</v>
       </c>
@@ -3962,7 +4093,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>122</v>
       </c>
@@ -3979,7 +4110,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>125</v>
       </c>
@@ -3996,7 +4127,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>128</v>
       </c>
@@ -4013,7 +4144,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>134</v>
       </c>
@@ -4030,7 +4161,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>131</v>
       </c>
@@ -4047,7 +4178,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>137</v>
       </c>
@@ -4064,7 +4195,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>138</v>
       </c>
@@ -4081,7 +4212,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>141</v>
       </c>
@@ -4098,7 +4229,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="9" customFormat="1" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" s="9" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>144</v>
       </c>
@@ -4115,7 +4246,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>147</v>
       </c>
@@ -4132,7 +4263,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>150</v>
       </c>
@@ -4149,7 +4280,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>153</v>
       </c>
@@ -4166,7 +4297,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>156</v>
       </c>
@@ -4183,7 +4314,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>159</v>
       </c>
@@ -4200,7 +4331,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>162</v>
       </c>
@@ -4217,7 +4348,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>165</v>
       </c>
@@ -4234,7 +4365,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="271.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>168</v>
       </c>
@@ -4251,7 +4382,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>171</v>
       </c>
@@ -4268,7 +4399,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>174</v>
       </c>
@@ -4285,7 +4416,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>177</v>
       </c>
@@ -4302,7 +4433,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>180</v>
       </c>
@@ -4319,7 +4450,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="199.7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>183</v>
       </c>
@@ -4336,7 +4467,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>186</v>
       </c>
@@ -4353,7 +4484,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="9" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" s="9" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>189</v>
       </c>
@@ -4370,7 +4501,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>192</v>
       </c>
@@ -4387,7 +4518,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>195</v>
       </c>
@@ -4404,7 +4535,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>198</v>
       </c>
@@ -4421,7 +4552,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="128.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>201</v>
       </c>
@@ -4438,7 +4569,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="200.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>204</v>
       </c>
@@ -4455,7 +4586,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="9" customFormat="1" ht="114.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" s="9" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>207</v>
       </c>
@@ -4472,7 +4603,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>210</v>
       </c>
@@ -4489,7 +4620,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="214" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>213</v>
       </c>
@@ -4506,7 +4637,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="156.9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>232</v>
       </c>
@@ -4523,7 +4654,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>233</v>
       </c>
@@ -4540,7 +4671,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>234</v>
       </c>
@@ -4557,7 +4688,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>235</v>
       </c>
@@ -4574,7 +4705,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="85.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>236</v>
       </c>
@@ -4591,7 +4722,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="300.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>237</v>
       </c>
@@ -4608,7 +4739,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>228</v>
       </c>
@@ -4625,7 +4756,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>240</v>
       </c>
@@ -4642,7 +4773,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>241</v>
       </c>
@@ -4659,7 +4790,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>244</v>
       </c>
@@ -4676,7 +4807,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="9" customFormat="1" ht="129.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" s="9" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>247</v>
       </c>
@@ -4693,7 +4824,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="228.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>250</v>
       </c>
@@ -4710,7 +4841,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="256.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>252</v>
       </c>
@@ -4727,7 +4858,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>254</v>
       </c>
@@ -4744,7 +4875,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>256</v>
       </c>
@@ -4761,7 +4892,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="143.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>258</v>
       </c>
@@ -4778,7 +4909,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>260</v>
       </c>
@@ -4795,7 +4926,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>263</v>
       </c>
@@ -4812,7 +4943,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="171.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>265</v>
       </c>
@@ -4829,7 +4960,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>267</v>
       </c>
@@ -4846,7 +4977,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="114.3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>269</v>
       </c>
@@ -4863,7 +4994,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="185.45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>271</v>
       </c>
@@ -4897,7 +5028,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>275</v>
       </c>
@@ -4914,7 +5045,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="9" customFormat="1" ht="100.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>278</v>
       </c>
@@ -4931,7 +5062,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>281</v>
       </c>
@@ -4948,7 +5079,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>283</v>
       </c>
@@ -4965,7 +5096,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>286</v>
       </c>
@@ -4982,7 +5113,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>287</v>
       </c>
@@ -4999,7 +5130,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>289</v>
       </c>
@@ -5016,7 +5147,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>291</v>
       </c>
@@ -5033,7 +5164,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>296</v>
       </c>
@@ -5050,7 +5181,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>293</v>
       </c>
@@ -5067,7 +5198,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>298</v>
       </c>
@@ -5084,7 +5215,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="328.1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>300</v>
       </c>
@@ -5101,7 +5232,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>302</v>
       </c>
@@ -5118,7 +5249,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>304</v>
       </c>
@@ -5135,7 +5266,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>307</v>
       </c>
@@ -5152,7 +5283,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>309</v>
       </c>
@@ -5169,7 +5300,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>312</v>
       </c>
@@ -5186,7 +5317,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>313</v>
       </c>
@@ -5203,7 +5334,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>315</v>
       </c>
@@ -5220,7 +5351,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>317</v>
       </c>
@@ -5237,7 +5368,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>319</v>
       </c>
@@ -5254,7 +5385,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>322</v>
       </c>
@@ -5271,7 +5402,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>324</v>
       </c>
@@ -5288,7 +5419,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="143.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>326</v>
       </c>
@@ -5305,7 +5436,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="9" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" s="9" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>328</v>
       </c>
@@ -5322,7 +5453,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="9" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>331</v>
       </c>
@@ -5339,7 +5470,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>334</v>
       </c>
@@ -5356,7 +5487,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>336</v>
       </c>
@@ -5373,7 +5504,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="9" customFormat="1" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" s="9" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>338</v>
       </c>
@@ -5390,7 +5521,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="199.7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>340</v>
       </c>
@@ -5407,7 +5538,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>342</v>
       </c>
@@ -5424,7 +5555,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>345</v>
       </c>
@@ -5441,7 +5572,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>346</v>
       </c>
@@ -5458,7 +5589,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="214" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>348</v>
       </c>
@@ -5475,7 +5606,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>351</v>
       </c>
@@ -5492,7 +5623,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>353</v>
       </c>
@@ -5509,7 +5640,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>354</v>
       </c>
@@ -5526,7 +5657,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>356</v>
       </c>
@@ -5543,7 +5674,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>358</v>
       </c>
@@ -5560,7 +5691,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="314" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>359</v>
       </c>
@@ -5577,7 +5708,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>361</v>
       </c>
@@ -5594,7 +5725,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="57.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>363</v>
       </c>
@@ -5611,7 +5742,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="171.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>365</v>
       </c>
@@ -5628,7 +5759,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>367</v>
       </c>
@@ -5645,7 +5776,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>369</v>
       </c>
@@ -5662,7 +5793,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="9" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" s="9" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>371</v>
       </c>
@@ -5679,7 +5810,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>375</v>
       </c>
@@ -5696,7 +5827,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="9" customFormat="1" ht="157.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" s="9" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>377</v>
       </c>
@@ -5713,7 +5844,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>380</v>
       </c>
@@ -5730,7 +5861,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="172.05" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>382</v>
       </c>
@@ -5747,7 +5878,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="9" customFormat="1" ht="100.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>384</v>
       </c>
@@ -5764,7 +5895,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="100.05" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>387</v>
       </c>
@@ -5781,7 +5912,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="114.3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>491</v>
       </c>
@@ -5798,7 +5929,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>494</v>
       </c>
@@ -5815,7 +5946,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="9" customFormat="1" ht="86.3" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>497</v>
       </c>
@@ -5832,7 +5963,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>500</v>
       </c>
@@ -5849,7 +5980,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>505</v>
       </c>
@@ -5866,7 +5997,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="71.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>507</v>
       </c>
@@ -5883,7 +6014,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>509</v>
       </c>
@@ -5900,7 +6031,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="9" customFormat="1" ht="100.55" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>512</v>
       </c>
@@ -5917,7 +6048,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>515</v>
       </c>
@@ -5934,7 +6065,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="228.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>518</v>
       </c>
@@ -5951,7 +6082,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>521</v>
       </c>
@@ -5968,7 +6099,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>524</v>
       </c>
@@ -5985,7 +6116,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="45.7" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>527</v>
       </c>
@@ -6053,7 +6184,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="59.95" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>539</v>
       </c>
@@ -6070,7 +6201,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>542</v>
       </c>
@@ -6087,7 +6218,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>544</v>
       </c>
@@ -6104,7 +6235,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>550</v>
       </c>
@@ -6121,7 +6252,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>549</v>
       </c>
@@ -6138,7 +6269,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>552</v>
       </c>
@@ -6155,7 +6286,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>555</v>
       </c>
@@ -6172,7 +6303,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>558</v>
       </c>
@@ -6189,7 +6320,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>560</v>
       </c>
@@ -6206,7 +6337,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="28.55" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>563</v>
       </c>
@@ -6223,7 +6354,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>566</v>
       </c>
@@ -6240,7 +6371,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="9" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" s="9" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>569</v>
       </c>
@@ -6257,7 +6388,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>572</v>
       </c>
@@ -6274,7 +6405,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="128.4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>574</v>
       </c>
@@ -6291,7 +6422,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>577</v>
       </c>
@@ -6308,7 +6439,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="9" customFormat="1" ht="157.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" s="9" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10" t="s">
         <v>580</v>
       </c>
@@ -6325,7 +6456,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>583</v>
       </c>
@@ -6342,7 +6473,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>586</v>
       </c>
@@ -6359,7 +6490,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>589</v>
       </c>
@@ -6376,7 +6507,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="370.9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>592</v>
       </c>
@@ -6393,7 +6524,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="142.65" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>595</v>
       </c>
@@ -6410,7 +6541,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>598</v>
       </c>
@@ -6427,7 +6558,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>601</v>
       </c>
@@ -6444,7 +6575,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="9" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" s="9" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
         <v>604</v>
       </c>
@@ -6461,7 +6592,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>607</v>
       </c>
@@ -6478,7 +6609,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="57.1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>610</v>
       </c>
@@ -6495,7 +6626,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="85.6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>613</v>
       </c>
@@ -6512,7 +6643,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="114.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>616</v>
       </c>
@@ -6529,24 +6660,195 @@
         <v>618</v>
       </c>
     </row>
-    <row r="188" spans="1:5" s="9" customFormat="1" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="10" t="s">
+    <row r="188" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B188" s="5">
+        <v>43872</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" s="9" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="B188" s="11">
+      <c r="B189" s="11">
         <v>43809</v>
       </c>
-      <c r="C188" s="12" t="s">
+      <c r="C189" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="D188" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="E188" s="14" t="s">
+      <c r="D189" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E189" s="14" t="s">
         <v>621</v>
       </c>
     </row>
+    <row r="190" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B190" s="5">
+        <v>43809</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B191" s="5">
+        <v>43817</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B192" s="5">
+        <v>43837</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B193" s="5">
+        <v>43839</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B194" s="5">
+        <v>43845</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B195" s="5">
+        <v>43846</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B196" s="5">
+        <v>43847</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B197" s="5">
+        <v>43858</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="B198" s="11">
+        <v>43875</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="D198" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E198" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E197"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="663">
   <si>
     <t>Version name</t>
   </si>
@@ -3046,6 +3046,64 @@
  - ‘PROCESS_REMAINING_BUFFERS’ parameter added to RT decoder: can be used to process all received data (even when buffers are not complete).
  - correction of processing of DOXY values of the last pumped sample (stored in the TRAJ file) for decIds 216, 218 and 221.
  - manage transmission inconsistencies of floats 3902101, 3902122, 6903006 (Coriolis floats) and 3901963 (BODC float).</t>
+  </si>
+  <si>
+    <t>033b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+decode_nova.m
+decode_provor.m
+</t>
+  </si>
+  <si>
+    <t>Error in '033a' concerning virtual buffer management for Provor and Nova decoders.</t>
+  </si>
+  <si>
+    <t>033c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+get_clock_offset_value_prv_ir.m
+</t>
+  </si>
+  <si>
+    <t>DecId 221 and 222: when more than one clock offsets are provided (one for each Iridium session) we use the averaged value of them to adjust the concerned cycle times.</t>
+  </si>
+  <si>
+    <t>033d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+create_decoding_buffers_212_214_216_217_218.m  
+decode_provor_iridium_sbd.m                       
+</t>
+  </si>
+  <si>
+    <t>DecId 213: Manage transmission inconsistencies of float 6902935 (5.74).
+DecId 212: Manage transmission inconsistencies of float 6901880 (5.45).</t>
+  </si>
+  <si>
+    <t>033a</t>
+  </si>
+  <si>
+    <t>034a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20200415_034a</t>
+  </si>
+  <si>
+    <t>Based on '033d' version:
+ - RTQC compliant with “Argo Quality Control Manual For CTD and Trajectory Data - Version 3.3 - 8th January 2020"
+ - correction of RTQC test 13 : stuck value - test applied to 'c' and 'b' parameters but also 'i' associated ones
+ - update of density function (EOS-80 to TEOS-10)
+ - implementation of DOXY_ADJUSTED_ERROR
+ - update of Apex APF11 decoders to manage ICE detection information reported by the floats
+ - no time limit for profile location interpolation</t>
   </si>
 </sst>
 </file>
@@ -3464,11 +3522,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E203" sqref="E203"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6832,7 +6890,7 @@
     </row>
     <row r="198" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="B198" s="11">
         <v>43875</v>
@@ -6845,6 +6903,74 @@
       </c>
       <c r="E198" s="14" t="s">
         <v>649</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B199" s="5">
+        <v>43879</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B200" s="5">
+        <v>43901</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B201" s="5">
+        <v>43931</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="B202" s="11">
+        <v>43936</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="D202" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E202" s="14" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="681">
   <si>
     <t>Version name</t>
   </si>
@@ -3104,6 +3104,104 @@
  - implementation of DOXY_ADJUSTED_ERROR
  - update of Apex APF11 decoders to manage ICE detection information reported by the floats
  - no time limit for profile location interpolation</t>
+  </si>
+  <si>
+    <t>034b</t>
+  </si>
+  <si>
+    <t>Erroneous management of CALIB_RT information when no ADJUSTED_ERROR is provided.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+get_rt_offset.m
+get_meta_init_struct.m             
+</t>
+  </si>
+  <si>
+    <t>034c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - GPS interpolated location is prefered to Iridium location for profile location
+ - DecId 111: Manage transmission inconsistencies of float 6903551 (6.11)
+ - CSV output to nc_create_synthetic_profile tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+add_profile_date_and_location_201_to_220_222_2001_to_2003.m  
+add_profile_date_and_location_apx_ir_sbd.m                   
+add_profile_date_and_location_ir_sbd2.m                      
+add_profile_date_and_location_nemo.m                         
+collect_trajectory_data_ir_rudics_111_113.m                  
+create_decoding_buffers_cts4.m                               
+fill_empty_profile_locations_ir_sbd.m                        
+fill_empty_profile_locations_ir_sbd2.m                       
+parse_input_param_argos.m                                    
+parse_input_param_iridium_rudics_dm.m                        
+parse_input_param_iridium_rudics_rt.m                        
+parse_input_param_iridium_sbd2_dm.m                          
+parse_input_param_iridium_sbd2_rt.m                          
+parse_input_param_iridium_sbd_rt.m                           
+process_decoded_data_cts4.m                                  
+process_trajectory_data_ir_rudics_sbd2.m                     
+sort_trajectory_data.m   
+nc_create_synthetic_profile.m     
+nc_create_synthetic_profile_rt.m  
+</t>
+  </si>
+  <si>
+    <t>034d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+compute_prv_dates_204_to_209            
+</t>
+  </si>
+  <si>
+    <t>Correction of an error (introduced in version 013a) in profile JULD  processing of the first descending profile for decoder Ids 204 to 209.</t>
+  </si>
+  <si>
+    <t>034e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+add_profile_date_and_location_ir_rudics_cts5.m  
+create_default_primary_profile.m                
+store_gps_data_ir_rudics_cts5.m                 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For all decoders: when a default primary profile is created, use the unpumped one as a base profile but if it not exists une any secondary sampling one (to get a profile date and location for S-PROF generation)
+For CTS5 decoders: improve datation of descent profile
+</t>
+  </si>
+  <si>
+    <t>034f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+create_decoding_buffers_cts4.m              
+</t>
+  </si>
+  <si>
+    <t>Manage transmission errors of float 2902241 (decId 111).</t>
+  </si>
+  <si>
+    <t>035a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20200609_035a</t>
+  </si>
+  <si>
+    <t>Based on '034f' version:
+ - new decoder for Apex APF11 2.13.1 version (Coriolis version 2.13.1.R).
+ - new decoder for Arvor DO Ir version (Coriolis version 5.48).
+ - selection of "Near surface" and "In air" DO measurements for Provor CTS4 floats. PPOX_DOXY computed and a dded in the trajectory.</t>
   </si>
 </sst>
 </file>
@@ -3522,11 +3620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E214" sqref="E214"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E225" sqref="E224:E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6973,6 +7071,108 @@
         <v>662</v>
       </c>
     </row>
+    <row r="203" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B203" s="5">
+        <v>43938</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B204" s="5">
+        <v>43943</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B205" s="5">
+        <v>43949</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B206" s="5">
+        <v>43962</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B207" s="5">
+        <v>43966</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" s="9" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B208" s="11">
+        <v>43991</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="D208" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E208" s="14" t="s">
+        <v>680</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E197"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$197</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="707">
   <si>
     <t>Version name</t>
   </si>
@@ -3198,10 +3198,144 @@
 decArgo_20200609_035a</t>
   </si>
   <si>
+    <t>035b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+init_float_config_prv_ir_sbd_222_223.m
+</t>
+  </si>
+  <si>
+    <t>Erroneous error message while processing 5.47 floats.</t>
+  </si>
+  <si>
+    <t>035c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - new version of RTQC for PROF (V. 4.6) and TRAJ (V. 2.9): initialization of DOXY_QC with '3'
+- 3 new tools: nc_add_do_rtqc_flags_prof_and_traj, nc_set_doxy_qc_to_dm_file and nc_check_config_mission_number
+ - GEBCO 2020 replaces ETOPO2 in RTQC
+- management of Dova #6903283 reset at sea
+ - minor correction on CTS4 and CTS5 decoders to avoid errors during S-PROF generation
+</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+add_rtqc_flags_to_netcdf_profile_and_trajectory_data.m  
+add_rtqc_to_profile_file.m                              
+add_rtqc_to_trajectory_file.m                           
+decode_nova_iridium_sbd.m                               
+fill_empty_profile_locations_ir_rudics.m                
+fill_empty_profile_locations_ir_sbd2.m                  
+get_gebco_elev_point.m                                  
+get_mc_order_list.m                                     
+init_config_values.m                                                                  
+sort_trajectory_data.m
+nc_add_do_rtqc_flags_prof_and_traj.m  
+nc_add_rtqc_flags_prof_and_traj.m     
+nc_check_config_mission_number.m      
+nc_prof_adj_2_csv.m                   
+nc_prof_adj_err_2_csv.m               
+nc_set_doxy_qc_to_dm_file.m           
+nc_synthetic_prof_adj_2_csv.m         
+nc_trace_disp.m                       
+nc_trace_param.m                      
+nc_traj_adj_2_csv.m
+add_do_rtqc_to_profile_file.m     
+add_do_rtqc_to_trajectory_file.m  
+get_gebco_elev_zone.m 
+nc_create_apx_mono_profile_argos_from_dep</t>
+  </si>
+  <si>
+    <t>035d</t>
+  </si>
+  <si>
+    <t>Manage transmission errors of float 6903551 (decId 111).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+collect_trajectory_data_ir_rudics_105_to_110_112_sbd2.m  
+collect_trajectory_data_ir_rudics_111_113.m              
+decode_provor_iridium_rudics_cts4.m                                              
+process_decoded_data_cts4.m    </t>
+  </si>
+  <si>
+    <t>035e</t>
+  </si>
+  <si>
     <t>Based on '034f' version:
  - new decoder for Apex APF11 2.13.1 version (Coriolis version 2.13.1.R).
  - new decoder for Arvor DO Ir version (Coriolis version 5.48).
- - selection of "Near surface" and "In air" DO measurements for Provor CTS4 floats. PPOX_DOXY computed and a dded in the trajectory.</t>
+ - selection of "Near surface" and "In air" DO measurements for Provor CTS4 floats. PPOX_DOXY computed and added in the trajectory.</t>
+  </si>
+  <si>
+    <t>For "selection of "Near surface" and "In air" DO measurements for Provor CTS4 floats. PPOX_DOXY computed and added in the trajectory." of version '035a': specific management when no DOXY data is produced for the profile.</t>
+  </si>
+  <si>
+    <t>035f</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+nc_create_synthetic_profile.m     
+nc_create_synthetic_profile_rt.m  
+nc_create_synthetic_profile_.m
+ARGO_simplified_profile.m</t>
+  </si>
+  <si>
+    <t>New version of S-PROF generator (1.9 (version 30.06.2020 for ARGO_simplified_profile)): generates an S-PROF even if C-PROF or B-PROF is missing for a given cycle.</t>
+  </si>
+  <si>
+    <t>035g</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+get_clock_offset_value_prv_ir.m</t>
+  </si>
+  <si>
+    <t>Bug corrected in clock offset interpolation (decId: 221, 222 and 223) (discovered with float 7900553 which crashed the decoder).</t>
+  </si>
+  <si>
+    <t>035h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+_tech_param_name_124.csv
+_tech_param_name_124.json
+_tech_param_name_125.json
+ </t>
+  </si>
+  <si>
+    <t>The TECH_PARAM_DEC_ID #110 ane #111 had multiple entries in the defined tech label list (discovered with float 6902967).</t>
+  </si>
+  <si>
+    <t>035i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_decoding_buffers_cts4.m
+</t>
+  </si>
+  <si>
+    <t>Manage transmission errors of float 6903026 (decId 111).</t>
+  </si>
+  <si>
+    <t>036a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20200924_036a</t>
+  </si>
+  <si>
+    <t>Based on '035i' version:
+ - new decoder for first version of Provor CTS5-USEA (APMT V1.07.024, USEA V1.00.024) (Coriolis version 7.11).
+ - new decoder for Apex APF11 2.12.3 version (Coriolis version 2.12.3.R).</t>
   </si>
 </sst>
 </file>
@@ -3620,17 +3754,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:E217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E225" sqref="E224:E225"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="207" style="6" bestFit="1" customWidth="1"/>
@@ -7170,7 +7304,160 @@
         <v>230</v>
       </c>
       <c r="E208" s="14" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
         <v>680</v>
+      </c>
+      <c r="B209" s="5">
+        <v>43993</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B210" s="5">
+        <v>44006</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B211" s="5">
+        <v>44011</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B212" s="5">
+        <v>44019</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B213" s="5">
+        <v>44022</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B214" s="5">
+        <v>44029</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="B215" s="5">
+        <v>44046</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B216" s="5">
+        <v>44089</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="B217" s="11">
+        <v>44098</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="D217" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E217" s="14" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$197</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="719">
   <si>
     <t>Version name</t>
   </si>
@@ -3336,6 +3336,78 @@
     <t>Based on '035i' version:
  - new decoder for first version of Provor CTS5-USEA (APMT V1.07.024, USEA V1.00.024) (Coriolis version 7.11).
  - new decoder for Apex APF11 2.12.3 version (Coriolis version 2.12.3.R).</t>
+  </si>
+  <si>
+    <t>036b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+decode_msg_apx_ir.m                        
+process_apx_ir_gps_data_evts.m  
+read_apmt_config.m              
+store_gps_data_apx_ir.m </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - regression in configuration management of the first float equiped with an UVP sensor (6902968)
+ - duplicates in Apex APF9 Iridium surface fixes</t>
+  </si>
+  <si>
+    <t>036c</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+add_nitrate_rtqc_to_profile_file.m                         
+compute_drift_NITRATE_105_to_109_111_112_121_to_125.m      
+compute_drift_NITRATE_BISULFIDE_from_spectrum_110_113.m    
+compute_profile_NITRATE_105_to_109_111_112_121_to_125.m    
+compute_profile_NITRATE_BISULFIDE_from_spectrum_110_113.m  
+create_float_config_apx_argos.m                            
+decode_science_log_apx_apf11_ir_1121_to_1123_1321.m        
+decode_science_log_apx_apf11_ir_1322.m                     
+get_apx_apf11_ir_float_time_init_struct.m                                                        
+merge_first_last_msg_time_ir_rudics_111_113.m              
+process_apx_apf11_ir_time_evts_1121_1123_1321_1322.m       
+store_gps_data_apx_apf11_ir.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - correction of configuration anomalies detected by the "nc_check_config_mission_number" tool
+ - correction of trajectory anomalies detected by the GDAC checker
+ - APF11 "recovery mode" event added to time events in the APF11 decoders
+ - for Matlab R2020b: "fitlm" function needs input of type "double"</t>
+  </si>
+  <si>
+    <t>036d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+nc_create_synthetic_profile.m
+nc_create_synthetic_profile_rt.m
+nc_create_synthetic_profile_.m
+ARGO_simplified_profile.m </t>
+  </si>
+  <si>
+    <t>New version (1.10 (version 30.06.2020 for ARGO_simplified_profile)) of S-PROF generator.
+ - correction of PROFILE_&lt;PARAM&gt;_QC processing (considering PARAMETER_DATA_MODE)
+ - specific outputs for CSV file</t>
+  </si>
+  <si>
+    <t>037a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20201103_037a</t>
+  </si>
+  <si>
+    <t>Based on '036d' version:
+ - multiple modifications of TRAJ file contents to fix the issues detected by the new GDAC TRAJ checker
+ - mulitple corrections of configuration labels  to fix the issues detected by the new GDAC checker (where label templates are now controlled)
+ - configuration management: correction for NKE Ice floats (where configuration packets are not send each cycle)
+ - NKE floats: check of decId attribution (using firmware checksum transmitted in technical message)
+ - "=&gt;" replaced by "-" in all INFO/WARNING/ERROR lo files
+ - correction of 6902957 buffer inconsistencies
+ - CTS5: the technical message may be missing</t>
   </si>
 </sst>
 </file>
@@ -3754,18 +3826,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E217"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E214" sqref="E214"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69" style="5" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="207" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.85546875" style="3"/>
@@ -7460,6 +7532,74 @@
         <v>706</v>
       </c>
     </row>
+    <row r="218" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="B218" s="5">
+        <v>44103</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B219" s="5">
+        <v>44106</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B220" s="5">
+        <v>44130</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" s="9" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="B221" s="11">
+        <v>44138</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="D221" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E221" s="14" t="s">
+        <v>718</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E197"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$229</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="750">
   <si>
     <t>Version name</t>
   </si>
@@ -3408,6 +3408,177 @@
  - "=&gt;" replaced by "-" in all INFO/WARNING/ERROR lo files
  - correction of 6902957 buffer inconsistencies
  - CTS5: the technical message may be missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+decode_apmt_ctd_extended_121_2_125.m  
+decode_apmt_ctd_extended_126.m        
+decode_apmt_do.m                      
+decode_apmt_eco3.m                    
+decode_apmt_ocr4.m                    
+decode_apmt_uvp_black.m                                
+read_apmt_technical.m          
+nc_compare_mono_profile_files_prv_bgc_in_DM.m
+nc_copy_mono_profile_dm_and_qc.m
+</t>
+  </si>
+  <si>
+    <t>In '036a', there was a bug in the new decoder for first version of Provor CTS5-USEA (APMT V1.07.024, USEA V1.00.024) (Coriolis version 7.11) that cause the previous CTS5 decoders (decId 121 to 125) to dysfunction.</t>
+  </si>
+  <si>
+    <t>037b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+add_nitrate_rtqc_to_profile_file.m                               
+add_rtqc_to_profile_file.m                                       
+compute_derived_parameters_apx_apf11_ir.m                        
+compute_interpolated_CTD_measurements.m                          
+compute_prof_NITRATE_from_MOLAR_105_to_109_111_112_121_to_125.m  
+compute_profile_NITRATE_105_to_109_111_112_121_to_125.m          
+compute_profile_NITRATE_BISULFIDE_from_spectrum_110_113.m        
+compute_profile_derived_parameters_ir_rudics.m                   
+compute_profile_derived_parameters_ir_sbd2.m                     
+compute_rt_adjusted_param.m
+</t>
+  </si>
+  <si>
+    <t>For BGC floats (Provor CTS4, Provor CTS5 and Apex APF11) some BGC data need CTD mesaurements that should be interpolated at the BGC sensor pressure levels. All interpolations have been homogenized: "compute_interpolated_CTD_measurements.m" for profile ohase and "assign_CTD_measurements.m" for drift phase.</t>
+  </si>
+  <si>
+    <t>037c</t>
+  </si>
+  <si>
+    <t>037d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - additional issue with '037c' version
+ - INFO message added in RT decoder when no rsync log file is present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+compute_derived_parameters_apx_apf11_ir.m  
+parse_input_param_iridium_rudics_rt.m      
+parse_input_param_iridium_sbd2_rt.m        
+parse_input_param_iridium_sbd_rt.m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+compute_derived_parameters_apx_apf11_ir.m  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - additional issue with '037d' version</t>
+  </si>
+  <si>
+    <t>037e</t>
+  </si>
+  <si>
+    <t>037f</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+add_nitrate_rtqc_to_profile_file.m                      
+add_rtqc_flags_to_netcdf_profile_and_trajectory_data.m  
+add_rtqc_to_profile_file.m                              
+compute_rt_adjusted_param.m                             
+decode_apex_argos_data.m                                
+decode_apex_iridium_rudics_data_apf11.m                 
+decode_apex_iridium_rudics_data_apf9_navis.m            
+decode_apex_iridium_sbd_data_apf11.m                    
+decode_nova_iridium_sbd.m                               
+decode_provor_argos_data.m                              
+decode_provor_iridium_rudics_cts4.m                     
+decode_provor_iridium_rudics_cts4_delayed.m             
+decode_provor_iridium_rudics_cts5_payload.m             
+decode_provor_iridium_rudics_cts5_usea.m                
+decode_provor_iridium_sbd.m                             
+decode_provor_iridium_sbd2.m                            
+decode_provor_iridium_sbd_delayed.m                     
+get_apx_meta_data_for_cycle_number_determination.m      
+get_global_comment_on_measurement_code.m                
+get_nc_tech_parameters_json.m                           
+sort_trajectory_data.m                                  
+update_meta_data.m  
+nc_add_do_rtqc_flags_prof_and_traj.m  
+nc_add_rtqc_flags_prof_and_traj.m
+add_do_rtqc_to_profile_file.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - version 5.0 of "add_rtqc_to_profile_file": consider PARAMETER_DATA_MODE of CTD parameters when needed by BGC parameter
+ - uniformisation of CTD recovering algorithm when needed by a BGC parameter RTQC test
+ - global lists of decoder Ids to manage specifc processings (in decodig and in RTQC)
+</t>
+  </si>
+  <si>
+    <t>037g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+add_rtqc_to_profile_file.m </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - bug in "add_rtqc_to_profile_file" when retrieving CTD data for CHLA and NS profile is missing (Ex: Apex Argos BGC 3901065)</t>
+  </si>
+  <si>
+    <t>037h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+compute_derived_parameters_apx_apf11_ir.m                  
+update_float_config_ir_rudics_111_113.m </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Apex APF11 Iridium: bug in CTD concatenation (spot sampling and continuous measurements) to be used by DOXY and BBP.
+ - Provor CTS4 AtlantOS (6.11 and 6.12) ignore input sensor configuration parameters for sensor not mounted on the float (example of float 6903026 which transmit SUNA tech message and SUNA configuration parameters).</t>
+  </si>
+  <si>
+    <t>037i</t>
+  </si>
+  <si>
+    <t>Manage transmission errors of float 6902957 (decId 214).</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+create_decoding_buffers_212_214_216_217_218.m
+compute_first_last_msg_time_from_iridium_mail.m</t>
+  </si>
+  <si>
+    <t>037j</t>
+  </si>
+  <si>
+    <t>Manage transmission errors of float 6901880 (decId 212).</t>
+  </si>
+  <si>
+    <t>038a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20201216_038a</t>
+  </si>
+  <si>
+    <t>Update of SCIENTIFIC_CALIB_COMMENT for DOXY in "case '1_1'" to be sure that it fits in the dedicated 256 string.</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+compute_rt_adjusted_param.m
+get_rt_adj_info_from_meta_data.m</t>
+  </si>
+  <si>
+    <t>Based on '037h' version:
+ - Apex APF11 Iridium: careful update of system_log file parsing. Creation of one decoder per firmware version =&gt; 3 new decoders created: decId 1126, 1127 and 1323.
+ - Apex APF11 Iridium: one new decoder (decId 1124) for firware version 2.14.3.R.
+ - Apex APF11 Iridium: one new decoder (decId 1125) for firware version 2.15.0.R.
+ - Apex APF11 Iridium: check of consistency between decId and float firmware.
+ - Manage transmission errors of float 3902107 (decId 212).</t>
   </si>
 </sst>
 </file>
@@ -3826,11 +3997,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E221"/>
+  <dimension ref="A1:E232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E221" sqref="E221"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4302,7 +4473,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>95</v>
       </c>
@@ -4472,7 +4643,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>125</v>
       </c>
@@ -4914,7 +5085,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>201</v>
       </c>
@@ -5849,7 +6020,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>336</v>
       </c>
@@ -6053,7 +6224,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>359</v>
       </c>
@@ -6597,7 +6768,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>550</v>
       </c>
@@ -6767,7 +6938,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>574</v>
       </c>
@@ -6886,7 +7057,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>595</v>
       </c>
@@ -6954,7 +7125,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>607</v>
       </c>
@@ -6971,7 +7142,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>610</v>
       </c>
@@ -7073,7 +7244,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>625</v>
       </c>
@@ -7294,7 +7465,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>666</v>
       </c>
@@ -7600,8 +7771,195 @@
         <v>718</v>
       </c>
     </row>
+    <row r="222" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B222" s="5">
+        <v>44140</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B223" s="5">
+        <v>44144</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="B224" s="5">
+        <v>44144</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B225" s="5">
+        <v>44144</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="B226" s="5">
+        <v>44153</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="B227" s="5">
+        <v>44155</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="B228" s="5">
+        <v>44158</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B229" s="5">
+        <v>44160</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B230" s="5">
+        <v>44161</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="B231" s="5">
+        <v>44182</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="B232" s="11">
+        <v>44181</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="D232" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E232" s="14" t="s">
+        <v>749</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E197"/>
+  <autoFilter ref="A1:E229"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="757">
   <si>
     <t>Version name</t>
   </si>
@@ -3573,12 +3573,40 @@
 get_rt_adj_info_from_meta_data.m</t>
   </si>
   <si>
-    <t>Based on '037h' version:
+    <t>037k</t>
+  </si>
+  <si>
+    <t>Based on '037k' version:
  - Apex APF11 Iridium: careful update of system_log file parsing. Creation of one decoder per firmware version =&gt; 3 new decoders created: decId 1126, 1127 and 1323.
  - Apex APF11 Iridium: one new decoder (decId 1124) for firware version 2.14.3.R.
  - Apex APF11 Iridium: one new decoder (decId 1125) for firware version 2.15.0.R.
  - Apex APF11 Iridium: check of consistency between decId and float firmware.
  - Manage transmission errors of float 3902107 (decId 212).</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+check_apx_apf11_decoder_id.m</t>
+  </si>
+  <si>
+    <t>Annomaly in APF11 version assignation for decId 1127 (version 2.12.2.1R instead of 2.12.2.R)  and float #6903704 (decId 1122) which is a 2.13.1.1.R float.</t>
+  </si>
+  <si>
+    <t>038b</t>
+  </si>
+  <si>
+    <t>039a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20210112_039a</t>
+  </si>
+  <si>
+    <t>Based on '038b' version:
+ - New decoder (decId 224) fot Arvor RBR floats (Coriolis version 5.49).
+ - DATA_MODE anomaly when only FMT and LMT are present in a TRAJ cycle.
+ - Mecanism to generate PROF file (with GENERATE_NC_MONO_PROF = 2) when the profile location is transmitted the next cycle (see example of APEX APF11 float #7900566).
+ - Manage transmission errors of float 6903551 (decId 111).</t>
   </si>
 </sst>
 </file>
@@ -3997,11 +4025,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E232"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C239" sqref="C239"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E254" sqref="E254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7926,7 +7954,7 @@
     </row>
     <row r="231" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="B231" s="5">
         <v>44182</v>
@@ -7955,7 +7983,41 @@
         <v>230</v>
       </c>
       <c r="E232" s="14" t="s">
-        <v>749</v>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B233" s="5">
+        <v>44203</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" s="9" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="B234" s="11">
+        <v>44208</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="D234" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E234" s="14" t="s">
+        <v>756</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="777">
   <si>
     <t>Version name</t>
   </si>
@@ -3602,11 +3602,98 @@
 decArgo_20210112_039a</t>
   </si>
   <si>
+    <t>039b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+add_profile_date_and_location_apx_ir_rudics.m  
+add_profile_date_and_location_apx_ir_sbd.m     
+get_wmo_instrument_type.m </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - APF11 Iridium decoders: mecanism to generate PROF file (with GENERATE_NC_MONO_PROF = 2) when the profile location is interpolated.
+ - WMO_INST_TYPE set to 878 for Arvor RBR floats.</t>
+  </si>
+  <si>
+    <t>039c</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+create_decoding_buffers_212_214_216_217_218.m</t>
+  </si>
+  <si>
+    <t>Manage transmission errors of float 6903772 (decId 212).</t>
+  </si>
+  <si>
+    <t>039d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+create_decoding_buffers_221.m      
+create_decoding_buffers_222_223.m  
+create_decoding_buffers_224.m      
+create_decoding_buffers_cts4.m     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Manage transmission errors of float 6903249 (decId 111)
+ - decId 221 to 224: erroneous management of clock offsets storage when resets have been applied to the float (bug revealed by float 6904101)</t>
+  </si>
+  <si>
+    <t>039e</t>
+  </si>
+  <si>
+    <t>Manage transmission errors of float 6903773 (decId 212).</t>
+  </si>
+  <si>
+    <t>039f</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+add_configuration_number_ir_rudics_sbd2.m
+process_trajectory_data_ir_rudics_sbd2.m</t>
+  </si>
+  <si>
+    <t>Error in management of EOL for float 6903551 (decId 111).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+add_profile_date_and_location_apx_ir_rudics.m  
+add_profile_date_and_location_apx_ir_sbd.m     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - APF11 Iridium decoders: mecanism to generate PROF file (with GENERATE_NC_MONO_PROF = 2) when the profile location is interpolated or received the next cycle</t>
+  </si>
+  <si>
+    <t>039g</t>
+  </si>
+  <si>
+    <t>040a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20210301_040a</t>
+  </si>
+  <si>
     <t>Based on '038b' version:
- - New decoder (decId 224) fot Arvor RBR floats (Coriolis version 5.49).
+ - New decoder (decId 224) for Arvor RBR floats (Coriolis version 5.49).
  - DATA_MODE anomaly when only FMT and LMT are present in a TRAJ cycle.
  - Mecanism to generate PROF file (with GENERATE_NC_MONO_PROF = 2) when the profile location is transmitted the next cycle (see example of APEX APF11 float #7900566).
  - Manage transmission errors of float 6903551 (decId 111).</t>
+  </si>
+  <si>
+    <t>Based on '039g' version:
+ - Update of PROVOR CTS5-USEA (decId 126) decoder to manage CROVER, TRANSISTOR_PH and SUNA sensors. 
+ - New decoder (decId 127) for PROVOR CTS5-USEA (float 6904117 is equiped with an OPUS NITRATE sensor).
+ - Correction of a bug in CTS5 descending profiles generation.
+ - RT adjustment of Argo Deep PSAL (with new CPcor) : IMPLEMENTED BUT NOT ACTIVATED (waiting for an updated version of the checker).
+ - APF11 decoders: management of a new set of wavelength for OCR sensor (443, 490, 555, 670).
+ - APF11 decoders: implementation of timeseries in TECH files  : IMPLEMENTED BUT NOT ACTIVATED (waiting for an updated version of the checker).
+ - Set of CONTROLLER_BOARD_TYPE_PRIMARY, CONTROLLER_BOARD_TYPE_SECONDARY and BATTERY_TYPE for NKE floats.</t>
   </si>
 </sst>
 </file>
@@ -4025,11 +4112,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E234"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E254" sqref="E254"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E241" sqref="E241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8017,7 +8104,126 @@
         <v>230</v>
       </c>
       <c r="E234" s="14" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
         <v>756</v>
+      </c>
+      <c r="B235" s="5">
+        <v>44211</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B236" s="5">
+        <v>44215</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B237" s="5">
+        <v>44224</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B238" s="5">
+        <v>44236</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B239" s="5">
+        <v>44238</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B240" s="5">
+        <v>44245</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E240" s="7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" s="9" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B241" s="11">
+        <v>44256</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="D241" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E241" s="14" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="800">
   <si>
     <t>Version name</t>
   </si>
@@ -3694,6 +3694,113 @@
  - APF11 decoders: management of a new set of wavelength for OCR sensor (443, 490, 555, 670).
  - APF11 decoders: implementation of timeseries in TECH files  : IMPLEMENTED BUT NOT ACTIVATED (waiting for an updated version of the checker).
  - Set of CONTROLLER_BOARD_TYPE_PRIMARY, CONTROLLER_BOARD_TYPE_SECONDARY and BATTERY_TYPE for NKE floats.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+create_config_param_names_ir_rudics_cts5.m             
+create_config_param_names_ir_rudics_cts5_121_to_123.m  
+create_config_param_names_ir_rudics_cts5_124_125.m     
+create_config_param_names_ir_rudics_cts5_126.m         
+create_config_param_names_ir_rudics_cts5_127.m         
+create_nc_meta_aux_file.m                              
+create_nc_meta_file_3_1.m                              
+create_output_float_config_ir_rudics_cts5.m            
+create_output_float_config_ir_rudics_cts5_usea.m       </t>
+  </si>
+  <si>
+    <t>Added ncConf parameter Ids in the flux so that the definition (used in META_AUX file) can be retrieved even when the label has many templates. Fully implemented for Provor CTS5 decoders only.</t>
+  </si>
+  <si>
+    <t>040b</t>
+  </si>
+  <si>
+    <t>040c</t>
+  </si>
+  <si>
+    <t>Manage transmission errors of float 6902906 (decId 111).</t>
+  </si>
+  <si>
+    <t>040d</t>
+  </si>
+  <si>
+    <t>Add decId 127 in decoder RT version.</t>
+  </si>
+  <si>
+    <t>040e</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m          
+decode_provor_iridium_sbd_delayed.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 6904105: remove one email that has been sent twice
+ - 3901644: remove 2 emails that have not probably been sent by this float</t>
+  </si>
+  <si>
+    <t>040f</t>
+  </si>
+  <si>
+    <t>Manage transmission errors of float 3902137 (decId 212).</t>
+  </si>
+  <si>
+    <t>040g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+compute_first_last_msg_time_from_iridium_mail.m  
+create_decoding_buffers_222_223.m                </t>
+  </si>
+  <si>
+    <t>Manage transmission errors of float 3901997 (decId 222).</t>
+  </si>
+  <si>
+    <t>040h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+decode_provor_iridium_rudics_cts5_payload.m  
+decode_provor_iridium_rudics_cts5_usea.m     
+duplicate_files_ir_cts5.m                    
+get_file_prefix_cts5.m                       
+get_float_cycle_list_iridium_rudics_cts5.m   
+parse_rsync_log_ir_rudics_cts5.m             
+parse_rsync_log_ir_rudics_cts5_usea.m        
+check_rsync_log_data_consistency.m  
+copy_cts5_files.m                   
+</t>
+  </si>
+  <si>
+    <t>Updated lists of files to be managed for Provor CTS5 floats.</t>
+  </si>
+  <si>
+    <t>040i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m          
+compute_prv_dates_221.m          </t>
+  </si>
+  <si>
+    <t>Correction of a bug in DecId 221 to compute cycle timings when the configuration informations have not been received (6902970 #23).</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20210419_041a</t>
+  </si>
+  <si>
+    <t>Based on '040i' version:
+ - New decoder (decId 114) for PROVOR CTS4 EuroSea (coriolis version 6.13).
+ - New decoder (decId 225) for PROVOR CTS3 (5.76) - duplicate of decoder 5.48 dedicated to ARVOR floats.
+ - Integration of sensors RAFOS and RAMSES into Apex APF11 Iridium decoders.
+ - 'CTD_PSAL' replaced by 'CTD-CNDC' in 'PARAMETER_SENSOR'.
+ - Updates due to new version of the GDAC checker (file_checker_java_v2.6_2021-03-30_spec_v2.6_2021-03-30): 
+   + Updates after the check of the entire EDAC with this checker.
+   + 'DOWN_IRRADIANCE670', 'TEMP_CNDC’, 'NB_SAMPLE_CTD’ and 'NB_SAMPLE_SFET’  moved from AUX file to checked Argo files.
+   + Activation of Arvor Deep PSAL RT adjustment.</t>
   </si>
 </sst>
 </file>
@@ -4112,11 +4219,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E241" sqref="E241"/>
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8226,6 +8333,159 @@
         <v>776</v>
       </c>
     </row>
+    <row r="242" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="B242" s="5">
+        <v>44258</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B243" s="5">
+        <v>44263</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B244" s="5">
+        <v>44272</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E244" s="7" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B245" s="5">
+        <v>44278</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E245" s="7" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="B246" s="5">
+        <v>44278</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E246" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B247" s="5">
+        <v>44285</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B248" s="5">
+        <v>44292</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E248" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B249" s="5">
+        <v>44294</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E249" s="7" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" s="9" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B250" s="11">
+        <v>44305</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="D250" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E250" s="14" t="s">
+        <v>799</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E229"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="819">
   <si>
     <t>Version name</t>
   </si>
@@ -3801,6 +3801,129 @@
    + Updates after the check of the entire EDAC with this checker.
    + 'DOWN_IRRADIANCE670', 'TEMP_CNDC’, 'NB_SAMPLE_CTD’ and 'NB_SAMPLE_SFET’  moved from AUX file to checked Argo files.
    + Activation of Arvor Deep PSAL RT adjustment.</t>
+  </si>
+  <si>
+    <t>041a</t>
+  </si>
+  <si>
+    <t>041b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m     </t>
+  </si>
+  <si>
+    <t>DecId 127 (for Coriolis float version 7.12) should be in the "g_decArgo_decoderIdListBgcFloatAll" list so that PTS data are interpolated before used for BGC parameter RTQC or adjustment.</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_nc_meta_file_3_1.m</t>
+  </si>
+  <si>
+    <t>Correction of a bug in META.nc generation (when NB_SAMPLE_CTD or NB_SAMPLE_SFET is added "on the fly" to parameter list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+add_rtqc_to_profile_file.m                          
+check_provor_arvor_hydraulic_type.m                 
+decode_provor.m                                     
+decode_prv_data_ir_sbd_210_211.m                    
+decode_prv_data_ir_sbd_212.m                        
+decode_prv_data_ir_sbd_213.m                        
+decode_prv_data_ir_sbd_214_217.m                    
+decode_prv_data_ir_sbd_222_223_225.m                
+decode_prv_data_ir_sbd_224.m                        
+decode_sbd_file.m                                   
+decode_science_log_apx_apf11_ir.m                   
+decode_system_log_apx_apf11_ir_1121.m               
+decode_system_log_apx_apf11_ir_1122.m               
+decode_system_log_apx_apf11_ir_1123.m               
+decode_system_log_apx_apf11_ir_1124.m               
+decode_system_log_apx_apf11_ir_1125.m               
+decode_system_log_apx_apf11_ir_1126.m               
+decode_system_log_apx_apf11_ir_1127.m               
+decode_system_log_apx_apf11_ir_1321.m               
+decode_system_log_apx_apf11_ir_1322.m               
+decode_system_log_apx_apf11_ir_1323.m               
+get_ice_detection_apx_apf11_init_struct.m           
+init_tech_info_struct_126.m                         
+init_tech_info_struct_127.m                         
+process_apx_apf11_ir_ice_evts_1122.m                
+process_apx_apf11_ir_ice_evts_1124.m                
+process_apx_apf11_ir_ice_evts_1126.m                
+process_trajectory_data_apx_apf11_ir.m              
+remove_temporary_dates_from_profile_apx_apf11_ir.m 
+nc_create_synthetic_profile.m     
+nc_create_synthetic_profile_rt.m  
+nc_create_synthetic_profile_.m
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - checked all Apex APF11 floats to update Ice detection algorithm + Ice detection list. New Ice detection code for float 6903567.
+ - Apex APF11: improved version of DOXY PRES determination when timestamps are not available (6903552, 7900563).
+ - Provor CTS5-USEA: manage of special caracter "°" on Linux.
+ - Arvor and Provor: comparison of « Hydraulic type (0 : ARVOR, 1 : PROVOR) » technical information with decoder Id to detect erroneous attribution of a Provor decoder to an Arvor one and vice-versa.
+ - update of S-PROF generator (nc_create_synthetic_profile(_rt) tool) to exclude Bounce profiles from S-PROF.
+</t>
+  </si>
+  <si>
+    <t>041c</t>
+  </si>
+  <si>
+    <t>041d</t>
+  </si>
+  <si>
+    <t>041e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+decode_provor_iridium_sbd.m   
+decode_prv_data_ir_sbd_212.m  
+decode_prv_data_ir_sbd_213.m  
+decode_sbd_file.m             
+</t>
+  </si>
+  <si>
+    <t>Add decoder Id information in decId 212 and 213 functions (for check_provor_arvor_hydraulic_type function).</t>
+  </si>
+  <si>
+    <t>041f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+add_rtqc_to_profile_file.m                     
+compute_DOXY_ADJUSTED.m                        
+compute_rt_adjusted_param.m                    
+create_decoding_buffers_212_214_216_217_218.m  
+create_decoding_buffers_221.m                  
+create_decoding_buffers_222_223_225.m          
+create_decoding_buffers_224.m                  
+create_decoding_buffers_arvor_c.m              
+get_rt_adj_info_from_meta_data.m               
+get_rt_offset.m
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Update DOXY RTQC and DOXY adjustment according to version 2.1 of Argo Quality Control Manual for Dissolved Oxygen Concentration
+ - New case for DOXY_ADJUSTED_ERROR ("increasing error in time" method)
+ - NKE Arvor and Provor buffer management: buffer is declared completed even if the number of received paquets is greater than expected</t>
+  </si>
+  <si>
+    <t>042a</t>
+  </si>
+  <si>
+    <t>Based on '041f' version:
+ - Update of PROVOR CTS5-USEA 7.12 decoder (decId 127) to manage ECO2 data.
+ - Apex APF11 2.15.0.R decoder: management of issue with FLBB_CD transmitted in FLBB_BB structure.
+ - New decoder for Apex APF11 2.15.2.R version (decId 1128).</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20210512_042a</t>
   </si>
 </sst>
 </file>
@@ -4219,11 +4342,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E250"/>
+  <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E250" sqref="E250"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D264" sqref="D264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8471,7 +8594,7 @@
     </row>
     <row r="250" spans="1:5" s="9" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="10" t="s">
-        <v>773</v>
+        <v>800</v>
       </c>
       <c r="B250" s="11">
         <v>44305</v>
@@ -8484,6 +8607,108 @@
       </c>
       <c r="E250" s="14" t="s">
         <v>799</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B251" s="5">
+        <v>44307</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E251" s="7" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B252" s="5">
+        <v>44309</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B253" s="5">
+        <v>44314</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E253" s="7" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B254" s="5">
+        <v>44314</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E254" s="7" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B255" s="5">
+        <v>44316</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E255" s="7" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" s="9" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="B256" s="11">
+        <v>44328</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="D256" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E256" s="14" t="s">
+        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="831">
   <si>
     <t>Version name</t>
   </si>
@@ -3924,6 +3924,67 @@
   <si>
     <t>C
 decArgo_20210512_042a</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+decode_prv_data_ir_rudics_cts4_111_113_114.m         
+create_decoding_buffers_222_223_225.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Correct inconsistencies in 6900791 and 6903579 float transmissions.</t>
+  </si>
+  <si>
+    <t>042b</t>
+  </si>
+  <si>
+    <t>042c</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+add_rtqc_to_profile_file.m                         
+add_rtqc_to_trajectory_file.m                      
+compute_prv_dates_ir_rudics_105_to_110_112_sbd2.m  
+fill_empty_profile_locations_ir_rudics.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - few corrections to process Provor Remocean floats in DM mode
+ - modification of RTQC (to be compliant to  version 3.5 of Argo Quality Control Manual For CTD and Trajectory Data): new test application order (tests 15 and 19 have moved) + a measurement with QC = '3' is tested by other quality control tests</t>
+  </si>
+  <si>
+    <t>042d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+compute_PPOX_DOXY_106.m                         
+compute_PPOX_DOXY_112.m                         
+compute_profile_derived_parameters_ir_rudics.m  
+convert_sbd_files_apex_apf11_iridium_sbd.m      
+decode_apex_iridium_rudics_data_apf11.m         
+decode_prv_data_ir_rudics_cts4_111_113_114.m    
+process_apx_apf11_ir_profile.m                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - PPOX_DOXY processing for Provor CTS4 5.91 &amp; 5.94
+ - bug in VSS creation of Apex APF11 (float WMO 7900579)
+ - manage erroneous APF11 transmitted files (empty .gz file or corrupted .gz file)
+ - Provor CTS4 6.13: bug in "grounding information" packet decoding </t>
+  </si>
+  <si>
+    <t>043a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20210622_043a</t>
+  </si>
+  <si>
+    <t>Based on '042d' version:
+ - Update of PROVOR CTS5-USEA 7.12 decoder to manage RAMSES data.
+ - New decoder for PROVOR CTS4 AtlantOs 6.14: for ECO3 as ECO_FLBB2 instead of ECO_FLBBCD.
+ - New decoder for Apex APF9 Iridium 073014_2: use of the « the Aanderaa standard calibration + 2-point adjustment » method to compute DOXY.
+ - Apex APF11: new management of O2 measurements with no timestamps =&gt; PRES_QC = MTIME_QC = ‘2’ in PROF files and PRES_QC = JULD_QC = ‘2’ in TRAJ file.</t>
   </si>
 </sst>
 </file>
@@ -4342,11 +4403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E256"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D264" sqref="D264"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8711,6 +8772,74 @@
         <v>817</v>
       </c>
     </row>
+    <row r="257" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B257" s="5">
+        <v>44343</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E257" s="7" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B258" s="5">
+        <v>44351</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E258" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B259" s="5">
+        <v>44356</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" s="9" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="B260" s="11">
+        <v>44369</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="D260" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E260" s="14" t="s">
+        <v>830</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E229"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="858">
   <si>
     <t>Version name</t>
   </si>
@@ -3985,6 +3985,156 @@
  - New decoder for PROVOR CTS4 AtlantOs 6.14: for ECO3 as ECO_FLBB2 instead of ECO_FLBBCD.
  - New decoder for Apex APF9 Iridium 073014_2: use of the « the Aanderaa standard calibration + 2-point adjustment » method to compute DOXY.
  - Apex APF11: new management of O2 measurements with no timestamps =&gt; PRES_QC = MTIME_QC = ‘2’ in PROF files and PRES_QC = JULD_QC = ‘2’ in TRAJ file.</t>
+  </si>
+  <si>
+    <t>043b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+decode_provor_iridium_rudics_cts5_payload.m  
+decode_provor_iridium_rudics_cts5_usea.m                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - MC order list is not defined for PROVOR CTS5 floats</t>
+  </si>
+  <si>
+    <t>043c</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers_222_223_225.m
+nc_copy_mono_profile_qc.m
+nc_copy_mono_profile_qc_rt.m
+nc_copy_mono_profile_qc_.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Correct inconsistencies in 6900791 float transmissions.
+ - New management of profile comparison in nc_copy_mono_profile_qc* tools</t>
+  </si>
+  <si>
+    <t>043d</t>
+  </si>
+  <si>
+    <t>Correct inconsistencies in 6904134 and 6903264 float transmissions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+compute_prv_dates_ir_rudics_111_113_114_115.m  
+create_decoding_buffers_212_214_216_217_218.m  
+create_decoding_buffers_222_223_225.m          
+create_decoding_buffers_cts4.m                 
+get_mc_order_list.m                            
+</t>
+  </si>
+  <si>
+    <t>043e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_decoding_buffers_212_214_216_217_218.m  
+create_decoding_buffers_221.m                  
+create_decoding_buffers_222_223_225.m          
+create_decoding_buffers_224.m                  
+</t>
+  </si>
+  <si>
+    <t>Set reset flag when a reset is detected in the reset dates.</t>
+  </si>
+  <si>
+    <t>043f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_decoding_buffers_222_223_225.m          
+</t>
+  </si>
+  <si>
+    <t>Correct inconsistencies in 6903064, 6904067 and 6904068 float transmissions.</t>
+  </si>
+  <si>
+    <t>043g</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+add_rtqc_to_profile_file.m                   
+adjust_clock_offset_apx_apf11_ir.m           
+adjust_pres_from_surf_offset_apx_apf11_ir.m  
+create_technical_time_series_apx_apf11_ir.m  
+decode_system_log_apx_apf11_ir_1121.m        
+decode_system_log_apx_apf11_ir_1122.m        
+decode_system_log_apx_apf11_ir_1123.m        
+decode_system_log_apx_apf11_ir_1124.m        
+decode_system_log_apx_apf11_ir_1125.m        
+decode_system_log_apx_apf11_ir_1126.m        
+decode_system_log_apx_apf11_ir_1127.m        
+decode_system_log_apx_apf11_ir_1128.m        
+decode_system_log_apx_apf11_ir_1321.m        
+decode_system_log_apx_apf11_ir_1322.m        
+decode_system_log_apx_apf11_ir_1323.m        
+get_netcdf_param_attributes_3_1.m            
+print_ice_info_apx_apf11_in_csv_file.m       
+process_apx_apf11_ir_ice_evts_1122.m         
+process_apx_apf11_ir_ice_evts_1124.m         
+process_apx_apf11_ir_ice_evts_1125.m         
+process_apx_apf11_ir_ice_evts_1126.m         
+process_decoded_data.m                       
+process_trajectory_data_apx_apf11_ir.m       
+update_float_config_ir_sbd_221.m             
+update_float_config_ir_sbd_222_223_225.m     
+update_float_config_ir_sbd_224.m 
+get_platform_family.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - manage Ice information reported by 2.14.3.R ApeF11 floats
+ - profile RTQC version 5.5 (To follow Virginie Racapé's recomendation, TEST 25: MEDD test is not performed on (PRES, TEMP_DOXY) profiles)
+ - correct a bug in configuration management (when a reset is detected during the PRELUDE) - detected on float 6903584</t>
+  </si>
+  <si>
+    <t>043h</t>
+  </si>
+  <si>
+    <t>Adjustment should not be allowed for 'NB_SAMPLE_CTD' parameter.</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+get_netcdf_param_attributes_3_1.m
+create_nc_multi_prof_c_file_3_1.m
+create_nc_mono_prof_c_files_3_1.m</t>
+  </si>
+  <si>
+    <t>043i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_decoding_buffers_cts4.m          
+</t>
+  </si>
+  <si>
+    <t>Correct inconsistencies in 6903240 float transmissions.</t>
+  </si>
+  <si>
+    <t>044a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20210913_044a</t>
+  </si>
+  <si>
+    <t>Based on '043i' version:
+- TRAJ 3.2 file can be optionally generated.
+- RTQC and additionnal tools have been updated to manage TRAJ 3.1 and TRAJ 3.2 files.
+-  Iridium locations are added in the TRAJ 3.1 and TRAJ 3.2 files.
+- Error ellipses of Argos locations can be optionally added in the trajectory.
+- New ECO2 sensor managed by the decoder for Apex APF11 2.15.2.R floats.
+- Review of the Provor CTS4 algorithm for buffer generation to manage "nominal" cases of delayed transmissions.</t>
   </si>
 </sst>
 </file>
@@ -4403,11 +4553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E260"/>
+  <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D271" sqref="D271"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E280" sqref="E280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8840,6 +8990,159 @@
         <v>830</v>
       </c>
     </row>
+    <row r="261" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B261" s="5">
+        <v>44371</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E261" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B262" s="5">
+        <v>44379</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E262" s="7" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B263" s="5">
+        <v>44385</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E263" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B264" s="5">
+        <v>44538</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E264" s="7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B265" s="5">
+        <v>44400</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>844</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E265" s="7" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B266" s="5">
+        <v>44424</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E266" s="7" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="B267" s="5">
+        <v>44433</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="B268" s="5">
+        <v>44442</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E268" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="B269" s="11">
+        <v>44452</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="D269" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E269" s="14" t="s">
+        <v>857</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E229"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="920">
   <si>
     <t>Version name</t>
   </si>
@@ -4135,6 +4135,308 @@
 - Error ellipses of Argos locations can be optionally added in the trajectory.
 - New ECO2 sensor managed by the decoder for Apex APF11 2.15.2.R floats.
 - Review of the Provor CTS4 algorithm for buffer generation to manage "nominal" cases of delayed transmissions.</t>
+  </si>
+  <si>
+    <t>044b</t>
+  </si>
+  <si>
+    <t>Do not consider Iridium location in the consistency check of JULD_FIRST_LOCATION(_STATUS) and JULD_LAST_LOCATION(_STATUS)</t>
+  </si>
+  <si>
+    <t>044c</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_nc_traj_file_3_2.m
+process_apx_apf11_ir_config_evts_1124_25_28.m</t>
+  </si>
+  <si>
+    <t>APF11 2.15.2.R: manage the case when a given sample configuration is not provided on the same timestamp (ex: 7900588 #23).
+Do not put the TRAJ 3.2 file in the XML report when it is generated in a dedicated directory (different from DIR_OUTPUT_NETCDF_TRAJ_3_2_FILE).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+finalize_trajectory_data_ir_sbd_nva.m  
+process_trajectory_data_2001_2003.m    
+process_trajectory_data_2002.m         
+set_n_cycle_vs_n_meas_consistency.m    </t>
+  </si>
+  <si>
+    <t>JULD_FIRST/LAST_LOCATION should consider GPS AND Iridium locations</t>
+  </si>
+  <si>
+    <t>044d</t>
+  </si>
+  <si>
+    <t>044e</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+merge_first_last_msg_time_ir_rudics_105_to_110_112_sbd2.m</t>
+  </si>
+  <si>
+    <t>For 6902905 trajectory (warning set by the checker).</t>
+  </si>
+  <si>
+    <t>044f</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+duplicate_files_ir_cts5.m
+copy_cts5_files.m</t>
+  </si>
+  <si>
+    <t>Ignored some files transmitted by Provor CTS5 #6903124.</t>
+  </si>
+  <si>
+    <t>044g</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+add_rtqc_flags_to_netcdf_profile_and_trajectory_data</t>
+  </si>
+  <si>
+    <t>Use TRAJ 3.1, if present, for Profiles RTQC; otherwise use TRAJ 3.2.</t>
+  </si>
+  <si>
+    <t>044h</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_nc_traj_b_file_3_1</t>
+  </si>
+  <si>
+    <t>TRAJ B file: bug in duplication of parameter value in parameter adjused value when there is no adjustment.</t>
+  </si>
+  <si>
+    <t>044i</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_nc_mono_prof_aux_files.m          
+create_nc_mono_prof_b_files_3_1.m        
+create_nc_mono_prof_c_files_3_1.m        
+create_nc_multi_prof_b_file_3_1.m        
+create_nc_multi_prof_c_file_3_1.m        
+decode_apex_iridium_rudics_data_apf11.m  
+decode_apex_iridium_sbd_data_apf11.m     
+decode_system_log_apx_apf11_ir_1128.m    
+process_apx_apf11_ir_ice_evts_1122.m     
+process_apx_apf11_ir_ice_evts_1124.m     
+process_apx_apf11_ir_ice_evts_1125.m     
+process_apx_apf11_ir_ice_evts_1128.m     
+process_apx_apf11_ir_profile.m</t>
+  </si>
+  <si>
+    <t>Manage Ice information reported by 2.15.0.R ApeF11 floats.</t>
+  </si>
+  <si>
+    <t>044j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_nc_mono_prof_aux_files.m    
+create_nc_mono_prof_c_files_3_1.m  
+create_nc_traj_c_file_3_1.m        
+create_nc_traj_file.m              
+create_nc_traj_file_3_2.m </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - bug in PROF_AUX file conditionnal generation. Now, when a core PROF file is generated (for a guiven cycle and direction), the associated PROF_AUX file is also generated.
+ - the TRAJ_AUX file should be generated once (even if TRAJ 3.1 and TRAJ 3.2 are generated).</t>
+  </si>
+  <si>
+    <t>044k</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers_212_214_216_217_218.m  
+create_decoding_buffers_221.m                  
+create_decoding_buffers_222_223_225.m          
+create_decoding_buffers_224.m                  
+create_decoding_buffers_cts4.m</t>
+  </si>
+  <si>
+    <t>Uninitialized variable in buffer information.</t>
+  </si>
+  <si>
+    <t>044l</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+add_iridium_locations_in_trajectory_data.m        
+decode_apex_iridium_sbd_data_1314.m               
+decode_apex_iridium_sbd_data_apf11.m              
+decode_prv_data_ir_rudics_cts4_105_to_110_112.m   
+decode_prv_data_ir_rudics_cts4_111_113_114_115.m  
+decode_prv_data_ir_sbd2_301.m                     
+decode_prv_data_ir_sbd2_302_303.m                 
+decode_prv_data_ir_sbd_201_203.m                  
+decode_prv_data_ir_sbd_202.m                      
+decode_prv_data_ir_sbd_204.m                      
+decode_prv_data_ir_sbd_205.m                      
+decode_prv_data_ir_sbd_206_207_208.m              
+decode_prv_data_ir_sbd_209.m                      
+decode_prv_data_ir_sbd_210_211.m                  
+decode_prv_data_ir_sbd_212.m                      
+decode_prv_data_ir_sbd_213.m                      
+decode_prv_data_ir_sbd_214_217.m                  
+decode_prv_data_ir_sbd_215.m                      
+decode_prv_data_ir_sbd_216.m                      
+decode_prv_data_ir_sbd_218.m                      
+decode_prv_data_ir_sbd_221.m                      
+decode_prv_data_ir_sbd_222_223_225.m              
+decode_prv_data_ir_sbd_224.m                      
+get_clock_and_pres_offset_nemo.m                  
+get_config_mission_number_nemo.m                  
+init_float_config_nemo.m                          
+update_mail_data_ir_rudics_sbd2.m</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+report_rt_adjusted_profile_data_in_trajectory</t>
+  </si>
+  <si>
+    <t>Bug in profile QC reporting into trajectory when no data is available.</t>
+  </si>
+  <si>
+    <t>044m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Provor CTS4 5.8 (INCOIS FLBB floats): corrections for DM processing of these floats.
+ - Provor/Arvor Iridium: correct decoding of positive values of the CalibCoefB coefficient used to compute the internal vacuum.
+ - corrections needed to decode NEMO float #7900477.</t>
+  </si>
+  <si>
+    <t>044n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_decoding_buffers_212_214_216_217_218.m  
+create_decoding_buffers_221.m                  
+create_decoding_buffers_222_223_225.m          
+create_decoding_buffers_224.m                  
+decode_prv_data_30.m                           
+decode_prv_data_32.m                           
+</t>
+  </si>
+  <si>
+    <t>Correct inconsistencies in 6903771 float transmissions.
+INFO message (instead of ERROR) when Argos transmitted cycle numbers are insconsistent because of EOL mode.</t>
+  </si>
+  <si>
+    <t>044o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+julian_2_epoch70.m                           
+</t>
+  </si>
+  <si>
+    <t>The julian_2_epoch70 function (used for Argos error ellipses) was missing in the '044a' delivery.</t>
+  </si>
+  <si>
+    <t>044p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+add_argos_error_ellipses.m  
+init_config_values.m 
+</t>
+  </si>
+  <si>
+    <t>There is only one (top) directory to store Argos error ellipses collected by web service.</t>
+  </si>
+  <si>
+    <t>6903800: float recovered by fisherman, buffers need to be cleared.
+6904067: correct inconsistencies of float transmissions.</t>
+  </si>
+  <si>
+    <t>044q</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers_222_223_225.m  
+update_mail_data_ir_sbd_delayed.m</t>
+  </si>
+  <si>
+    <t>044r</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers_212_214_216_217_218</t>
+  </si>
+  <si>
+    <t>6903019: correct inconsistencies of float transmissions.</t>
+  </si>
+  <si>
+    <t>044s</t>
+  </si>
+  <si>
+    <t>3902121: correct inconsistencies of float transmissions.</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers_cts4.m                    
+decode_prv_data_ir_rudics_cts4_105_to_110_112.m   
+decode_prv_data_ir_rudics_cts4_111_113_114_115.m</t>
+  </si>
+  <si>
+    <t>044t</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers_212_214_216_217_218.m
+create_decoding_buffers_222_223_225.m</t>
+  </si>
+  <si>
+    <t>7900543: correct inconsistencies of float transmissions.
+6904072: correct inconsistencies of float transmissions.</t>
+  </si>
+  <si>
+    <t>044u</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+decode_prv_data_ir_rudics_cts4_105_to_110_112.m</t>
+  </si>
+  <si>
+    <t>6901656: badly managed empty sensor TECH for OCR (cycle 286, 0)</t>
+  </si>
+  <si>
+    <t>045a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20211108_045a</t>
+  </si>
+  <si>
+    <t>Based on '044u' version: updates of the code to improve its efficiency.
+Study of specific decodings:
+ - Provor CTS3: 6902943, 6902804
+ - Provor CTS4: 6903240, 3902122, 6903249, 3902121
+ - Provor CTS5: 6904116, 6904117, 6902969
+ - Apex APF11 Rudics: 7900562, 6903569
+ - Apex APF11 Sbd: 3901668, 3901669</t>
   </si>
 </sst>
 </file>
@@ -4553,11 +4855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E269"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E280" sqref="E280"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E290" sqref="E290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9143,6 +9445,363 @@
         <v>857</v>
       </c>
     </row>
+    <row r="270" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="B270" s="5">
+        <v>44452</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E270" s="7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="B271" s="5">
+        <v>44452</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B272" s="5">
+        <v>44454</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E272" s="6" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="B273" s="5">
+        <v>44456</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="B274" s="5">
+        <v>44459</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A275" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="B275" s="5">
+        <v>44466</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="B276" s="5">
+        <v>44466</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A277" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="B277" s="5">
+        <v>44467</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E277" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A278" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B278" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E278" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A279" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B279" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E279" s="7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B280" s="5">
+        <v>44477</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E280" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A281" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="B281" s="5">
+        <v>44480</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E281" s="7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A282" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="B282" s="5">
+        <v>44483</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E282" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A283" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="B283" s="5">
+        <v>44489</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E283" s="7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="B284" s="5">
+        <v>44489</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E284" s="7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A285" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="B285" s="5">
+        <v>44491</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E285" s="7" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="B286" s="5">
+        <v>44502</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E286" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="B287" s="5">
+        <v>44503</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>910</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E287" s="7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="B288" s="5">
+        <v>44507</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E288" s="7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="B289" s="5">
+        <v>44508</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E289" s="7" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="B290" s="11">
+        <v>44508</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="D290" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E290" s="14" t="s">
+        <v>919</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E229"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="941">
   <si>
     <t>Version name</t>
   </si>
@@ -4437,6 +4437,98 @@
  - Provor CTS5: 6904116, 6904117, 6902969
  - Apex APF11 Rudics: 7900562, 6903569
  - Apex APF11 Sbd: 3901668, 3901669</t>
+  </si>
+  <si>
+    <t>045b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+add_argos_error_ellipses.m   
+compute_rt_adjusted_param.m  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - no RT adjustment  in case of EOL reception (3901931)
+ - no ellipses for some floats (1900930)</t>
+  </si>
+  <si>
+    <t>045c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+finalize_trajectory_data_ir_sbd.m
+update_gps_position_qc_ir_sbd.m
+</t>
+  </si>
+  <si>
+    <t>Provor 3901678: merge EOL N_MEAS surface measurements
+Nova 3901678: g_decArgo_gpsData{13} not present</t>
+  </si>
+  <si>
+    <t>045d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_decoding_buffers_212_214_216_217_218.m
+</t>
+  </si>
+  <si>
+    <t>6901880: correct inconsistencies of float transmissions.</t>
+  </si>
+  <si>
+    <t>045e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+decode_apmt_meas.m
+</t>
+  </si>
+  <si>
+    <t>Bug in decoding 8 bits data from RAMSES sensor.</t>
+  </si>
+  <si>
+    <t>045f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+get_apx_apf11_ir_float_time_init_struct.m       
+process_apx_apf11_ir_time_evts_1121_23_26_27.m  
+process_apx_apf11_ir_time_evts_1122.m           
+process_apx_apf11_ir_time_evts_1124_25.m        
+process_apx_apf11_ir_time_evts_1128.m           
+process_apx_apf11_ir_time_evts_1321_to_23.m    
+</t>
+  </si>
+  <si>
+    <t>In APF11 Iridium decoder, the SURFACE event 'Inflating air bladder' is used to assign MC = 710 or 711 to DO measurements. The first occurrence of the event should be used (not the last one).</t>
+  </si>
+  <si>
+    <t>045g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+finalize_trajectory_data_ir_sbd  
+</t>
+  </si>
+  <si>
+    <t>Manage specificities of 3901963 transmissions.</t>
+  </si>
+  <si>
+    <t>046a</t>
+  </si>
+  <si>
+    <t>Based on '045g' version: 
+ - New decoder (decId 128) for PROVOR CTS5-USEA (7.13) floats equiped with a MPE sensor.</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20211125_046a</t>
   </si>
 </sst>
 </file>
@@ -4855,11 +4947,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:E297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E290" sqref="E290"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E301" sqref="E301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9802,6 +9894,125 @@
         <v>919</v>
       </c>
     </row>
+    <row r="291" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A291" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B291" s="5">
+        <v>44508</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E291" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A292" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B292" s="5">
+        <v>44509</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="B293" s="5">
+        <v>44509</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E293" s="7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="B294" s="5">
+        <v>44509</v>
+      </c>
+      <c r="C294" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E294" s="7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="B295" s="5">
+        <v>44510</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E295" s="7" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B296" s="5">
+        <v>44519</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E296" s="7" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" s="9" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="B297" s="11">
+        <v>44525</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="D297" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E297" s="14" t="s">
+        <v>939</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E229"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C8BA44-E4F3-4041-BAE9-FEFF309916BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="988">
   <si>
     <t>Version name</t>
   </si>
@@ -4530,11 +4531,228 @@
     <t>C
 decArgo_20211125_046a</t>
   </si>
+  <si>
+    <t>046b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_decoding_buffers_212_214_216_217_218.m
+create_decoding_buffers_222_223_225.m
+get_meta_data_cts5_128.m
+</t>
+  </si>
+  <si>
+    <t>Manage specificities of 6900790, 6900791 and 6904068 transmissions.
+Update generate_json_float_meta_prv_cts5_ir_rudics_rt tool for MPE sensor.</t>
+  </si>
+  <si>
+    <t>046c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_decoding_buffers_cts4.m   
+duplicate_files_ir_cts5.m        
+get_event_data_cts5.m            
+init_tech_info_struct_124_125.m  
+init_tech_info_struct_126.m      
+init_tech_info_struct_127.m      
+init_tech_info_struct_128.m      
+read_apmt_technical.m
+copy_cts5_files.m
+</t>
+  </si>
+  <si>
+    <t>Manage specificities of 6904111 transmissions.
+Ignored erroneous system files (#102 and #106) transmitted by 6903094 float.</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers_cts4.m  
+process_apx_apf11_ir_profile.m</t>
+  </si>
+  <si>
+    <t>046e</t>
+  </si>
+  <si>
+    <t>Manage specificities of 6904111 transmissions.
+Manage spectrum (Ramses) data in APF11 Ice (bounce) profiles (case of 7900589 float).</t>
+  </si>
+  <si>
+    <t>046f</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers_212_214_216_217_218.m
+nc_update_argo_format_set_DEPLOYMENT_CRUISE_ID_08aa.m
+update_meta_json_set_DEPLOYMENT_CRUISE_ID.m</t>
+  </si>
+  <si>
+    <t>Manage specificities of 6901880 transmissions.
+2 tools to update DEPLOYMENT_CRUISE_ID information in META.nc and META.json files</t>
+  </si>
+  <si>
+    <t>046g</t>
+  </si>
+  <si>
+    <t>Manage specificities of 6903109 and  6903229 transmissions.</t>
+  </si>
+  <si>
+    <t>046h</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers_cts4.m</t>
+  </si>
+  <si>
+    <t>Manage specificities of 6904111 transmissions: as this float regularly transmits (unused) Vector Pressure packets during the second Iridium session, the PROVOR CTS4 buffer algorithm has been updated to autpmatically ignore them.</t>
+  </si>
+  <si>
+    <t>046i</t>
+  </si>
+  <si>
+    <t>Ignored erroneous system file (#110) transmitted by 6903094 float.</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+duplicate_files_ir_cts5.m        
+copy_cts5_files.m</t>
+  </si>
+  <si>
+    <t>046j</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+nc_update_argo_format_set_SPECIAL_FEATURES_09aa.m
+update_meta_json_set_SPECIAL_FEATURES.m</t>
+  </si>
+  <si>
+    <t>2 tools to update SPECIAL_FEATURES information in META.nc and META.json files</t>
+  </si>
+  <si>
+    <t>046k</t>
+  </si>
+  <si>
+    <t>DecId 111: check that an OPTODE is mounted on the float before trying to retrieve CONFIG_PX_1_1_0_0_0 (optodeVerticalOffset) from the configuration</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+process_trajectory_data_ir_rudics_sbd2.m
+update_meta_data.m</t>
+  </si>
+  <si>
+    <t>046l</t>
+  </si>
+  <si>
+    <t>Apex Iridium Rudics decoders: allow "floatRudicsId/floatRudicsId.*" or "&gt;f+++++++++ floatRudicsId.*" patterns in rsync log files.
+DecId 111: manage Emergency Ascent data (with reset of Cycle and Profile numbers) - for 2902242 (254, 0).
+6903795: correct inconsistencies of float transmissions.
+'UV_INTENSITY_DARK_NITRATE_STD' should not be declare (yet) as a parameter (in update_meta_data of '046k' the future update was not correctly commented).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+collect_traj_data_from_float_tech_ir_rudics_111_113_114_115.m  
+collect_trajectory_data_ir_rudics_111_113_114_115.m            
+compute_prv_dates_ir_rudics_111_113_114_115.m                  
+create_decoding_buffers_212_214_216_217_218.m                  
+create_decoding_buffers_cts4.m                                 
+parse_rsync_log_ir_rudics_apex_nemo.m                          
+process_decoded_data_cts4.m                                    
+process_trajectory_data_ir_rudics_sbd2.m                       
+set_n_cycle_vs_n_meas_consistency.m                            
+update_meta_data.m                                             </t>
+  </si>
+  <si>
+    <t>046m</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers_222_223_225.m
+update_meta_data.m</t>
+  </si>
+  <si>
+    <t>Set PARAMETER_UNITS, PREDEPLOYMENT_CALIB_COEFFICIENT (to 'n/a') and PREDEPLOYMENT_CALIB_EQUATION (to 'n/a') to all checked parameters.
+6903793: correct inconsistencies of float transmissions.</t>
+  </si>
+  <si>
+    <t>046n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_decoding_buffers_222_223_225.m     
+update_float_config_ir_sbd_210_211_213.m  
+update_float_config_ir_sbd_212_214_217.m  
+update_float_config_ir_sbd_222_223_225.m  
+update_float_config_ir_sbd_224.m </t>
+  </si>
+  <si>
+    <t>Arvor/Provor Iridium decoders: correction of float capacity to automatically alternate profile pressure (MC15 configuration parameter) - for float 6904236.
+6904236: correct inconsistencies of float transmissions.</t>
+  </si>
+  <si>
+    <t>046o</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+decode_provor.m
+decode_provor_iridium_rudics_cts4_delayed.m</t>
+  </si>
+  <si>
+    <t>Manage "End decoding date" in Provor CTS4 Ice decoders (decode_provor_iridium_sbd_delayed).</t>
+  </si>
+  <si>
+    <t>046p</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers_212_214_216_217_218.m</t>
+  </si>
+  <si>
+    <t>6903703: correct inconsistencies of float transmissions.</t>
+  </si>
+  <si>
+    <t>046q</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+init_float_config_prv_ir_rudics_cts4_111_113_114_115.m</t>
+  </si>
+  <si>
+    <t>6903128 &amp; 6903129: remove error message in decIds 111, 113, 114, 115 when there is no OPTODE mounted on the float.</t>
+  </si>
+  <si>
+    <t>047a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20220217_047a</t>
+  </si>
+  <si>
+    <t>Based on '046q' version: 
+ - Manage anomalies discovered in BGC timestamps and BGC pressure measurements for PROVOR CTS5-USEA (7.11, 7.12, 7.13). Times and pressures are adjusted in real time.
+ - Correction of PROVOR CTS5-USEA configuration (acquisition parameter is not able to stop acquisition when sampling periods are not nul).
+ - Implementation of case 3_2_2 of DOXY RT adjustment.
+ - Correction of a typo in PREDEPLOYMENT_CALIB_COEFFICIENT of PPOX_DOXY for floats PROVOR CTS3: 5.72, PROVOR CTS4: 5.94, PROVOR CTS5: 7.03, 7.05 and Apex APF9 Iridium RUDICS: 073014_2.
+ - Correct inconsistencies in float 6903703  transmissions.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4736,6 +4954,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4771,6 +5006,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4946,12 +5198,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E297"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E301" sqref="E301"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E313" sqref="E313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10013,8 +10265,280 @@
         <v>939</v>
       </c>
     </row>
+    <row r="298" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A298" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="B298" s="5">
+        <v>44529</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E298" s="7" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A299" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="B299" s="5">
+        <v>44532</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E299" s="7" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A300" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="B300" s="5">
+        <v>44539</v>
+      </c>
+      <c r="C300" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E300" s="7" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A301" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="B301" s="5">
+        <v>44553</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>951</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E301" s="7" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A302" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="B302" s="5">
+        <v>44564</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E302" s="7" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A303" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="B303" s="5">
+        <v>44567</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E303" s="7" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A304" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="B304" s="5">
+        <v>44568</v>
+      </c>
+      <c r="C304" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E304" s="7" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A305" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="B305" s="5">
+        <v>44572</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>962</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E305" s="7" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A306" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="B306" s="5">
+        <v>44582</v>
+      </c>
+      <c r="C306" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E306" s="7" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A307" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="B307" s="5">
+        <v>44586</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E307" s="7" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A308" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="B308" s="5">
+        <v>44588</v>
+      </c>
+      <c r="C308" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E308" s="7" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A309" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="B309" s="5">
+        <v>44589</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E309" s="7" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A310" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="B310" s="5">
+        <v>44592</v>
+      </c>
+      <c r="C310" s="8" t="s">
+        <v>977</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E310" s="7" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A311" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="B311" s="5">
+        <v>44593</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E311" s="7" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B312" s="5">
+        <v>44596</v>
+      </c>
+      <c r="C312" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E312" s="7" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="B313" s="11">
+        <v>44609</v>
+      </c>
+      <c r="C313" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="D313" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E313" s="14" t="s">
+        <v>987</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E229"/>
+  <autoFilter ref="A1:E229" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C8BA44-E4F3-4041-BAE9-FEFF309916BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B4742B-887E-4BB0-A829-91E63F88A96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,12 +13,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$229</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1014">
   <si>
     <t>Version name</t>
   </si>
@@ -4747,6 +4758,123 @@
  - Implementation of case 3_2_2 of DOXY RT adjustment.
  - Correction of a typo in PREDEPLOYMENT_CALIB_COEFFICIENT of PPOX_DOXY for floats PROVOR CTS3: 5.72, PROVOR CTS4: 5.94, PROVOR CTS5: 7.03, 7.05 and Apex APF9 Iridium RUDICS: 073014_2.
  - Correct inconsistencies in float 6903703  transmissions.</t>
+  </si>
+  <si>
+    <t>047b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+compute_rt_adjusted_param.m     
+create_decoding_buffers_cts4.m  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - DOXY RT adjustment: no equation defined when no 'CASE' is provided
+ - 3902124: correct inconsistencies of float transmissions.</t>
+  </si>
+  <si>
+    <t>047c</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_nc_mono_prof_aux_files.m</t>
+  </si>
+  <si>
+    <t>6904139: crash when looking inside an empty array (case not reproduced).</t>
+  </si>
+  <si>
+    <t>047d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_decoding_buffers_212_214_216_217_218.m  
+create_decoding_buffers_221.m                  
+create_decoding_buffers_222_223_225.m          
+create_decoding_buffers_224.m                  
+parse_rsync_log_ir_rudics_apex_nemo.m  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 6902889: correct inconsistencies of float transmissions. 
+ - '046l': Apex Iridium Rudics decoders: allow "floatRudicsId/floatRudicsId.*" or "&gt;f+++++++++ floatRudicsId.*" patterns in rsync log files =&gt; anomaly corrected for Apex APF9 Iridium.</t>
+  </si>
+  <si>
+    <t>047e</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+get_cycle_float_file_list_iridium_rudics_apx_apf11.m
+get_float_cycle_list_iridium_rudics_apx_apf11.m</t>
+  </si>
+  <si>
+    <t>Apex APF11 Rudics: manage files without date in the file name (Ex: 6904113 #68, i.e. f09233.068.00000000T000000.science_log.bin.gz).</t>
+  </si>
+  <si>
+    <t>047f</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+rename_argos_input_file.m
+process_argos_data_apx.m</t>
+  </si>
+  <si>
+    <t>Try to adapt Argos Apex decoder to process 6903816 float which have a 7 h cycle period =&gt; failed (some files may be consider as ghost and other ones may stay in the spool).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_nc_mono_prof_aux_files.m                  
+create_nc_mono_prof_b_files_3_1.m                
+create_nc_mono_prof_c_files_3_1.m                
+create_nc_multi_prof_b_file_3_1.m                
+create_nc_multi_prof_c_file_3_1.m                
+process_apx_apf11_ir_rudics_clock_offset_evts.m  </t>
+  </si>
+  <si>
+    <t>When the VSS detailed description is too long, it is replaced by 'detailed description too long for available space'.</t>
+  </si>
+  <si>
+    <t>047h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_config_param_names_apx_ir.m  
+update_float_config_apx_apf11_ir.m  </t>
+  </si>
+  <si>
+    <t>Manage the new configuration parameter "ParkBottomDeltaPressure" that appeared in the Apex APF11 float 7900973.</t>
+  </si>
+  <si>
+    <t>047i</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+update_float_config_ir_sbd_222_223_225.m
+update_float_config_ir_sbd_224.m</t>
+  </si>
+  <si>
+    <t>NKE floats, decId 222 to 225: as the parameters packet is not transmitted all cycles, we must check the configuration until the MC1 first cycles are done</t>
+  </si>
+  <si>
+    <t>048a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20220406_048a</t>
+  </si>
+  <si>
+    <t>Based on '047i' version: 
+ - update of RTQC code to cope with version 3.6 or Argo QC manual:
+       + updated version of test #19 : Deepest Pressure Test
+       + implementation of new test #24 specific to pre-april 2021 RBR floats
+       + implementation of RT adjustment of RBR PSAL
+ - new version of S-PROF generator (new management for the QC of interpolated levels so that PROFILE_&lt;PARAM&gt;_QC are consistent)
+ - new version of PROFILE_&lt;PARAM&gt;_QC processing (update only concern S-PROF files)</t>
   </si>
 </sst>
 </file>
@@ -5199,11 +5327,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E313"/>
+  <dimension ref="A1:E322"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E313" sqref="E313"/>
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E332" sqref="E332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10537,6 +10665,159 @@
         <v>987</v>
       </c>
     </row>
+    <row r="314" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A314" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="B314" s="5">
+        <v>44613</v>
+      </c>
+      <c r="C314" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E314" s="7" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A315" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B315" s="5">
+        <v>44615</v>
+      </c>
+      <c r="C315" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E315" s="7" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A316" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="B316" s="5">
+        <v>44620</v>
+      </c>
+      <c r="C316" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E316" s="7" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A317" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B317" s="5">
+        <v>44620</v>
+      </c>
+      <c r="C317" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E317" s="7" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A318" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B318" s="5">
+        <v>44629</v>
+      </c>
+      <c r="C318" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E318" s="7" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A319" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B319" s="5">
+        <v>44644</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E319" s="7" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A320" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B320" s="5">
+        <v>44644</v>
+      </c>
+      <c r="C320" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E320" s="7" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B321" s="5">
+        <v>44652</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E321" s="7" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B322" s="11">
+        <v>44657</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D322" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E322" s="14" t="s">
+        <v>1013</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E229" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B4742B-887E-4BB0-A829-91E63F88A96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE690F8-D9AB-48B3-A9E6-1E918EC7828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1023">
   <si>
     <t>Version name</t>
   </si>
@@ -4875,6 +4875,46 @@
        + implementation of RT adjustment of RBR PSAL
  - new version of S-PROF generator (new management for the QC of interpolated levels so that PROFILE_&lt;PARAM&gt;_QC are consistent)
  - new version of PROFILE_&lt;PARAM&gt;_QC processing (update only concern S-PROF files)</t>
+  </si>
+  <si>
+    <t>048b</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers_222_223_225</t>
+  </si>
+  <si>
+    <t>Manage specificities of 6903046 transmissions.</t>
+  </si>
+  <si>
+    <t>048c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+check_apx_apf11_decoder_id.m               
+decode_system_log_apx_apf11_ir_1125.m      
+decode_system_log_apx_apf11_ir_1128.m      
+get_apx_apf11_ir_float_time_init_struct.m                        
+process_apx_apf11_ir_time_evts_1124_25.m   
+process_apx_apf11_ir_time_evts_1128.m      
+process_trajectory_data_apx_apf11_ir.m     </t>
+  </si>
+  <si>
+    <t>Manage subsurface measurements of cycle #0 for an Apex APF11 float started in pressure activated mode.</t>
+  </si>
+  <si>
+    <t>049a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20220428_049a</t>
+  </si>
+  <si>
+    <t>Based on '048c' version: 
+ - update decoder code to cope with version ‘file_checker_exec_v2.6_2022-04-19_spec_v2.6_2022-04-21’ of the checker
+ - update decoder code to set a location to each dated profile</t>
   </si>
 </sst>
 </file>
@@ -5327,10 +5367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E322"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E332" sqref="E332"/>
     </sheetView>
   </sheetViews>
@@ -10818,6 +10858,57 @@
         <v>1013</v>
       </c>
     </row>
+    <row r="323" spans="1:5" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B323" s="5">
+        <v>44662</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E323" s="7" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B324" s="5">
+        <v>44664</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E324" s="7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B325" s="11">
+        <v>44679</v>
+      </c>
+      <c r="C325" s="12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D325" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E325" s="14" t="s">
+        <v>1022</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E229" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE690F8-D9AB-48B3-A9E6-1E918EC7828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02952FA-73DC-46DD-85FD-C6695FB4A1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1031">
   <si>
     <t>Version name</t>
   </si>
@@ -4915,6 +4915,40 @@
     <t>Based on '048c' version: 
  - update decoder code to cope with version ‘file_checker_exec_v2.6_2022-04-19_spec_v2.6_2022-04-21’ of the checker
  - update decoder code to set a location to each dated profile</t>
+  </si>
+  <si>
+    <t>049b</t>
+  </si>
+  <si>
+    <t>Manage specificities of 6902802 transmissions.</t>
+  </si>
+  <si>
+    <t>049c</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+decode_science_log_apx_apf11_ir.m</t>
+  </si>
+  <si>
+    <t>Manage inconsistencies in RAMSES data size (7900589 #100).</t>
+  </si>
+  <si>
+    <t>050a</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20220601_050a</t>
+  </si>
+  <si>
+    <t>Based on '049c' version: 
+ - management of HYDROC oxygen sensor in Provor CTS5 7.13 (decId 128)
+ - bug in the algorithm use to set a location to each dated profile (Ir SBD floats only)
+ - bug in C-TRAJ 3.1 generator (may create inconsistencies between PARAM_QC and PARAM_ADJUSTED_QC)
+ - correction of anomalies specific to floats transmission data:
+Arvor/Provor CTS3: 6902861, 7900522, 6901880, 3902127, 6904236
+Provor CTS4: 6902902, 6903024
+Provor CTS5: 6904139</t>
   </si>
 </sst>
 </file>
@@ -5367,11 +5401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E325"/>
+  <dimension ref="A1:E328"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E332" sqref="E332"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C340" sqref="C340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5520,7 +5554,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" ht="142.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="9" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
@@ -5707,7 +5741,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
@@ -10858,7 +10892,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>1014</v>
       </c>
@@ -10907,6 +10941,57 @@
       </c>
       <c r="E325" s="14" t="s">
         <v>1022</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A326" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B326" s="5">
+        <v>44691</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E326" s="7" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B327" s="5">
+        <v>44694</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E327" s="7" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" s="9" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B328" s="11">
+        <v>44713</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D328" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E328" s="14" t="s">
+        <v>1030</v>
       </c>
     </row>
   </sheetData>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02952FA-73DC-46DD-85FD-C6695FB4A1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FAE30F-C03B-418D-8C28-98BB37F023BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="1075">
   <si>
     <t>Version name</t>
   </si>
@@ -4949,6 +4949,220 @@
 Arvor/Provor CTS3: 6902861, 7900522, 6901880, 3902127, 6904236
 Provor CTS4: 6902902, 6903024
 Provor CTS5: 6904139</t>
+  </si>
+  <si>
+    <t>050b</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+add_configuration_number_ir_rudics_cts5.m               
+add_configuration_number_ir_rudics_sbd2.m               
+add_cycle_number_in_report_struct.m                     
+add_profile_date_and_location_apx_ir_rudics.m           
+add_profile_date_and_location_apx_ir_sbd.m              
+add_rtqc_flags_to_netcdf_profile_and_trajectory_data.m  
+create_nc_mono_prof_b_files_3_1.m                       
+create_nc_mono_prof_c_files_3_1.m                       
+create_nc_mono_prof_files_3_1.m                         
+decode_apex_iridium_sbd_data_1314.m                     
+decode_apex_iridium_sbd_data_apf11.m                    
+decode_nova_iridium_sbd.m                               
+decode_provor_iridium_rudics_cts5_payload.m             
+decode_provor_iridium_rudics_cts5_usea.m                
+decode_provor_iridium_sbd.m                             
+fill_empty_profile_locations_ir_rudics.m                
+fill_empty_profile_locations_ir_sbd.m                   
+get_missing_c_prof_files.m                              
+get_nc_profile_location.m                               
+get_profile_init_struct.m                                                 
+process_decoded_data.m                                  
+process_decoded_data_cts4.m</t>
+  </si>
+  <si>
+    <t>New mechanism to be sure to generate C-PROF and B-PROF files simultaneously.
+Usage of the "updated" flag present in the profile structure replaced by the comparison of the profile location (in GENERATE_NC_MONO_PROF = 2 mode).</t>
+  </si>
+  <si>
+    <t>050c</t>
+  </si>
+  <si>
+    <t>Manage specificities of 6901880, 6902989, 6902849 transmissions.</t>
+  </si>
+  <si>
+    <t>050d</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers_212_214_216_217_218.m
+nc_create_synthetic_profile.m
+nc_create_synthetic_profile_rt.m
+ARGO_simplified_profile.m</t>
+  </si>
+  <si>
+    <t>Manage specificities of 6903774 transmissions.
+New version V 1.13 of nc_create_synthetic_profile(_rt) which includes version 09.06.2022 of ARGO_simplified_profile.</t>
+  </si>
+  <si>
+    <t>050e</t>
+  </si>
+  <si>
+    <t>Manage specificities of 3901644 transmissions.</t>
+  </si>
+  <si>
+    <t>050f</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+fill_empty_profile_locations_ir_rudics.m</t>
+  </si>
+  <si>
+    <t>Bug in processing profile position for CTS4 Remocean floats</t>
+  </si>
+  <si>
+    <t>050g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+compute_profile_location2_from_iridium_locations_ir_sbd.m  
+compute_profile_location_from_iridium_locations_ir_sbd2.m  
+compute_rt_adjusted_param.m                                
+fill_empty_profile_locations_ir_rudics.m                   
+fill_empty_profile_locations_ir_sbd.m                                             
+sort_trajectory_data.m </t>
+  </si>
+  <si>
+    <t>Few corrections in profile position algorithm (mainly for floats without Iridium locations in their Iridium mail files).</t>
+  </si>
+  <si>
+    <t>050h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+fill_empty_profile_locations_ir_rudics.m  
+fill_empty_profile_locations_ir_sbd.m     
+get_clock_offset_value_prv_ir.m           
+get_event_data_cts5.m                     
+sort_trajectory_data.m </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set FillValue instead of Nan for profile lat/lon that fail the final interpolation process.
+Provor CTS5, exclude 'autotest' files from GPS offset determination.
+Modification of sort_trajectory_data file is erroneous in the previous delivery.
+</t>
+  </si>
+  <si>
+    <t>050i</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+get_nc_profile_location.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug in pattern created to compare profile positions when deciding if a profile file should be generated or not.
+</t>
+  </si>
+  <si>
+    <t>050j</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+add_nitrate_rtqc_to_profile_file.m
+decode_provor_iridium_rudics_cts5_usea.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage the transmitted inconsistencies of float 6903125.
+</t>
+  </si>
+  <si>
+    <t>050k</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+create_decoding_buffers_222_223_225.m
+decode_provor_iridium_sbd.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage the transmitted inconsistencies of floats 6903055, 6903056 and 3901875.
+</t>
+  </si>
+  <si>
+    <t>050l</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+get_event_data_cts5.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage errors in SYSTEM files of Provor CTS5 floats (Ex: 6903127).
+</t>
+  </si>
+  <si>
+    <t>050m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't use POSITION_QC in profile location comparison (to decide if a profile file should be updated).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+create_nc_mono_prof_b_files_3_1.m  
+create_nc_mono_prof_c_files_3_1.m  
+get_nc_profile_location.m      </t>
+  </si>
+  <si>
+    <t>050n</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+decode_nemo_data.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set a position to all NEMO dated profiles.
+</t>
+  </si>
+  <si>
+    <t>050o</t>
+  </si>
+  <si>
+    <t>Manage specificities of 6903010 transmissions.</t>
+  </si>
+  <si>
+    <t>050p</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+get_netcdf_param_attributes_3_1.m
+nc_create_synthetic_profile.m
+nc_create_synthetic_profile_rt.m</t>
+  </si>
+  <si>
+    <t>CCP660_MED and _STD remained in 'b' type in get_netcdf_param_attributes_3_1 (they were then in S-PROF files), set to 'i'.</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20220829_051a</t>
+  </si>
+  <si>
+    <t>Based on '050p' version: 
+ - new decoder for Provor CTS5 Jumbo (7.14)  - still waiting for new core CONFIG labels
+ - update parameter names of prototype BGC sensors (for consistency purposes)
+ - RTQC core compliant with version 3.6.1 of the manual
+ - Provor CTS5 floats: pressure check controls added in the trajectory
+ - “Major/Minor axis of error ellipse from positioning system” replaced by “Semi-major/minor axis of error ellipse from positioning system” in TRAJ 3.2 files
+ - END_DECODING_DATE moved from INFO.json to META.json
+ - correction of anomalies detected on RT files with the checker (on EDAC)</t>
   </si>
 </sst>
 </file>
@@ -5401,11 +5615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E328"/>
+  <dimension ref="A1:E344"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C340" sqref="C340"/>
+      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E354" sqref="E354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10994,6 +11208,278 @@
         <v>1030</v>
       </c>
     </row>
+    <row r="329" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A329" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B329" s="5">
+        <v>44719</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E329" s="7" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A330" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B330" s="5">
+        <v>44720</v>
+      </c>
+      <c r="C330" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E330" s="7" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A331" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B331" s="5">
+        <v>44722</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E331" s="7" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A332" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B332" s="5">
+        <v>44733</v>
+      </c>
+      <c r="C332" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E332" s="7" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A333" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B333" s="5">
+        <v>44733</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E333" s="7" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A334" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B334" s="5">
+        <v>44741</v>
+      </c>
+      <c r="C334" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E334" s="7" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A335" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B335" s="5">
+        <v>44743</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E335" s="7" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A336" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B336" s="5">
+        <v>44746</v>
+      </c>
+      <c r="C336" s="8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E336" s="7" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A337" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B337" s="5">
+        <v>44747</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E337" s="7" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A338" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B338" s="5">
+        <v>44753</v>
+      </c>
+      <c r="C338" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E338" s="7" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A339" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B339" s="5">
+        <v>44771</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E339" s="7" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A340" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B340" s="5">
+        <v>44773</v>
+      </c>
+      <c r="C340" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E340" s="7" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A341" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B341" s="5">
+        <v>44776</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E341" s="7" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A342" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B342" s="5">
+        <v>44783</v>
+      </c>
+      <c r="C342" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E342" s="7" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B343" s="5">
+        <v>44796</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D343" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E343" s="7" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" s="9" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B344" s="11">
+        <v>44802</v>
+      </c>
+      <c r="C344" s="12" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D344" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E344" s="14" t="s">
+        <v>1074</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E229" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
+++ b/decArgo_doc/decoder_versions/_argo_decoder_versions.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FAE30F-C03B-418D-8C28-98BB37F023BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA05BC6-3FAF-4D87-B4C9-A74F37EECA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="1112">
   <si>
     <t>Version name</t>
   </si>
@@ -5163,6 +5163,175 @@
  - “Major/Minor axis of error ellipse from positioning system” replaced by “Semi-major/minor axis of error ellipse from positioning system” in TRAJ 3.2 files
  - END_DECODING_DATE moved from INFO.json to META.json
  - correction of anomalies detected on RT files with the checker (on EDAC)</t>
+  </si>
+  <si>
+    <t>051b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+add_mtime_in_profile.m               
+decode_provor_argos_data.m           
+decode_provor_iridium_sbd.m          
+decode_provor_iridium_sbd_delayed.m  </t>
+  </si>
+  <si>
+    <t>Add MTIME parameter to all PROVOR CTS3 and Arvor float versions (except Arvor C, 5.3 and 5.301).</t>
+  </si>
+  <si>
+    <t>051a</t>
+  </si>
+  <si>
+    <t>051c</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+rename_argos_input_file.m
+adjust_bgc_pres_cts5_usea.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - for Argos floats we need to read META.json file before processing the file.
+ - Provor CTS5: when SYSTEM.hex files failed, pressure checks are missing.</t>
+  </si>
+  <si>
+    <t>051d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+adjust_bgc_pres_cts5_usea.m            
+adjust_clock_offset_prv_ir.m           
+create_decoding_buffers_222_223_225.m  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Provor CTS5: cannot use interpolation to adjust PRES of SUNA profiles (beacause it can output Nan).
+ - Manage specificities of 6903125 transmissions.</t>
+  </si>
+  <si>
+    <t>051e</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+compute_rt_adjusted_param.m</t>
+  </si>
+  <si>
+    <t>Bug in RBR PSAL adjustment for TRAJ 3.2.</t>
+  </si>
+  <si>
+    <t>051f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+add_nitrate_rtqc_to_profile_file.m                             
+compute_drift_NITRATE_1xx_5_to_9_11_12_14_15_21_to_26_28.m     
+compute_drift_NITRATE_BISULFIDE_from_spectrum_110_113_127.m    
+compute_profile_NITRATE_1xx_5_to_9_11_12_14_15_21_to_26_28.m   
+compute_profile_NITRATE_BISULFIDE_from_spectrum_110_113_127.m  
+update_meta_data.m  </t>
+  </si>
+  <si>
+    <t>Modification of NITRATE processing.</t>
+  </si>
+  <si>
+    <t>051g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+adjust_clock_offset_prv_ir.m         
+create_nc_mono_prof_b_files_3_1.m    
+create_nc_mono_prof_c_files_3_1.m    
+finalize_trajectory_data_ir_sbd.m    
+get_nc_profile_location.m            
+set_n_cycle_vs_n_meas_consistency.m  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - bug in time adjustment of '051d' version
+ - APF11 bounce profiles need to be considered profile per profile in the generation test (flag 2)</t>
+  </si>
+  <si>
+    <t>051h</t>
+  </si>
+  <si>
+    <t>Error in '051f' delivery (new NITRATE processing).</t>
+  </si>
+  <si>
+    <t>051i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P
+init_default_values.m
+decode_provor_iridium_rudics_cts4.m          
+decode_provor_iridium_rudics_cts4_delayed.m  
+decode_system_log_apx_apf11_ir_1121.m        
+decode_system_log_apx_apf11_ir_1122.m        
+decode_system_log_apx_apf11_ir_1123.m        
+decode_system_log_apx_apf11_ir_1124.m        
+decode_system_log_apx_apf11_ir_1125.m        
+decode_system_log_apx_apf11_ir_1126.m        
+decode_system_log_apx_apf11_ir_1127.m        
+decode_system_log_apx_apf11_ir_1128.m        
+decode_system_log_apx_apf11_ir_1321.m        
+decode_system_log_apx_apf11_ir_1322.m        
+decode_system_log_apx_apf11_ir_1323.m        
+get_clock_offset_apx_ir_rudics_apf11.m       
+get_clock_offset_apx_ir_sbd_apf11.m          
+read_apx_apf11_ir_system_log_file.m            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Apex APF11: improve (speed up) recovery of RTC clock offset in system_log file
+ - add 'MTIME' in Provor CTS4 floats (complement of '051b')</t>
+  </si>
+  <si>
+    <t>051j</t>
+  </si>
+  <si>
+    <t>Manage specificities of 6902938 transmissions.</t>
+  </si>
+  <si>
+    <t>051k</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+nc_create_synthetic_profile.m
+nc_create_synthetic_profile_rt.m
+nc_create_synthetic_profile_.m</t>
+  </si>
+  <si>
+    <t>Update "nc_create_synthetic_profile" tool to version "1.15 (version 09.06.2022 for ARGO_simplified_profile)". Report ERROR message and don't generate S-PROF file if PRES profiles are not consistent between core and B files.</t>
+  </si>
+  <si>
+    <t>051l</t>
+  </si>
+  <si>
+    <t>P
+init_default_values.m
+cut_ctd_profile_ir_rudics.m</t>
+  </si>
+  <si>
+    <t>Anomaly in "cut_ctd_profile_ir_rudics" used in CTS4 and CTS5 =&gt; CTS5 ok but CTS4 primary profiles cut at PCutOff using MTIME data.</t>
+  </si>
+  <si>
+    <t>051m</t>
+  </si>
+  <si>
+    <t>Manage specificities of 6903777 transmissions.</t>
+  </si>
+  <si>
+    <t>C
+decArgo_20220922_052a</t>
+  </si>
+  <si>
+    <t>052a</t>
+  </si>
+  <si>
+    <t>Based on '051m' version: 
+ - update of Arvor C (5.3 and 5.301) decoders (decId 219 and 220) so that the generated files are compliant with the GDAC checker ckecks.
+ - update of Arvor CM (5.31 and 5.32) decoders (decId 302 and 303) so that the generated files are compliant with the GDAC checker ckecks.</t>
   </si>
 </sst>
 </file>
@@ -5615,24 +5784,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E344"/>
+  <dimension ref="A1:E357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E354" sqref="E354"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E368" sqref="E368"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="207" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="3"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5649,7 +5818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -5666,7 +5835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -5683,7 +5852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -5700,7 +5869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -5717,7 +5886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -5734,7 +5903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -5751,7 +5920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -5768,7 +5937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="9" customFormat="1" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
@@ -5785,7 +5954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
@@ -5802,7 +5971,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
@@ -5819,7 +5988,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -5836,7 +6005,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -5853,7 +6022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -5870,7 +6039,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="9" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="9" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>50</v>
       </c>
@@ -5887,7 +6056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -5904,7 +6073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -5921,7 +6090,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>64</v>
       </c>
@@ -5938,7 +6107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
@@ -5955,7 +6124,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
@@ -5972,7 +6141,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
@@ -5989,7 +6158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>76</v>
       </c>
@@ -6006,7 +6175,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
@@ -6023,7 +6192,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>82</v>
       </c>
@@ -6040,7 +6209,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>85</v>
       </c>
@@ -6057,7 +6226,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>88</v>
       </c>
@@ -6074,7 +6243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>91</v>
       </c>
@@ -6091,7 +6260,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>95</v>
       </c>
@@ -6108,7 +6277,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>98</v>
       </c>
@@ -6125,7 +6294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>101</v>
       </c>
@@ -6142,7 +6311,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>104</v>
       </c>
@@ -6159,7 +6328,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
@@ -6176,7 +6345,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>110</v>
       </c>
@@ -6193,7 +6362,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>113</v>
       </c>
@@ -6210,7 +6379,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>116</v>
       </c>
@@ -6227,7 +6396,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>119</v>
       </c>
@@ -6244,7 +6413,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>122</v>
       </c>
@@ -6261,7 +6430,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>125</v>
       </c>
@@ -6278,7 +6447,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>128</v>
       </c>
@@ -6295,7 +6464,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>134</v>
       </c>
@@ -6312,7 +6481,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>131</v>
       </c>
@@ -6329,7 +6498,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>137</v>
       </c>
@@ -6346,7 +6515,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>138</v>
       </c>
@@ -6363,7 +6532,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>141</v>
       </c>
@@ -6380,7 +6549,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="9" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>144</v>
       </c>
@@ -6397,7 +6566,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>147</v>
       </c>
@@ -6414,7 +6583,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>150</v>
       </c>
@@ -6431,7 +6600,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>153</v>
       </c>
@@ -6448,7 +6617,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>156</v>
       </c>
@@ -6465,7 +6634,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>159</v>
       </c>
@@ -6482,7 +6651,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>162</v>
       </c>
@@ -6499,7 +6668,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>165</v>
       </c>
@@ -6516,7 +6685,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>168</v>
       </c>
@@ -6533,7 +6702,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>171</v>
       </c>
@@ -6550,7 +6719,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>174</v>
       </c>
@@ -6567,7 +6736,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>177</v>
       </c>
@@ -6584,7 +6753,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>180</v>
       </c>
@@ -6601,7 +6770,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>183</v>
       </c>
@@ -6618,7 +6787,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>186</v>
       </c>
@@ -6635,7 +6804,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="9" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>189</v>
       </c>
@@ -6652,7 +6821,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>192</v>
       </c>
@@ -6669,7 +6838,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>195</v>
       </c>
@@ -6686,7 +6855,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>198</v>
       </c>
@@ -6703,7 +6872,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>201</v>
       </c>
@@ -6720,7 +6889,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>204</v>
       </c>
@@ -6737,7 +6906,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="9" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" s="9" customFormat="1" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>207</v>
       </c>
@@ -6754,7 +6923,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
         <v>210</v>
       </c>
@@ -6771,7 +6940,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>213</v>
       </c>
@@ -6788,7 +6957,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>232</v>
       </c>
@@ -6805,7 +6974,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>233</v>
       </c>
@@ -6822,7 +6991,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>234</v>
       </c>
@@ -6839,7 +7008,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>235</v>
       </c>
@@ -6856,7 +7025,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>236</v>
       </c>
@@ -6873,7 +7042,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="303" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>237</v>
       </c>
@@ -6890,7 +7059,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>228</v>
       </c>
@@ -6907,7 +7076,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>240</v>
       </c>
@@ -6924,7 +7093,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>241</v>
       </c>
@@ -6941,7 +7110,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>244</v>
       </c>
@@ -6958,7 +7127,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="9" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" s="9" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>247</v>
       </c>
@@ -6975,7 +7144,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>250</v>
       </c>
@@ -6992,7 +7161,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>252</v>
       </c>
@@ -7009,7 +7178,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>254</v>
       </c>
@@ -7026,7 +7195,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>256</v>
       </c>
@@ -7043,7 +7212,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>258</v>
       </c>
@@ -7060,7 +7229,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>260</v>
       </c>
@@ -7077,7 +7246,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>263</v>
       </c>
@@ -7094,7 +7263,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>265</v>
       </c>
@@ -7111,7 +7280,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>267</v>
       </c>
@@ -7128,7 +7297,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>269</v>
       </c>
@@ -7145,7 +7314,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>271</v>
       </c>
@@ -7162,7 +7331,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>273</v>
       </c>
@@ -7179,7 +7348,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>275</v>
       </c>
@@ -7196,7 +7365,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" s="9" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>278</v>
       </c>
@@ -7213,7 +7382,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>281</v>
       </c>
@@ -7230,7 +7399,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>283</v>
       </c>
@@ -7247,7 +7416,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>286</v>
       </c>
@@ -7264,7 +7433,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>287</v>
       </c>
@@ -7281,7 +7450,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>289</v>
       </c>
@@ -7298,7 +7467,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>291</v>
       </c>
@@ -7315,7 +7484,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>296</v>
       </c>
@@ -7332,7 +7501,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>293</v>
       </c>
@@ -7349,7 +7518,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>298</v>
       </c>
@@ -7366,7 +7535,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>300</v>
       </c>
@@ -7383,7 +7552,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>302</v>
       </c>
@@ -7400,7 +7569,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>304</v>
       </c>
@@ -7417,7 +7586,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>307</v>
       </c>
@@ -7434,7 +7603,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>309</v>
       </c>
@@ -7451,7 +7620,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>312</v>
       </c>
@@ -7468,7 +7637,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>313</v>
       </c>
@@ -7485,7 +7654,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>315</v>
       </c>
@@ -7502,7 +7671,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>317</v>
       </c>
@@ -7519,7 +7688,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
         <v>319</v>
       </c>
@@ -7536,7 +7705,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>322</v>
       </c>
@@ -7553,7 +7722,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>324</v>
       </c>
@@ -7570,7 +7739,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>326</v>
       </c>
@@ -7587,7 +7756,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="9" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
         <v>328</v>
       </c>
@@ -7604,7 +7773,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
         <v>331</v>
       </c>
@@ -7621,7 +7790,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>334</v>
       </c>
@@ -7638,7 +7807,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>336</v>
       </c>
@@ -7655,7 +7824,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="9" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
         <v>338</v>
       </c>
@@ -7672,7 +7841,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>340</v>
       </c>
@@ -7689,7 +7858,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>342</v>
       </c>
@@ -7706,7 +7875,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>345</v>
       </c>
@@ -7723,7 +7892,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>346</v>
       </c>
@@ -7740,7 +7909,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>348</v>
       </c>
@@ -7757,7 +7926,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>351</v>
       </c>
@@ -7774,7 +7943,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>353</v>
       </c>
@@ -7791,7 +7960,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>354</v>
       </c>
@@ -7808,7 +7977,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>356</v>
       </c>
@@ -7825,7 +7994,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>358</v>
       </c>
@@ -7842,7 +8011,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="288" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>359</v>
       </c>
@@ -7859,7 +8028,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>361</v>
       </c>
@@ -7876,7 +8045,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>363</v>
       </c>
@@ -7893,7 +8062,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>365</v>
       </c>
@@ -7910,7 +8079,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>367</v>
       </c>
@@ -7927,7 +8096,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>369</v>
       </c>
@@ -7944,7 +8113,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="9" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" s="9" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="10" t="s">
         <v>371</v>
       </c>
@@ -7961,7 +8130,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>375</v>
       </c>
@@ -7978,7 +8147,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="139" spans="1:5" s="9" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" s="9" customFormat="1" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
         <v>377</v>
       </c>
@@ -7995,7 +8164,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>380</v>
       </c>
@@ -8012,7 +8181,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>382</v>
       </c>
@@ -8029,7 +8198,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" s="9" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="10" t="s">
         <v>384</v>
       </c>
@@ -8046,7 +8215,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>387</v>
       </c>
@@ -8063,7 +8232,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>491</v>
       </c>
@@ -8080,7 +8249,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>494</v>
       </c>
@@ -8097,7 +8266,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
         <v>497</v>
       </c>
@@ -8114,7 +8283,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>500</v>
       </c>
@@ -8131,7 +8300,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>505</v>
       </c>
@@ -8148,7 +8317,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>507</v>
       </c>
@@ -8165,7 +8334,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>509</v>
       </c>
@@ -8182,7 +8351,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="151" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" s="9" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="10" t="s">
         <v>512</v>
       </c>
@@ -8199,7 +8368,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>515</v>
       </c>
@@ -8216,7 +8385,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>518</v>
       </c>
@@ -8233,7 +8402,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>521</v>
       </c>
@@ -8250,7 +8419,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>524</v>
       </c>
@@ -8267,7 +8436,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>527</v>
       </c>
@@ -8284,7 +8453,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="157" spans="1:5" s="9" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" s="9" customFormat="1" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="10" t="s">
         <v>530</v>
       </c>
@@ -8301,7 +8470,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>533</v>
       </c>
@@ -8318,7 +8487,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>537</v>
       </c>
@@ -8335,7 +8504,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>539</v>
       </c>
@@ -8352,7 +8521,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>542</v>
       </c>
@@ -8369,7 +8538,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>544</v>
       </c>
@@ -8386,7 +8555,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>550</v>
       </c>
@@ -8403,7 +8572,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>549</v>
       </c>
@@ -8420,7 +8589,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>552</v>
       </c>
@@ -8437,7 +8606,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>555</v>
       </c>
@@ -8454,7 +8623,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>558</v>
       </c>
@@ -8471,7 +8640,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>560</v>
       </c>
@@ -8488,7 +8657,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>563</v>
       </c>
@@ -8505,7 +8674,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>566</v>
       </c>
@@ -8522,7 +8691,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="9" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" s="9" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="10" t="s">
         <v>569</v>
       </c>
@@ -8539,7 +8708,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>572</v>
       </c>
@@ -8556,7 +8725,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>574</v>
       </c>
@@ -8573,7 +8742,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>577</v>
       </c>
@@ -8590,7 +8759,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="9" customFormat="1" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" s="9" customFormat="1" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="10" t="s">
         <v>580</v>
       </c>
@@ -8607,7 +8776,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>583</v>
       </c>
@@ -8624,7 +8793,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>586</v>
       </c>
@@ -8641,7 +8810,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>589</v>
       </c>
@@ -8658,7 +8827,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>592</v>
       </c>
@@ -8675,7 +8844,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>595</v>
       </c>
@@ -8692,7 +8861,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>598</v>
       </c>
@@ -8709,7 +8878,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>601</v>
       </c>
@@ -8726,7 +8895,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="183" spans="1:5" s="9" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" s="9" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="10" t="s">
         <v>604</v>
       </c>
@@ -8743,7 +8912,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>607</v>
       </c>
@@ -8760,7 +8929,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>610</v>
       </c>
@@ -8777,7 +8946,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>613</v>
       </c>
@@ -8794,7 +8963,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>616</v>
       </c>
@@ -8811,7 +8980,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>645</v>
       </c>
@@ -8828,7 +8997,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="189" spans="1:5" s="9" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="10" t="s">
         <v>619</v>
       </c>
@@ -8845,7 +9014,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>622</v>
       </c>
@@ -8862,7 +9031,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>625</v>
       </c>
@@ -8879,7 +9048,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>628</v>
       </c>
@@ -8896,7 +9065,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>631</v>
       </c>
@@ -8913,7 +9082,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>633</v>
       </c>
@@ -8930,7 +9099,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>636</v>
       </c>
@@ -8947,7 +9116,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>639</v>
       </c>
@@ -8964,7 +9133,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
         <v>642</v>
       </c>
@@ -8981,7 +9150,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="198" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" s="9" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="10" t="s">
         <v>659</v>
       </c>
@@ -8998,7 +9167,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>650</v>
       </c>
@@ -9015,7 +9184,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>653</v>
       </c>
@@ -9032,7 +9201,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>656</v>
       </c>
@@ -9049,7 +9218,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="202" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" s="9" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="10" t="s">
         <v>660</v>
       </c>
@@ -9066,7 +9235,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>663</v>
       </c>
@@ -9083,7 +9252,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="360" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>666</v>
       </c>
@@ -9100,7 +9269,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>669</v>
       </c>
@@ -9117,7 +9286,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>672</v>
       </c>
@@ -9134,7 +9303,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>675</v>
       </c>
@@ -9151,7 +9320,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="208" spans="1:5" s="9" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="10" t="s">
         <v>678</v>
       </c>
@@ -9168,7 +9337,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>680</v>
       </c>
@@ -9185,7 +9354,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>683</v>
       </c>
@@ -9202,7 +9371,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>686</v>
       </c>
@@ -9219,7 +9388,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>689</v>
       </c>
@@ -9236,7 +9405,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>692</v>
       </c>
@@ -9253,7 +9422,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>695</v>
       </c>
@@ -9270,7 +9439,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>698</v>
       </c>
@@ -9287,7 +9456,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>701</v>
       </c>
@@ -9304,7 +9473,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="10" t="s">
         <v>704</v>
       </c>
@@ -9321,7 +9490,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>707</v>
       </c>
@@ -9338,7 +9507,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>710</v>
       </c>
@@ -9355,7 +9524,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>713</v>
       </c>
@@ -9372,7 +9541,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="221" spans="1:5" s="9" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" s="9" customFormat="1" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="10" t="s">
         <v>716</v>
       </c>
@@ -9389,7 +9558,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>721</v>
       </c>
@@ -9406,7 +9575,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>724</v>
       </c>
@@ -9423,7 +9592,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>725</v>
       </c>
@@ -9440,7 +9609,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>730</v>
       </c>
@@ -9457,7 +9626,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>731</v>
       </c>
@@ -9474,7 +9643,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>734</v>
       </c>
@@ -9491,7 +9660,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>737</v>
       </c>
@@ -9508,7 +9677,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>740</v>
       </c>
@@ -9525,7 +9694,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>743</v>
       </c>
@@ -9542,7 +9711,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
         <v>749</v>
       </c>
@@ -9559,7 +9728,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="232" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="10" t="s">
         <v>745</v>
       </c>
@@ -9576,7 +9745,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>753</v>
       </c>
@@ -9593,7 +9762,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="234" spans="1:5" s="9" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" s="9" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="10" t="s">
         <v>754</v>
       </c>
@@ -9610,7 +9779,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>756</v>
       </c>
@@ -9627,7 +9796,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>759</v>
       </c>
@@ -9644,7 +9813,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>762</v>
       </c>
@@ -9661,7 +9830,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>765</v>
       </c>
@@ -9678,7 +9847,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>767</v>
       </c>
@@ -9695,7 +9864,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>772</v>
       </c>
@@ -9712,7 +9881,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="241" spans="1:5" s="9" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" s="9" customFormat="1" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="10" t="s">
         <v>773</v>
       </c>
@@ -9729,7 +9898,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>779</v>
       </c>
@@ -9746,7 +9915,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>780</v>
       </c>
@@ -9763,7 +9932,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>782</v>
       </c>
@@ -9780,7 +9949,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>784</v>
       </c>
@@ -9797,7 +9966,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>787</v>
       </c>
@@ -9814,7 +9983,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>789</v>
       </c>
@@ -9831,7 +10000,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>792</v>
       </c>
@@ -9848,7 +10017,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
         <v>795</v>
       </c>
@@ -9865,7 +10034,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="250" spans="1:5" s="9" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" s="9" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="10" t="s">
         <v>800</v>
       </c>
@@ -9882,7 +10051,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>801</v>
       </c>
@@ -9899,7 +10068,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>808</v>
       </c>
@@ -9916,7 +10085,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>809</v>
       </c>
@@ -9933,7 +10102,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>810</v>
       </c>
@@ -9950,7 +10119,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
         <v>813</v>
       </c>
@@ -9967,7 +10136,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="256" spans="1:5" s="9" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" s="9" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="10" t="s">
         <v>816</v>
       </c>
@@ -9984,7 +10153,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>821</v>
       </c>
@@ -10001,7 +10170,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>822</v>
       </c>
@@ -10018,7 +10187,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
         <v>825</v>
       </c>
@@ -10035,7 +10204,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="260" spans="1:5" s="9" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" s="9" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="10" t="s">
         <v>828</v>
       </c>
@@ -10052,7 +10221,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>831</v>
       </c>
@@ -10069,7 +10238,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>834</v>
       </c>
@@ -10086,7 +10255,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>837</v>
       </c>
@@ -10103,7 +10272,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>840</v>
       </c>
@@ -10120,7 +10289,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>843</v>
       </c>
@@ -10137,7 +10306,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>846</v>
       </c>
@@ -10154,7 +10323,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>849</v>
       </c>
@@ -10171,7 +10340,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
         <v>852</v>
       </c>
@@ -10188,7 +10357,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="269" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" s="9" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="10" t="s">
         <v>855</v>
       </c>
@@ -10205,7 +10374,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>858</v>
       </c>
@@ -10222,7 +10391,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>860</v>
       </c>
@@ -10239,7 +10408,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>865</v>
       </c>
@@ -10256,7 +10425,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>866</v>
       </c>
@@ -10273,7 +10442,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>869</v>
       </c>
@@ -10290,7 +10459,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
         <v>872</v>
       </c>
@@ -10307,7 +10476,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
         <v>875</v>
       </c>
@@ -10324,7 +10493,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="216" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
         <v>878</v>
       </c>
@@ -10341,7 +10510,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
         <v>881</v>
       </c>
@@ -10358,7 +10527,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
         <v>884</v>
       </c>
@@ -10375,7 +10544,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>887</v>
       </c>
@@ -10392,7 +10561,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>891</v>
       </c>
@@ -10409,7 +10578,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>893</v>
       </c>
@@ -10426,7 +10595,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>896</v>
       </c>
@@ -10443,7 +10612,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>899</v>
       </c>
@@ -10460,7 +10629,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>903</v>
       </c>
@@ -10477,7 +10646,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>905</v>
       </c>
@@ -10494,7 +10663,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>908</v>
       </c>
@@ -10511,7 +10680,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
         <v>911</v>
       </c>
@@ -10528,7 +10697,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
         <v>914</v>
       </c>
@@ -10545,7 +10714,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="290" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" s="9" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="10" t="s">
         <v>917</v>
       </c>
@@ -10562,7 +10731,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
         <v>920</v>
       </c>
@@ -10579,7 +10748,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
         <v>923</v>
       </c>
@@ -10596,7 +10765,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
         <v>926</v>
       </c>
@@ -10613,7 +10782,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
         <v>929</v>
       </c>
@@ -10630,7 +10799,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
         <v>932</v>
       </c>
@@ -10647,7 +10816,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
         <v>935</v>
       </c>
@@ -10664,7 +10833,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="297" spans="1:5" s="9" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" s="9" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="10" t="s">
         <v>938</v>
       </c>
@@ -10681,7 +10850,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
         <v>941</v>
       </c>
@@ -10698,7 +10867,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
         <v>944</v>
       </c>
@@ -10715,7 +10884,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
         <v>948</v>
       </c>
@@ -10732,7 +10901,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
         <v>950</v>
       </c>
@@ -10749,7 +10918,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
         <v>953</v>
       </c>
@@ -10766,7 +10935,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
         <v>955</v>
       </c>
@@ -10783,7 +10952,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
         <v>958</v>
       </c>
@@ -10800,7 +10969,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
         <v>961</v>
       </c>
@@ -10817,7 +10986,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
         <v>964</v>
       </c>
@@ -10834,7 +11003,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
         <v>967</v>
       </c>
@@ -10851,7 +11020,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
         <v>970</v>
       </c>
@@ -10868,7 +11037,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
         <v>973</v>
       </c>
@@ -10885,7 +11054,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
         <v>976</v>
       </c>
@@ -10902,7 +11071,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
         <v>979</v>
       </c>
@@ -10919,7 +11088,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
         <v>982</v>
       </c>
@@ -10936,7 +11105,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="313" spans="1:5" s="9" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" s="9" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="10" t="s">
         <v>985</v>
       </c>
@@ -10953,7 +11122,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
         <v>988</v>
       </c>
@@ -10970,7 +11139,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
         <v>991</v>
       </c>
@@ -10987,7 +11156,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
         <v>994</v>
       </c>
@@ -11004,7 +11173,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
         <v>997</v>
       </c>
@@ -11021,7 +11190,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
         <v>1000</v>
       </c>
@@ -11038,7 +11207,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
         <v>1000</v>
       </c>
@@ -11055,7 +11224,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
         <v>1005</v>
       </c>
@@ -11072,7 +11241,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
         <v>1008</v>
       </c>
@@ -11089,7 +11258,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="322" spans="1:5" s="9" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" s="9" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="10" t="s">
         <v>1011</v>
       </c>
@@ -11106,7 +11275,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
         <v>1014</v>
       </c>
@@ -11123,7 +11292,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="4" t="s">
         <v>1017</v>
       </c>
@@ -11140,7 +11309,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="325" spans="1:5" s="9" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="10" t="s">
         <v>1020</v>
       </c>
@@ -11157,7 +11326,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
         <v>1023</v>
       </c>
@@ -11174,7 +11343,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="4" t="s">
         <v>1025</v>
       </c>
@@ -11191,7 +11360,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="328" spans="1:5" s="9" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" s="9" customFormat="1" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="10" t="s">
         <v>1028</v>
       </c>
@@ -11208,7 +11377,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
         <v>1031</v>
       </c>
@@ -11225,7 +11394,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
         <v>1034</v>
       </c>
@@ -11242,7 +11411,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
         <v>1036</v>
       </c>
@@ -11259,7 +11428,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>1039</v>
       </c>
@@ -11276,7 +11445,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>1041</v>
       </c>
@@ -11293,7 +11462,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
         <v>1044</v>
       </c>
@@ -11310,7 +11479,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
         <v>1047</v>
       </c>
@@ -11327,7 +11496,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
         <v>1050</v>
       </c>
@@ -11344,7 +11513,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
         <v>1053</v>
       </c>
@@ -11361,7 +11530,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
         <v>1056</v>
       </c>
@@ -11378,7 +11547,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
         <v>1059</v>
       </c>
@@ -11395,7 +11564,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
         <v>1062</v>
       </c>
@@ -11412,7 +11581,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
         <v>1065</v>
       </c>
@@ -11429,7 +11598,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
         <v>1068</v>
       </c>
@@ -11446,7 +11615,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="4" t="s">
         <v>1070</v>
       </c>
@@ -11463,9 +11632,9 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="344" spans="1:5" s="9" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" s="9" customFormat="1" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="10" t="s">
-        <v>1028</v>
+        <v>1078</v>
       </c>
       <c r="B344" s="11">
         <v>44802</v>
@@ -11478,6 +11647,227 @@
       </c>
       <c r="E344" s="14" t="s">
         <v>1074</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A345" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B345" s="5">
+        <v>44803</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D345" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E345" s="7" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A346" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B346" s="5">
+        <v>44803</v>
+      </c>
+      <c r="C346" s="8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E346" s="7" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A347" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B347" s="5">
+        <v>44805</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E347" s="7" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A348" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B348" s="5">
+        <v>44806</v>
+      </c>
+      <c r="C348" s="8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E348" s="7" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A349" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B349" s="5">
+        <v>44806</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E349" s="7" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A350" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B350" s="5">
+        <v>44809</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E350" s="7" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A351" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B351" s="5">
+        <v>44811</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E351" s="7" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A352" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B352" s="5">
+        <v>44813</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E352" s="7" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A353" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B353" s="5">
+        <v>44816</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E353" s="7" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A354" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B354" s="5">
+        <v>44817</v>
+      </c>
+      <c r="C354" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E354" s="7" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A355" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B355" s="5">
+        <v>44817</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E355" s="7" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B356" s="5">
+        <v>44824</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="D356" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E356" s="7" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" s="9" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B357" s="11">
+        <v>44826</v>
+      </c>
+      <c r="C357" s="12" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D357" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E357" s="14" t="s">
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
